--- a/TablaG5.xlsx
+++ b/TablaG5.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allan\Desktop\UNAH\IS-511\MIPROYECTO\Proyecto-Redes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ariel\Documents\GitHub\Proyecto-Redes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="72">
   <si>
     <t>Tipo</t>
   </si>
@@ -132,13 +132,121 @@
   </si>
   <si>
     <t>PDA</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Broadcast</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Prefijo</t>
+  </si>
+  <si>
+    <t>Host Encontrados</t>
+  </si>
+  <si>
+    <t>196.188.1.3</t>
+  </si>
+  <si>
+    <t>255.255.255.252</t>
+  </si>
+  <si>
+    <t>/30</t>
+  </si>
+  <si>
+    <t>Hosts Validos</t>
+  </si>
+  <si>
+    <t>196.188.1.0</t>
+  </si>
+  <si>
+    <t>196.188.1.1-196.188.1.2</t>
+  </si>
+  <si>
+    <t>196.188.1.4</t>
+  </si>
+  <si>
+    <t>196.188.1.5-196.188.1.6</t>
+  </si>
+  <si>
+    <t>196.188.1.7</t>
+  </si>
+  <si>
+    <t>196.188.1.8</t>
+  </si>
+  <si>
+    <t>196.188.1.12</t>
+  </si>
+  <si>
+    <t>196.188.1.16</t>
+  </si>
+  <si>
+    <t>196.188.1.20</t>
+  </si>
+  <si>
+    <t>196.188.1.24</t>
+  </si>
+  <si>
+    <t>196.188.1.28</t>
+  </si>
+  <si>
+    <t>196.188.1.32</t>
+  </si>
+  <si>
+    <t>196.188.1.11</t>
+  </si>
+  <si>
+    <t>196.188.1.15</t>
+  </si>
+  <si>
+    <t>196.188.1.19</t>
+  </si>
+  <si>
+    <t>196.188.1.23</t>
+  </si>
+  <si>
+    <t>196.188.1.27</t>
+  </si>
+  <si>
+    <t>196.188.1.31</t>
+  </si>
+  <si>
+    <t>196.188.1.35</t>
+  </si>
+  <si>
+    <t>196.188.1.9-196.188.1.10</t>
+  </si>
+  <si>
+    <t>196.188.1.13-196.188.1.14</t>
+  </si>
+  <si>
+    <t>196.188.1.17-196.188.1.18</t>
+  </si>
+  <si>
+    <t>196.188.1.21-196.188.1.22</t>
+  </si>
+  <si>
+    <t>196.188.1.25-196.188.1.26</t>
+  </si>
+  <si>
+    <t>196.188.1.29-196.188.1.30</t>
+  </si>
+  <si>
+    <t>196.188.1.33-196.188.1.34</t>
+  </si>
+  <si>
+    <t>Redes WAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +257,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -198,7 +312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -221,6 +335,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -231,7 +354,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -257,6 +380,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -544,18 +676,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H117"/>
+  <dimension ref="B1:O117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B97" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,8 +719,26 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -598,8 +758,26 @@
       <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -619,8 +797,26 @@
       <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -640,8 +836,26 @@
       <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
@@ -661,8 +875,26 @@
       <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -682,8 +914,26 @@
       <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
@@ -703,8 +953,26 @@
       <c r="H8" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
@@ -724,8 +992,26 @@
       <c r="H9" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
@@ -745,8 +1031,26 @@
       <c r="H10" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
@@ -766,8 +1070,26 @@
       <c r="H11" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -787,8 +1109,14 @@
       <c r="H12" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J12" s="12"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
@@ -808,8 +1136,13 @@
       <c r="H13" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -829,8 +1162,13 @@
       <c r="H14" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K14" s="11"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
@@ -850,8 +1188,13 @@
       <c r="H15" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K15" s="11"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -871,8 +1214,13 @@
       <c r="H16" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K16" s="11"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
@@ -892,8 +1240,13 @@
       <c r="H17" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K17" s="11"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
@@ -913,8 +1266,13 @@
       <c r="H18" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K18" s="11"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
@@ -934,8 +1292,13 @@
       <c r="H19" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K19" s="11"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
@@ -955,8 +1318,13 @@
       <c r="H20" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
@@ -977,7 +1345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>12</v>
       </c>
@@ -998,7 +1366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>10</v>
       </c>
@@ -1019,7 +1387,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
@@ -1040,7 +1408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>11</v>
       </c>
@@ -1061,7 +1429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>11</v>
       </c>
@@ -1082,7 +1450,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>12</v>
       </c>
@@ -1103,7 +1471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>7</v>
       </c>
@@ -1124,7 +1492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>11</v>
       </c>
@@ -1145,7 +1513,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>11</v>
       </c>
@@ -1166,7 +1534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>12</v>
       </c>
@@ -1187,7 +1555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>15</v>
       </c>
@@ -2995,5 +3363,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TablaG5.xlsx
+++ b/TablaG5.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ariel\Documents\GitHub\Proyecto-Redes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allan\Desktop\UNAH\IS-511\MIPROYECTO\Proyecto-Redes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dispositivos" sheetId="1" r:id="rId1"/>
+    <sheet name="WAN" sheetId="2" r:id="rId2"/>
+    <sheet name="LAN" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="92">
   <si>
     <t>Tipo</t>
   </si>
@@ -134,119 +136,179 @@
     <t>PDA</t>
   </si>
   <si>
-    <t>Red</t>
-  </si>
-  <si>
     <t>Broadcast</t>
   </si>
   <si>
-    <t>Mask</t>
-  </si>
-  <si>
     <t>Prefijo</t>
   </si>
   <si>
-    <t>Host Encontrados</t>
-  </si>
-  <si>
-    <t>196.188.1.3</t>
-  </si>
-  <si>
     <t>255.255.255.252</t>
   </si>
   <si>
-    <t>/30</t>
-  </si>
-  <si>
-    <t>Hosts Validos</t>
-  </si>
-  <si>
-    <t>196.188.1.0</t>
-  </si>
-  <si>
-    <t>196.188.1.1-196.188.1.2</t>
-  </si>
-  <si>
-    <t>196.188.1.4</t>
-  </si>
-  <si>
-    <t>196.188.1.5-196.188.1.6</t>
-  </si>
-  <si>
-    <t>196.188.1.7</t>
-  </si>
-  <si>
-    <t>196.188.1.8</t>
-  </si>
-  <si>
-    <t>196.188.1.12</t>
-  </si>
-  <si>
-    <t>196.188.1.16</t>
-  </si>
-  <si>
-    <t>196.188.1.20</t>
-  </si>
-  <si>
-    <t>196.188.1.24</t>
-  </si>
-  <si>
-    <t>196.188.1.28</t>
-  </si>
-  <si>
-    <t>196.188.1.32</t>
-  </si>
-  <si>
-    <t>196.188.1.11</t>
-  </si>
-  <si>
-    <t>196.188.1.15</t>
-  </si>
-  <si>
-    <t>196.188.1.19</t>
-  </si>
-  <si>
-    <t>196.188.1.23</t>
-  </si>
-  <si>
-    <t>196.188.1.27</t>
-  </si>
-  <si>
-    <t>196.188.1.31</t>
-  </si>
-  <si>
-    <t>196.188.1.35</t>
-  </si>
-  <si>
-    <t>196.188.1.9-196.188.1.10</t>
-  </si>
-  <si>
-    <t>196.188.1.13-196.188.1.14</t>
-  </si>
-  <si>
-    <t>196.188.1.17-196.188.1.18</t>
-  </si>
-  <si>
-    <t>196.188.1.21-196.188.1.22</t>
-  </si>
-  <si>
-    <t>196.188.1.25-196.188.1.26</t>
-  </si>
-  <si>
-    <t>196.188.1.29-196.188.1.30</t>
-  </si>
-  <si>
-    <t>196.188.1.33-196.188.1.34</t>
-  </si>
-  <si>
-    <t>Redes WAN</t>
+    <t xml:space="preserve">Red WAN </t>
+  </si>
+  <si>
+    <t>Seriales</t>
+  </si>
+  <si>
+    <t>Subneting Wan</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>192.188.1.0/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP Class </t>
+  </si>
+  <si>
+    <t>Segmento</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>TGU</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>192.188.1.0</t>
+  </si>
+  <si>
+    <t># Subred</t>
+  </si>
+  <si>
+    <t>Dirección Red</t>
+  </si>
+  <si>
+    <t>Primera Dirección</t>
+  </si>
+  <si>
+    <t>Última dirección</t>
+  </si>
+  <si>
+    <t>Mascara</t>
+  </si>
+  <si>
+    <t>Disponibles</t>
+  </si>
+  <si>
+    <t>Utilizadas</t>
+  </si>
+  <si>
+    <t>Oficinas</t>
+  </si>
+  <si>
+    <t>192.188.1.1</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>192.188.1.2</t>
+  </si>
+  <si>
+    <t>192.188.1.3</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>192.188.1.4</t>
+  </si>
+  <si>
+    <t>192.188.1.5</t>
+  </si>
+  <si>
+    <t>192.188.1.6</t>
+  </si>
+  <si>
+    <t>192.188.1.7</t>
+  </si>
+  <si>
+    <t>192.188.1.8</t>
+  </si>
+  <si>
+    <t>192.188.1.9</t>
+  </si>
+  <si>
+    <t>192.188.1.10</t>
+  </si>
+  <si>
+    <t>192.188.1.11</t>
+  </si>
+  <si>
+    <t>192.188.1.12</t>
+  </si>
+  <si>
+    <t>192.188.1.13</t>
+  </si>
+  <si>
+    <t>192.188.1.14</t>
+  </si>
+  <si>
+    <t>192.188.1.15</t>
+  </si>
+  <si>
+    <t>PAM</t>
+  </si>
+  <si>
+    <t>192.188.1.16</t>
+  </si>
+  <si>
+    <t>192.188.1.17</t>
+  </si>
+  <si>
+    <t>192.188.1.18</t>
+  </si>
+  <si>
+    <t>192.188.1.19</t>
+  </si>
+  <si>
+    <t>192.188.1.20</t>
+  </si>
+  <si>
+    <t>192.188.1.21</t>
+  </si>
+  <si>
+    <t>192.188.1.22</t>
+  </si>
+  <si>
+    <t>192.188.1.23</t>
+  </si>
+  <si>
+    <t>192.188.1.24</t>
+  </si>
+  <si>
+    <t>192.188.1.25</t>
+  </si>
+  <si>
+    <t>192.188.1.26</t>
+  </si>
+  <si>
+    <t>192.188.1.27</t>
+  </si>
+  <si>
+    <t>192.188.1.28</t>
+  </si>
+  <si>
+    <t>192.188.1.29</t>
+  </si>
+  <si>
+    <t>192.188.1.30</t>
+  </si>
+  <si>
+    <t>192.188.1.31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,8 +329,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,6 +389,17 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -337,15 +426,21 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -353,8 +448,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -381,17 +477,27 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
+    <cellStyle name="Cálculo" xfId="7" builtinId="22"/>
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
     <cellStyle name="Énfasis2" xfId="2" builtinId="33"/>
     <cellStyle name="Énfasis3" xfId="3" builtinId="37"/>
@@ -676,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O117"/>
+  <dimension ref="B2:O117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,11 +798,6 @@
     <col min="15" max="15" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K1" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -719,24 +820,6 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -758,24 +841,6 @@
       <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="12">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -797,24 +862,6 @@
       <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="12">
-        <v>2</v>
-      </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
@@ -836,24 +883,6 @@
       <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="12">
-        <v>2</v>
-      </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
@@ -875,24 +904,6 @@
       <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="12">
-        <v>2</v>
-      </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
@@ -914,24 +925,6 @@
       <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="12">
-        <v>2</v>
-      </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -953,24 +946,6 @@
       <c r="H8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="12">
-        <v>2</v>
-      </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -992,24 +967,6 @@
       <c r="H9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="O9" s="12">
-        <v>2</v>
-      </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -1031,24 +988,6 @@
       <c r="H10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" s="12">
-        <v>2</v>
-      </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
@@ -1070,24 +1009,6 @@
       <c r="H11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" s="12">
-        <v>2</v>
-      </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
@@ -1109,12 +1030,12 @@
       <c r="H12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
@@ -1136,11 +1057,11 @@
       <c r="H13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
@@ -1162,11 +1083,11 @@
       <c r="H14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
@@ -1188,11 +1109,11 @@
       <c r="H15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
@@ -1214,11 +1135,11 @@
       <c r="H16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
@@ -1240,11 +1161,11 @@
       <c r="H17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
@@ -1266,11 +1187,11 @@
       <c r="H18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
@@ -1292,11 +1213,11 @@
       <c r="H19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
@@ -1318,11 +1239,11 @@
       <c r="H20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
@@ -3365,4 +3286,588 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:T13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="12">
+        <v>24</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="12">
+        <v>4</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>2</v>
+      </c>
+      <c r="R4" s="12">
+        <v>2</v>
+      </c>
+      <c r="S4" s="12">
+        <v>1</v>
+      </c>
+      <c r="T4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="12">
+        <v>24</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="12">
+        <v>2</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12">
+        <v>2</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>2</v>
+      </c>
+      <c r="R5" s="12">
+        <v>2</v>
+      </c>
+      <c r="S5" s="12">
+        <v>1</v>
+      </c>
+      <c r="T5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="12">
+        <v>24</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="12">
+        <v>2</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12">
+        <v>3</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>2</v>
+      </c>
+      <c r="R6" s="12">
+        <v>2</v>
+      </c>
+      <c r="S6" s="12">
+        <v>1</v>
+      </c>
+      <c r="T6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="12">
+        <v>24</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="12">
+        <v>2</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12">
+        <v>4</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>2</v>
+      </c>
+      <c r="R7" s="12">
+        <v>2</v>
+      </c>
+      <c r="S7" s="12">
+        <v>1</v>
+      </c>
+      <c r="T7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="12">
+        <v>24</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12">
+        <v>5</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>2</v>
+      </c>
+      <c r="R8" s="12">
+        <v>1</v>
+      </c>
+      <c r="S8" s="12">
+        <v>1</v>
+      </c>
+      <c r="T8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="12">
+        <v>24</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12">
+        <v>6</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>2</v>
+      </c>
+      <c r="R9" s="12">
+        <v>1</v>
+      </c>
+      <c r="S9" s="12">
+        <v>1</v>
+      </c>
+      <c r="T9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="12">
+        <v>24</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12">
+        <v>7</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>2</v>
+      </c>
+      <c r="R10" s="12">
+        <v>1</v>
+      </c>
+      <c r="S10" s="12">
+        <v>1</v>
+      </c>
+      <c r="T10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="12">
+        <v>24</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12">
+        <v>8</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>2</v>
+      </c>
+      <c r="R11" s="12">
+        <v>1</v>
+      </c>
+      <c r="S11" s="12">
+        <v>1</v>
+      </c>
+      <c r="T11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TablaG5.xlsx
+++ b/TablaG5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dispositivos" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="209">
   <si>
     <t>Tipo</t>
   </si>
@@ -302,13 +302,364 @@
   </si>
   <si>
     <t>192.188.1.31</t>
+  </si>
+  <si>
+    <t>Red LAN</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>Subneting LAN</t>
+  </si>
+  <si>
+    <t>IP Class</t>
+  </si>
+  <si>
+    <t>220.10.0.0/24</t>
+  </si>
+  <si>
+    <t>220.10.0.0</t>
+  </si>
+  <si>
+    <t>Piso</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Printers</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Primera dirección</t>
+  </si>
+  <si>
+    <t>Ulizadas</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>192.122.10.0</t>
+  </si>
+  <si>
+    <t>220.10.0.1</t>
+  </si>
+  <si>
+    <t>220.10.0.126</t>
+  </si>
+  <si>
+    <t>220.10.0.127</t>
+  </si>
+  <si>
+    <t>255.255.255.128</t>
+  </si>
+  <si>
+    <t>200.10.0.0</t>
+  </si>
+  <si>
+    <t>220.10.0.128</t>
+  </si>
+  <si>
+    <t>220.10.0.129</t>
+  </si>
+  <si>
+    <t>220.10.0.190</t>
+  </si>
+  <si>
+    <t>220.10.0.191</t>
+  </si>
+  <si>
+    <t>255.255.255.192</t>
+  </si>
+  <si>
+    <t>190.168.20.0</t>
+  </si>
+  <si>
+    <t>220.10.0.192</t>
+  </si>
+  <si>
+    <t>220.10.0.193</t>
+  </si>
+  <si>
+    <t>220.10.0.254</t>
+  </si>
+  <si>
+    <t>220.10.0.255</t>
+  </si>
+  <si>
+    <t>190.168.30.0</t>
+  </si>
+  <si>
+    <t>190.168.40.0</t>
+  </si>
+  <si>
+    <t>192.122.10.0/24</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>10.10.10.10</t>
+  </si>
+  <si>
+    <t>192.160.0.0</t>
+  </si>
+  <si>
+    <t>192.122.10.1</t>
+  </si>
+  <si>
+    <t>192.122.10.62</t>
+  </si>
+  <si>
+    <t>192.122.10.63</t>
+  </si>
+  <si>
+    <t>Mercaedeo</t>
+  </si>
+  <si>
+    <t>192.122.10.64</t>
+  </si>
+  <si>
+    <t>192.122.10.65</t>
+  </si>
+  <si>
+    <t>192.122.10.94</t>
+  </si>
+  <si>
+    <t>192.122.10.95</t>
+  </si>
+  <si>
+    <t>255.255.255.224</t>
+  </si>
+  <si>
+    <t>192.122.10.96</t>
+  </si>
+  <si>
+    <t>192.122.10.97</t>
+  </si>
+  <si>
+    <t>192.122.10.110</t>
+  </si>
+  <si>
+    <t>192.122.10.111</t>
+  </si>
+  <si>
+    <t>255.255.255.240</t>
+  </si>
+  <si>
+    <t>Logistica</t>
+  </si>
+  <si>
+    <t>Sala de Espera</t>
+  </si>
+  <si>
+    <t>192.122.10.112</t>
+  </si>
+  <si>
+    <t>192.122.10.113</t>
+  </si>
+  <si>
+    <t>192.122.10.126</t>
+  </si>
+  <si>
+    <t>192.122.10.127</t>
+  </si>
+  <si>
+    <t>190.168.30.0/24</t>
+  </si>
+  <si>
+    <t>192.168.30.0</t>
+  </si>
+  <si>
+    <t>192.168.30.1</t>
+  </si>
+  <si>
+    <t>192.168.30.30</t>
+  </si>
+  <si>
+    <t>192.168.30.31</t>
+  </si>
+  <si>
+    <t>192.168.30.32</t>
+  </si>
+  <si>
+    <t>192.168.30.33</t>
+  </si>
+  <si>
+    <t>192.168.30.62</t>
+  </si>
+  <si>
+    <t>192.168.30.63</t>
+  </si>
+  <si>
+    <t>200.10.0.0/24</t>
+  </si>
+  <si>
+    <t>200.10.0.1</t>
+  </si>
+  <si>
+    <t>200.10.0.126</t>
+  </si>
+  <si>
+    <t>200.10.0.127</t>
+  </si>
+  <si>
+    <t>200.10.0.128</t>
+  </si>
+  <si>
+    <t>200.10.0.129</t>
+  </si>
+  <si>
+    <t>200.10.0.190</t>
+  </si>
+  <si>
+    <t>200.10.0.191</t>
+  </si>
+  <si>
+    <t>190.168.40.0/24</t>
+  </si>
+  <si>
+    <t>190.168.40.1</t>
+  </si>
+  <si>
+    <t>192.168.40.30</t>
+  </si>
+  <si>
+    <t>190.168.40.31</t>
+  </si>
+  <si>
+    <t>190.168.40.32</t>
+  </si>
+  <si>
+    <t>190.168.40.33</t>
+  </si>
+  <si>
+    <t>190.168.40.62</t>
+  </si>
+  <si>
+    <t>190.168.40.63</t>
+  </si>
+  <si>
+    <t>Logísitica</t>
+  </si>
+  <si>
+    <t>190.168.20.0/24</t>
+  </si>
+  <si>
+    <t>190.168.20.1</t>
+  </si>
+  <si>
+    <t>192.168.20.30</t>
+  </si>
+  <si>
+    <t>190.168.20.31</t>
+  </si>
+  <si>
+    <t>190.168.20.32</t>
+  </si>
+  <si>
+    <t>190.168.20.33</t>
+  </si>
+  <si>
+    <t>190.168.20.62</t>
+  </si>
+  <si>
+    <t>190.168.20.63</t>
+  </si>
+  <si>
+    <t>10.10.10.10/8</t>
+  </si>
+  <si>
+    <t>10.10.10.11</t>
+  </si>
+  <si>
+    <t>10.10.10.16</t>
+  </si>
+  <si>
+    <t>10.10.10.17</t>
+  </si>
+  <si>
+    <t>255.255.255.248</t>
+  </si>
+  <si>
+    <t>192.160.0.0/24</t>
+  </si>
+  <si>
+    <t>192.169.0.0</t>
+  </si>
+  <si>
+    <t>192.169.0.1</t>
+  </si>
+  <si>
+    <t>192.169.0.126</t>
+  </si>
+  <si>
+    <t>192.160.0.127</t>
+  </si>
+  <si>
+    <t>Administracion</t>
+  </si>
+  <si>
+    <t>192.169.0.128</t>
+  </si>
+  <si>
+    <t>192.169.0.129</t>
+  </si>
+  <si>
+    <t>192.169.0.190</t>
+  </si>
+  <si>
+    <t>192.169.0.191</t>
+  </si>
+  <si>
+    <t>192.169.0.192</t>
+  </si>
+  <si>
+    <t>192.169.0.193</t>
+  </si>
+  <si>
+    <t>192.169.0.254</t>
+  </si>
+  <si>
+    <t>192.169.0.255</t>
+  </si>
+  <si>
+    <t>192.169.1.0</t>
+  </si>
+  <si>
+    <t>192.169.1.1</t>
+  </si>
+  <si>
+    <t>192.169.1.14</t>
+  </si>
+  <si>
+    <t>192.169.1.15</t>
+  </si>
+  <si>
+    <t>192.169.1.16</t>
+  </si>
+  <si>
+    <t>192.169.1.17</t>
+  </si>
+  <si>
+    <t>192.169.1.18</t>
+  </si>
+  <si>
+    <t>192.169.1.19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,8 +696,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,8 +766,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -439,8 +816,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -449,8 +935,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -495,8 +982,71 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="7" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Cálculo" xfId="7" builtinId="22"/>
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
     <cellStyle name="Énfasis2" xfId="2" builtinId="33"/>
@@ -504,6 +1054,7 @@
     <cellStyle name="Énfasis4" xfId="4" builtinId="41"/>
     <cellStyle name="Énfasis5" xfId="5" builtinId="45"/>
     <cellStyle name="Énfasis6" xfId="6" builtinId="49"/>
+    <cellStyle name="Entrada" xfId="8" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3292,7 +3843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -3315,26 +3866,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="14"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="14" t="s">
         <v>43</v>
       </c>
       <c r="N2" s="11"/>
@@ -3860,14 +4411,2359 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:Y46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="19">
+        <v>24</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="19">
+        <v>24</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="20">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20">
+        <v>1</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="12">
+        <v>60</v>
+      </c>
+      <c r="K5" s="12">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12">
+        <v>5</v>
+      </c>
+      <c r="M5" s="12">
+        <v>69</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12">
+        <v>1</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="U5" s="12">
+        <v>25</v>
+      </c>
+      <c r="V5" s="12">
+        <v>126</v>
+      </c>
+      <c r="W5" s="12">
+        <v>69</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="19">
+        <v>24</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="21">
+        <v>1</v>
+      </c>
+      <c r="H6" s="21">
+        <v>2</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="22">
+        <v>45</v>
+      </c>
+      <c r="K6" s="22">
+        <v>1</v>
+      </c>
+      <c r="L6" s="22">
+        <v>2</v>
+      </c>
+      <c r="M6" s="12">
+        <v>48</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="12">
+        <v>2</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U6" s="12">
+        <v>26</v>
+      </c>
+      <c r="V6" s="12">
+        <v>62</v>
+      </c>
+      <c r="W6" s="12">
+        <v>48</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="19">
+        <v>24</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="20">
+        <v>2</v>
+      </c>
+      <c r="H7" s="20">
+        <v>1</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="12">
+        <v>30</v>
+      </c>
+      <c r="K7" s="12">
+        <v>1</v>
+      </c>
+      <c r="L7" s="12">
+        <v>3</v>
+      </c>
+      <c r="M7" s="12">
+        <v>34</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="22">
+        <v>3</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="R7" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="S7" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="T7" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="U7" s="22">
+        <v>26</v>
+      </c>
+      <c r="V7" s="22">
+        <v>62</v>
+      </c>
+      <c r="W7" s="22">
+        <v>34</v>
+      </c>
+      <c r="X7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="19">
+        <v>24</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="26">
+        <f>SUM(M5:M7)</f>
+        <v>151</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="19">
+        <v>24</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="19">
+        <v>8</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="W10" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="X10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y10" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="19">
+        <v>24</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="12">
+        <v>1</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U11" s="12">
+        <v>26</v>
+      </c>
+      <c r="V11" s="12">
+        <v>62</v>
+      </c>
+      <c r="W11" s="12">
+        <v>34</v>
+      </c>
+      <c r="X11" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="20">
+        <v>1</v>
+      </c>
+      <c r="H12" s="20">
+        <v>1</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="12">
+        <v>30</v>
+      </c>
+      <c r="K12" s="12">
+        <v>2</v>
+      </c>
+      <c r="L12" s="12">
+        <v>2</v>
+      </c>
+      <c r="M12" s="12">
+        <f>SUM(J12:L12)</f>
+        <v>34</v>
+      </c>
+      <c r="N12" s="11"/>
+      <c r="O12" s="12">
+        <v>2</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="U12" s="12">
+        <v>27</v>
+      </c>
+      <c r="V12" s="12">
+        <v>30</v>
+      </c>
+      <c r="W12" s="12">
+        <v>18</v>
+      </c>
+      <c r="X12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="21">
+        <v>1</v>
+      </c>
+      <c r="H13" s="21">
+        <v>2</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="22">
+        <v>15</v>
+      </c>
+      <c r="K13" s="22">
+        <v>1</v>
+      </c>
+      <c r="L13" s="22">
+        <v>2</v>
+      </c>
+      <c r="M13" s="12">
+        <f t="shared" ref="M13:M15" si="0">SUM(J13:L13)</f>
+        <v>18</v>
+      </c>
+      <c r="N13" s="11"/>
+      <c r="O13" s="12">
+        <v>3</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="U13" s="12">
+        <v>28</v>
+      </c>
+      <c r="V13" s="12">
+        <v>14</v>
+      </c>
+      <c r="W13" s="12">
+        <v>12</v>
+      </c>
+      <c r="X13" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="21">
+        <v>1</v>
+      </c>
+      <c r="H14" s="21">
+        <v>2</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" s="22">
+        <v>10</v>
+      </c>
+      <c r="K14" s="22">
+        <v>0</v>
+      </c>
+      <c r="L14" s="22">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N14" s="11"/>
+      <c r="O14" s="12">
+        <v>4</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="U14" s="12">
+        <v>28</v>
+      </c>
+      <c r="V14" s="12">
+        <v>14</v>
+      </c>
+      <c r="W14" s="12">
+        <v>10</v>
+      </c>
+      <c r="X14" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="20">
+        <v>2</v>
+      </c>
+      <c r="H15" s="20">
+        <v>1</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="12">
+        <v>10</v>
+      </c>
+      <c r="K15" s="12">
+        <v>1</v>
+      </c>
+      <c r="L15" s="12">
+        <v>1</v>
+      </c>
+      <c r="M15" s="12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="26">
+        <f>SUM(M12:M15)</f>
+        <v>74</v>
+      </c>
+      <c r="N16" s="11"/>
+      <c r="O16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="U17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="W17" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="X17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y17" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="12">
+        <v>1</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="U18" s="12">
+        <v>27</v>
+      </c>
+      <c r="V18" s="12">
+        <v>30</v>
+      </c>
+      <c r="W18" s="12">
+        <v>23</v>
+      </c>
+      <c r="X18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="N19" s="11"/>
+      <c r="O19" s="12">
+        <v>2</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="U19" s="12">
+        <v>27</v>
+      </c>
+      <c r="V19" s="12">
+        <v>30</v>
+      </c>
+      <c r="W19" s="12">
+        <v>16</v>
+      </c>
+      <c r="X19" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y19" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="12">
+        <v>20</v>
+      </c>
+      <c r="K20" s="12">
+        <v>1</v>
+      </c>
+      <c r="L20" s="12">
+        <v>2</v>
+      </c>
+      <c r="M20" s="12">
+        <f>SUM(J20:L20)</f>
+        <v>23</v>
+      </c>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="20">
+        <v>1</v>
+      </c>
+      <c r="H21" s="20">
+        <v>2</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="12">
+        <v>15</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <v>1</v>
+      </c>
+      <c r="M21" s="12">
+        <f>SUM(J21:L21)</f>
+        <v>16</v>
+      </c>
+      <c r="N21" s="11"/>
+      <c r="O21" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="26">
+        <f>SUM(M20:M21)</f>
+        <v>39</v>
+      </c>
+      <c r="N22" s="11"/>
+      <c r="O22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P22" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S22" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T22" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="U22" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="V22" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="W22" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="X22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y22" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="12">
+        <v>1</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="U23" s="12">
+        <v>25</v>
+      </c>
+      <c r="V23" s="12">
+        <v>126</v>
+      </c>
+      <c r="W23" s="12">
+        <v>69</v>
+      </c>
+      <c r="X23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y23" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="12">
+        <v>2</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U24" s="12">
+        <v>26</v>
+      </c>
+      <c r="V24" s="12">
+        <v>62</v>
+      </c>
+      <c r="W24" s="12">
+        <v>48</v>
+      </c>
+      <c r="X24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y24" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="20">
+        <v>1</v>
+      </c>
+      <c r="H26" s="20">
+        <v>1</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="12">
+        <v>60</v>
+      </c>
+      <c r="K26" s="12">
+        <v>4</v>
+      </c>
+      <c r="L26" s="12">
+        <v>5</v>
+      </c>
+      <c r="M26" s="12">
+        <f>SUM(J26:L26)</f>
+        <v>69</v>
+      </c>
+      <c r="N26" s="11"/>
+      <c r="O26" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="21">
+        <v>1</v>
+      </c>
+      <c r="H27" s="21">
+        <v>2</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="22">
+        <v>45</v>
+      </c>
+      <c r="K27" s="22">
+        <v>1</v>
+      </c>
+      <c r="L27" s="22">
+        <v>2</v>
+      </c>
+      <c r="M27" s="12">
+        <f>SUM(J27:L27)</f>
+        <v>48</v>
+      </c>
+      <c r="N27" s="11"/>
+      <c r="O27" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P27" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q27" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S27" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T27" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="U27" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="V27" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="W27" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="X27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y27" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="26">
+        <f>SUM(M26:M27)</f>
+        <v>117</v>
+      </c>
+      <c r="N28" s="11"/>
+      <c r="O28" s="12">
+        <v>1</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="R28" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="S28" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="T28" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="U28" s="12">
+        <v>27</v>
+      </c>
+      <c r="V28" s="12">
+        <v>30</v>
+      </c>
+      <c r="W28" s="12">
+        <v>23</v>
+      </c>
+      <c r="X28" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y28" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="12">
+        <v>2</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="R29" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="S29" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="T29" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="U29" s="12">
+        <v>27</v>
+      </c>
+      <c r="V29" s="12">
+        <v>30</v>
+      </c>
+      <c r="W29" s="12">
+        <v>16</v>
+      </c>
+      <c r="X29" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y29" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="N31" s="11"/>
+      <c r="O31" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P31" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="20">
+        <v>1</v>
+      </c>
+      <c r="H32" s="20">
+        <v>1</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="12">
+        <v>20</v>
+      </c>
+      <c r="K32" s="12">
+        <v>1</v>
+      </c>
+      <c r="L32" s="12">
+        <v>2</v>
+      </c>
+      <c r="M32" s="12">
+        <f>SUM(J32:L32)</f>
+        <v>23</v>
+      </c>
+      <c r="N32" s="11"/>
+      <c r="O32" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S32" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T32" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="U32" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="V32" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="W32" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="X32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y32" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="20">
+        <v>1</v>
+      </c>
+      <c r="H33" s="20">
+        <v>2</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="12">
+        <v>15</v>
+      </c>
+      <c r="K33" s="12">
+        <v>0</v>
+      </c>
+      <c r="L33" s="12">
+        <v>1</v>
+      </c>
+      <c r="M33" s="12">
+        <f>SUM(J33:L33)</f>
+        <v>16</v>
+      </c>
+      <c r="N33" s="11"/>
+      <c r="O33" s="12">
+        <v>1</v>
+      </c>
+      <c r="P33" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q33" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="R33" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="S33" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="T33" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="U33" s="12">
+        <v>27</v>
+      </c>
+      <c r="V33" s="12">
+        <v>30</v>
+      </c>
+      <c r="W33" s="12">
+        <v>23</v>
+      </c>
+      <c r="X33" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y33" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="26">
+        <f>SUM(M32:M33)</f>
+        <v>39</v>
+      </c>
+      <c r="N34" s="11"/>
+      <c r="O34" s="12">
+        <v>2</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q34" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="R34" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="S34" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="T34" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="U34" s="12">
+        <v>27</v>
+      </c>
+      <c r="V34" s="12">
+        <v>30</v>
+      </c>
+      <c r="W34" s="12">
+        <v>16</v>
+      </c>
+      <c r="X34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y34" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="N37" s="11"/>
+      <c r="O37" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P37" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q37" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="R37" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S37" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T37" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="U37" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="V37" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="W37" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="X37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y37" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="20">
+        <v>1</v>
+      </c>
+      <c r="H38" s="20">
+        <v>1</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="12">
+        <v>20</v>
+      </c>
+      <c r="K38" s="12">
+        <v>1</v>
+      </c>
+      <c r="L38" s="12">
+        <v>2</v>
+      </c>
+      <c r="M38" s="12">
+        <f>SUM(J38:L38)</f>
+        <v>23</v>
+      </c>
+      <c r="N38" s="11"/>
+      <c r="O38" s="12">
+        <v>1</v>
+      </c>
+      <c r="P38" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q38" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="R38" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="S38" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="T38" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="U38" s="12">
+        <v>29</v>
+      </c>
+      <c r="V38" s="12">
+        <v>6</v>
+      </c>
+      <c r="W38" s="12">
+        <v>4</v>
+      </c>
+      <c r="X38" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y38" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="21">
+        <v>1</v>
+      </c>
+      <c r="H39" s="21">
+        <v>2</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="22">
+        <v>15</v>
+      </c>
+      <c r="K39" s="22">
+        <v>0</v>
+      </c>
+      <c r="L39" s="22">
+        <v>1</v>
+      </c>
+      <c r="M39" s="12">
+        <f t="shared" ref="M39" si="1">SUM(J39:L39)</f>
+        <v>16</v>
+      </c>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="26">
+        <f>SUM(M38:M39)</f>
+        <v>39</v>
+      </c>
+      <c r="N40" s="11"/>
+      <c r="O40" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P40" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P41" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q41" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="R41" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S41" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T41" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="U41" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="V41" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="W41" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="X41" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y41" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="12">
+        <v>1</v>
+      </c>
+      <c r="P42" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q42" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="R42" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="S42" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="T42" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="U42" s="12">
+        <v>25</v>
+      </c>
+      <c r="V42" s="12">
+        <v>126</v>
+      </c>
+      <c r="W42" s="12">
+        <v>69</v>
+      </c>
+      <c r="X42" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y42" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="N43" s="11"/>
+      <c r="O43" s="12">
+        <v>2</v>
+      </c>
+      <c r="P43" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q43" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="R43" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="S43" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="T43" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U43" s="12">
+        <v>26</v>
+      </c>
+      <c r="V43" s="12">
+        <v>62</v>
+      </c>
+      <c r="W43" s="12">
+        <v>48</v>
+      </c>
+      <c r="X43" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y43" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="20">
+        <v>1</v>
+      </c>
+      <c r="H44" s="20">
+        <v>1</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="12">
+        <v>4</v>
+      </c>
+      <c r="K44" s="12">
+        <v>0</v>
+      </c>
+      <c r="L44" s="12">
+        <v>0</v>
+      </c>
+      <c r="M44" s="12">
+        <f>SUM(J44:L44)</f>
+        <v>4</v>
+      </c>
+      <c r="N44" s="11"/>
+      <c r="O44" s="12">
+        <v>3</v>
+      </c>
+      <c r="P44" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q44" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="R44" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="S44" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="T44" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="U44" s="22">
+        <v>26</v>
+      </c>
+      <c r="V44" s="22">
+        <v>62</v>
+      </c>
+      <c r="W44" s="22">
+        <v>34</v>
+      </c>
+      <c r="X44" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y44" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="26">
+        <f>SUM(M44:M44)</f>
+        <v>4</v>
+      </c>
+      <c r="N45" s="11"/>
+      <c r="O45" s="12">
+        <v>4</v>
+      </c>
+      <c r="P45" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q45" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="R45" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="S45" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="T45" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="U45" s="22">
+        <v>28</v>
+      </c>
+      <c r="V45" s="22">
+        <v>14</v>
+      </c>
+      <c r="W45" s="22">
+        <v>10</v>
+      </c>
+      <c r="X45" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="12">
+        <v>5</v>
+      </c>
+      <c r="P46" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q46" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="R46" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="S46" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="T46" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="U46" s="12">
+        <v>30</v>
+      </c>
+      <c r="V46" s="12">
+        <v>2</v>
+      </c>
+      <c r="W46" s="12">
+        <v>1</v>
+      </c>
+      <c r="X46" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G36:M36"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="G42:M42"/>
+    <mergeCell ref="G45:L45"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G24:M24"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="G10:M10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TablaG5.xlsx
+++ b/TablaG5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Dispositivos" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="209">
   <si>
     <t>Tipo</t>
   </si>
@@ -118,9 +118,6 @@
     <t>ATL</t>
   </si>
   <si>
-    <t>Servidor</t>
-  </si>
-  <si>
     <t>NY</t>
   </si>
   <si>
@@ -653,6 +650,9 @@
   </si>
   <si>
     <t>192.169.1.19</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -979,18 +979,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="7" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="7" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1001,15 +989,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1030,10 +1009,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
@@ -1042,7 +1039,10 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1333,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O117"/>
+  <dimension ref="B2:O110"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:O11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>9</v>
@@ -1408,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>9</v>
@@ -1429,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>9</v>
@@ -1450,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>9</v>
@@ -1471,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>9</v>
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>9</v>
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>9</v>
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>9</v>
@@ -1555,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>9</v>
@@ -1576,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>9</v>
@@ -1590,9 +1590,11 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1603,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>9</v>
@@ -1616,7 +1618,7 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
@@ -1629,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>9</v>
@@ -1642,7 +1644,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
@@ -1655,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>9</v>
@@ -1667,24 +1669,24 @@
       <c r="O15" s="11"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>9</v>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="K16" s="10"/>
       <c r="L16" s="11"/>
@@ -1693,24 +1695,24 @@
       <c r="O16" s="11"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>9</v>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="11"/>
@@ -1719,24 +1721,24 @@
       <c r="O17" s="11"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>9</v>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="11"/>
@@ -1746,7 +1748,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
@@ -1772,7 +1774,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
@@ -1798,14 +1800,14 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -1819,14 +1821,14 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -1840,14 +1842,14 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -1861,7 +1863,7 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
@@ -1882,11 +1884,11 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E25" s="4">
         <v>2</v>
@@ -1903,11 +1905,13 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>208</v>
+      </c>
       <c r="D26" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E26" s="4">
         <v>2</v>
@@ -1924,11 +1928,11 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E27" s="4">
         <v>2</v>
@@ -1945,7 +1949,7 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
@@ -1965,147 +1969,147 @@
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>2</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="4">
-        <v>2</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
+        <v>2</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="4">
-        <v>2</v>
-      </c>
-      <c r="F30" s="4">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>2</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="4">
-        <v>2</v>
-      </c>
-      <c r="F31" s="4">
-        <v>1</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="4">
-        <v>2</v>
-      </c>
-      <c r="F32" s="4">
-        <v>1</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>19</v>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
+        <v>2</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="4">
-        <v>2</v>
-      </c>
-      <c r="F33" s="4">
-        <v>1</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>19</v>
+      <c r="B33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="4">
-        <v>2</v>
-      </c>
-      <c r="F34" s="4">
-        <v>1</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>19</v>
+      <c r="B34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E35" s="5">
         <v>1</v>
       </c>
       <c r="F35" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>21</v>
@@ -2113,62 +2117,62 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E36" s="5">
         <v>1</v>
       </c>
       <c r="F36" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="5"/>
+      <c r="B37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="8"/>
       <c r="D37" s="5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E37" s="5">
         <v>1</v>
       </c>
       <c r="F37" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="5"/>
+      <c r="B38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="8"/>
       <c r="D38" s="5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E38" s="5">
         <v>1</v>
       </c>
       <c r="F38" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>21</v>
@@ -2180,16 +2184,16 @@
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E39" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="5">
         <v>1</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>21</v>
@@ -2201,16 +2205,16 @@
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E40" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" s="5">
         <v>1</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>21</v>
@@ -2222,16 +2226,16 @@
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E41" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="5">
         <v>1</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>21</v>
@@ -2243,160 +2247,160 @@
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E42" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="5">
         <v>1</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="5">
-        <v>1</v>
-      </c>
-      <c r="F43" s="5">
-        <v>1</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="5" t="s">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="5">
-        <v>1</v>
-      </c>
-      <c r="F44" s="5">
-        <v>1</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H44" s="5" t="s">
+      <c r="B44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1</v>
+      </c>
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1</v>
+      </c>
+      <c r="F45" s="6">
+        <v>1</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5" t="s">
+      <c r="C47" s="6"/>
+      <c r="D47" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="5">
-        <v>2</v>
-      </c>
-      <c r="F45" s="5">
-        <v>1</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H45" s="5" t="s">
+      <c r="E47" s="6">
+        <v>1</v>
+      </c>
+      <c r="F47" s="6">
+        <v>2</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="5" t="s">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5" t="s">
+      <c r="C48" s="6"/>
+      <c r="D48" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="5">
-        <v>2</v>
-      </c>
-      <c r="F46" s="5">
-        <v>1</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="5">
-        <v>2</v>
-      </c>
-      <c r="F47" s="5">
-        <v>1</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="5">
-        <v>2</v>
-      </c>
-      <c r="F48" s="5">
-        <v>1</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H48" s="5" t="s">
+      <c r="E48" s="6">
+        <v>1</v>
+      </c>
+      <c r="F48" s="6">
+        <v>2</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
       </c>
       <c r="F49" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>23</v>
@@ -2407,17 +2411,17 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E50" s="6">
         <v>1</v>
       </c>
       <c r="F50" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>23</v>
@@ -2428,17 +2432,17 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E51" s="6">
         <v>1</v>
       </c>
       <c r="F51" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>23</v>
@@ -2449,17 +2453,19 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="D52" s="6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E52" s="6">
         <v>1</v>
       </c>
       <c r="F52" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>23</v>
@@ -2470,17 +2476,17 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E53" s="6">
         <v>1</v>
       </c>
       <c r="F53" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>23</v>
@@ -2491,11 +2497,11 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
@@ -2512,17 +2518,17 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E55" s="6">
         <v>1</v>
       </c>
       <c r="F55" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>23</v>
@@ -2537,13 +2543,13 @@
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E56" s="6">
         <v>1</v>
       </c>
       <c r="F56" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>23</v>
@@ -2554,17 +2560,17 @@
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E57" s="6">
         <v>1</v>
       </c>
       <c r="F57" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>23</v>
@@ -2575,17 +2581,17 @@
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E58" s="6">
         <v>1</v>
       </c>
       <c r="F58" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>23</v>
@@ -2596,17 +2602,17 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E59" s="6">
         <v>1</v>
       </c>
       <c r="F59" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>23</v>
@@ -2616,162 +2622,162 @@
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="6">
-        <v>1</v>
-      </c>
-      <c r="F60" s="6">
-        <v>2</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>21</v>
+      <c r="B60" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="7">
+        <v>1</v>
+      </c>
+      <c r="F60" s="7">
+        <v>1</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="6">
-        <v>1</v>
-      </c>
-      <c r="F61" s="6">
-        <v>2</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>21</v>
+      <c r="B61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="7">
+        <v>1</v>
+      </c>
+      <c r="F61" s="7">
+        <v>1</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="7">
+        <v>1</v>
+      </c>
+      <c r="F62" s="7">
+        <v>1</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="7">
+        <v>1</v>
+      </c>
+      <c r="F63" s="7">
+        <v>1</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="7">
+        <v>1</v>
+      </c>
+      <c r="F64" s="7">
+        <v>1</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="6">
-        <v>1</v>
-      </c>
-      <c r="F62" s="6">
-        <v>1</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="s">
+      <c r="C65" s="7"/>
+      <c r="D65" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="7">
+        <v>2</v>
+      </c>
+      <c r="F65" s="7">
+        <v>1</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="6">
-        <v>1</v>
-      </c>
-      <c r="F63" s="6">
-        <v>1</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64" s="6">
-        <v>1</v>
-      </c>
-      <c r="F64" s="6">
-        <v>1</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="6">
-        <v>1</v>
-      </c>
-      <c r="F65" s="6">
-        <v>1</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" s="6">
-        <v>1</v>
-      </c>
-      <c r="F66" s="6">
-        <v>1</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>21</v>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="7">
+        <v>2</v>
+      </c>
+      <c r="F66" s="7">
+        <v>1</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E67" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" s="7">
         <v>1</v>
@@ -2785,14 +2791,14 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E68" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" s="7">
         <v>1</v>
@@ -2806,14 +2812,14 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E69" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" s="7">
         <v>1</v>
@@ -2827,14 +2833,16 @@
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="D70" s="7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E70" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" s="7">
         <v>1</v>
@@ -2848,14 +2856,14 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E71" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" s="7">
         <v>1</v>
@@ -2869,11 +2877,11 @@
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E72" s="7">
         <v>2</v>
@@ -2889,168 +2897,168 @@
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E73" s="7">
-        <v>2</v>
-      </c>
-      <c r="F73" s="7">
-        <v>1</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="7" t="s">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3">
+        <v>1</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="7">
-        <v>2</v>
-      </c>
-      <c r="F74" s="7">
-        <v>1</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="7" t="s">
+      <c r="C75" s="3"/>
+      <c r="D75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+      <c r="F75" s="3">
+        <v>1</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E75" s="7">
-        <v>2</v>
-      </c>
-      <c r="F75" s="7">
-        <v>1</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="7" t="s">
+      <c r="C76" s="3"/>
+      <c r="D76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="7">
-        <v>2</v>
-      </c>
-      <c r="F76" s="7">
-        <v>1</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="7">
-        <v>2</v>
-      </c>
-      <c r="F77" s="7">
-        <v>1</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" s="7">
-        <v>2</v>
-      </c>
-      <c r="F78" s="7">
-        <v>1</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>26</v>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="3">
+        <v>2</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" s="7">
-        <v>2</v>
-      </c>
-      <c r="F79" s="7">
-        <v>1</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>26</v>
+      <c r="B79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="3">
+        <v>2</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E80" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" s="3">
         <v>1</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>27</v>
@@ -3058,20 +3066,20 @@
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E81" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" s="3">
         <v>1</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>27</v>
@@ -3079,20 +3087,20 @@
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E82" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" s="3">
         <v>1</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>27</v>
@@ -3100,20 +3108,22 @@
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="D83" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E83" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83" s="3">
         <v>1</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>27</v>
@@ -3121,11 +3131,11 @@
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E84" s="3">
         <v>2</v>
@@ -3134,141 +3144,141 @@
         <v>1</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="3">
-        <v>2</v>
-      </c>
-      <c r="F85" s="3">
-        <v>1</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H85" s="3" t="s">
+      <c r="B85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1</v>
+      </c>
+      <c r="F85" s="2">
+        <v>1</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H85" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E86" s="3">
-        <v>2</v>
-      </c>
-      <c r="F86" s="3">
-        <v>1</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H86" s="3" t="s">
+      <c r="B86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1</v>
+      </c>
+      <c r="F86" s="2">
+        <v>1</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="3">
-        <v>2</v>
-      </c>
-      <c r="F87" s="3">
-        <v>1</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H87" s="3" t="s">
+      <c r="B87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1</v>
+      </c>
+      <c r="F87" s="2">
+        <v>1</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H87" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E88" s="3">
-        <v>2</v>
-      </c>
-      <c r="F88" s="3">
-        <v>1</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H88" s="3" t="s">
+      <c r="C88" s="2"/>
+      <c r="D88" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
+      <c r="F88" s="2">
+        <v>1</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H88" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E89" s="3">
-        <v>2</v>
-      </c>
-      <c r="F89" s="3">
-        <v>1</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H89" s="3" t="s">
+      <c r="B89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1</v>
+      </c>
+      <c r="F89" s="2">
+        <v>1</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H89" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" s="3">
-        <v>2</v>
-      </c>
-      <c r="F90" s="3">
-        <v>1</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H90" s="3" t="s">
+      <c r="B90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1</v>
+      </c>
+      <c r="F90" s="2">
+        <v>1</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H90" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
@@ -3293,7 +3303,7 @@
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E92" s="2">
         <v>1</v>
@@ -3310,11 +3320,11 @@
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E93" s="2">
         <v>1</v>
@@ -3331,11 +3341,11 @@
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E94" s="2">
         <v>1</v>
@@ -3351,147 +3361,149 @@
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E95" s="2">
-        <v>1</v>
-      </c>
-      <c r="F95" s="2">
-        <v>1</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H95" s="2" t="s">
+      <c r="B95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="4">
+        <v>1</v>
+      </c>
+      <c r="F95" s="4">
+        <v>1</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H95" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E96" s="2">
-        <v>1</v>
-      </c>
-      <c r="F96" s="2">
-        <v>1</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H96" s="2" t="s">
+      <c r="B96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="4">
+        <v>1</v>
+      </c>
+      <c r="F96" s="4">
+        <v>1</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H96" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E97" s="2">
-        <v>1</v>
-      </c>
-      <c r="F97" s="2">
-        <v>1</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H97" s="2" t="s">
+      <c r="B97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="4">
+        <v>1</v>
+      </c>
+      <c r="F97" s="4">
+        <v>1</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H97" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="4">
+        <v>1</v>
+      </c>
+      <c r="F98" s="4">
+        <v>1</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" s="2">
-        <v>1</v>
-      </c>
-      <c r="F98" s="2">
-        <v>1</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H98" s="2" t="s">
+      <c r="C99" s="4"/>
+      <c r="D99" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="4">
+        <v>2</v>
+      </c>
+      <c r="F99" s="4">
+        <v>1</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H99" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" s="2">
-        <v>1</v>
-      </c>
-      <c r="F99" s="2">
-        <v>1</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="2">
-        <v>1</v>
-      </c>
-      <c r="F100" s="2">
-        <v>1</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H100" s="2" t="s">
+      <c r="B100" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="4">
+        <v>2</v>
+      </c>
+      <c r="F100" s="4">
+        <v>1</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H100" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="4">
+        <v>2</v>
+      </c>
+      <c r="F101" s="4">
+        <v>1</v>
+      </c>
+      <c r="G101" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E101" s="4">
-        <v>1</v>
-      </c>
-      <c r="F101" s="4">
-        <v>1</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>27</v>
@@ -3499,20 +3511,20 @@
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" s="4">
+        <v>2</v>
+      </c>
+      <c r="F102" s="4">
+        <v>1</v>
+      </c>
+      <c r="G102" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E102" s="4">
-        <v>1</v>
-      </c>
-      <c r="F102" s="4">
-        <v>1</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>27</v>
@@ -3520,20 +3532,20 @@
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E103" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>27</v>
@@ -3545,16 +3557,16 @@
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E104" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F104" s="4">
         <v>1</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>27</v>
@@ -3562,20 +3574,20 @@
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E105" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>27</v>
@@ -3583,20 +3595,20 @@
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E106" s="4">
         <v>1</v>
       </c>
       <c r="F106" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>27</v>
@@ -3604,20 +3616,20 @@
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E107" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F107" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>27</v>
@@ -3625,20 +3637,20 @@
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E108" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F108" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>27</v>
@@ -3646,20 +3658,20 @@
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E109" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F109" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>27</v>
@@ -3667,169 +3679,22 @@
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E110" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F110" s="4">
         <v>1</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E111" s="4">
-        <v>2</v>
-      </c>
-      <c r="F111" s="4">
-        <v>1</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E112" s="4">
-        <v>2</v>
-      </c>
-      <c r="F112" s="4">
-        <v>1</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E113" s="4">
-        <v>2</v>
-      </c>
-      <c r="F113" s="4">
-        <v>1</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E114" s="4">
-        <v>1</v>
-      </c>
-      <c r="F114" s="4">
-        <v>2</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E115" s="4">
-        <v>1</v>
-      </c>
-      <c r="F115" s="4">
-        <v>2</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E116" s="4">
-        <v>1</v>
-      </c>
-      <c r="F116" s="4">
-        <v>2</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E117" s="4">
-        <v>1</v>
-      </c>
-      <c r="F117" s="4">
-        <v>2</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H117" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3866,27 +3731,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
@@ -3901,51 +3766,51 @@
         <v>5</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>45</v>
-      </c>
       <c r="E3" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="L3" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="P3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="Q3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="13" t="s">
+      <c r="R3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="S3" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>57</v>
       </c>
       <c r="T3" s="13" t="s">
         <v>3</v>
@@ -3953,19 +3818,19 @@
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="E4" s="12">
         <v>24</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="12">
         <v>4</v>
@@ -3975,19 +3840,19 @@
         <v>1</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="12" t="s">
-        <v>61</v>
-      </c>
       <c r="O4" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P4" s="12">
         <v>30</v>
@@ -4010,17 +3875,17 @@
         <v>23</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="E5" s="12">
         <v>24</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="12">
         <v>2</v>
@@ -4030,19 +3895,19 @@
         <v>2</v>
       </c>
       <c r="K5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="M5" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="N5" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="12" t="s">
-        <v>66</v>
-      </c>
       <c r="O5" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P5" s="12">
         <v>30</v>
@@ -4062,20 +3927,20 @@
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="E6" s="12">
         <v>24</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6" s="12">
         <v>2</v>
@@ -4085,19 +3950,19 @@
         <v>3</v>
       </c>
       <c r="K6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="M6" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="N6" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="N6" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="O6" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P6" s="12">
         <v>30</v>
@@ -4117,13 +3982,13 @@
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="E7" s="12">
         <v>24</v>
@@ -4140,19 +4005,19 @@
         <v>4</v>
       </c>
       <c r="K7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="M7" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="N7" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="N7" s="12" t="s">
-        <v>74</v>
-      </c>
       <c r="O7" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P7" s="12">
         <v>30</v>
@@ -4175,10 +4040,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="E8" s="12">
         <v>24</v>
@@ -4195,19 +4060,19 @@
         <v>5</v>
       </c>
       <c r="K8" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="M8" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="N8" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="N8" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="O8" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P8" s="12">
         <v>30</v>
@@ -4227,20 +4092,20 @@
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="E9" s="12">
         <v>24</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9" s="12">
         <v>1</v>
@@ -4250,19 +4115,19 @@
         <v>6</v>
       </c>
       <c r="K9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="M9" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="N9" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N9" s="12" t="s">
-        <v>83</v>
-      </c>
       <c r="O9" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P9" s="12">
         <v>30</v>
@@ -4285,10 +4150,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="E10" s="12">
         <v>24</v>
@@ -4305,19 +4170,19 @@
         <v>7</v>
       </c>
       <c r="K10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="M10" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="N10" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="N10" s="12" t="s">
-        <v>87</v>
-      </c>
       <c r="O10" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P10" s="12">
         <v>30</v>
@@ -4337,20 +4202,20 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="E11" s="12">
         <v>24</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="12">
         <v>1</v>
@@ -4360,19 +4225,19 @@
         <v>8</v>
       </c>
       <c r="K11" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="M11" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="N11" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="N11" s="12" t="s">
-        <v>91</v>
-      </c>
       <c r="O11" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P11" s="12">
         <v>30</v>
@@ -4413,7 +4278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -4443,27 +4308,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="P2" s="15"/>
+      <c r="P2" s="26"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
@@ -4479,30 +4344,30 @@
         <v>5</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="11"/>
-      <c r="G3" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="18"/>
+      <c r="G3" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="36"/>
       <c r="N3" s="11"/>
       <c r="O3" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
@@ -4515,16 +4380,16 @@
       <c r="Y3" s="11"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="D4" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="15">
         <v>24</v>
       </c>
       <c r="F4" s="11"/>
@@ -4532,79 +4397,79 @@
         <v>4</v>
       </c>
       <c r="H4" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="M4" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>102</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="13" t="s">
-        <v>51</v>
-      </c>
       <c r="Q4" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="W4" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="R4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="V4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>104</v>
-      </c>
       <c r="X4" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y4" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="19">
+      <c r="E5" s="15">
         <v>24</v>
       </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="20">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20">
-        <v>1</v>
-      </c>
-      <c r="I5" s="20" t="s">
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16">
+        <v>1</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>8</v>
       </c>
       <c r="J5" s="12">
@@ -4624,19 +4489,19 @@
         <v>1</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="S5" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="T5" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="U5" s="12">
         <v>25</v>
@@ -4655,35 +4520,35 @@
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="19">
+      <c r="B6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="15">
         <v>24</v>
       </c>
       <c r="F6" s="11"/>
-      <c r="G6" s="21">
-        <v>1</v>
-      </c>
-      <c r="H6" s="21">
-        <v>2</v>
-      </c>
-      <c r="I6" s="21" t="s">
+      <c r="G6" s="17">
+        <v>1</v>
+      </c>
+      <c r="H6" s="17">
+        <v>2</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="18">
         <v>45</v>
       </c>
-      <c r="K6" s="22">
-        <v>1</v>
-      </c>
-      <c r="L6" s="22">
+      <c r="K6" s="18">
+        <v>1</v>
+      </c>
+      <c r="L6" s="18">
         <v>2</v>
       </c>
       <c r="M6" s="12">
@@ -4694,19 +4559,19 @@
         <v>2</v>
       </c>
       <c r="P6" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q6" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="R6" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="S6" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="T6" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="U6" s="12">
         <v>26</v>
@@ -4725,26 +4590,26 @@
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="19">
+      <c r="B7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="15">
         <v>24</v>
       </c>
       <c r="F7" s="11"/>
-      <c r="G7" s="20">
-        <v>2</v>
-      </c>
-      <c r="H7" s="20">
-        <v>1</v>
-      </c>
-      <c r="I7" s="20" t="s">
+      <c r="G7" s="16">
+        <v>2</v>
+      </c>
+      <c r="H7" s="16">
+        <v>1</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="12">
@@ -4760,106 +4625,106 @@
         <v>34</v>
       </c>
       <c r="N7" s="11"/>
-      <c r="O7" s="22">
+      <c r="O7" s="18">
         <v>3</v>
       </c>
-      <c r="P7" s="22" t="s">
+      <c r="P7" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q7" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="Q7" s="22" t="s">
+      <c r="R7" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="R7" s="22" t="s">
+      <c r="S7" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="S7" s="22" t="s">
+      <c r="T7" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="U7" s="18">
+        <v>26</v>
+      </c>
+      <c r="V7" s="18">
+        <v>62</v>
+      </c>
+      <c r="W7" s="18">
+        <v>34</v>
+      </c>
+      <c r="X7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="T7" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="U7" s="22">
-        <v>26</v>
-      </c>
-      <c r="V7" s="22">
-        <v>62</v>
-      </c>
-      <c r="W7" s="22">
-        <v>34</v>
-      </c>
-      <c r="X7" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y7" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="19">
+      <c r="E8" s="15">
         <v>24</v>
       </c>
       <c r="F8" s="11"/>
-      <c r="G8" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26">
+      <c r="G8" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="19">
         <f>SUM(M5:M7)</f>
         <v>151</v>
       </c>
       <c r="N8" s="11"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="19">
+      <c r="B9" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="15">
         <v>24</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
       <c r="N9" s="11"/>
       <c r="O9" s="14" t="s">
         <v>23</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
@@ -4872,74 +4737,74 @@
       <c r="Y9" s="11"/>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="19">
+      <c r="E10" s="15">
         <v>8</v>
       </c>
       <c r="F10" s="11"/>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="18"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="36"/>
       <c r="N10" s="11"/>
       <c r="O10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="13" t="s">
-        <v>51</v>
-      </c>
       <c r="Q10" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="W10" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="R10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="S10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T10" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="U10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="V10" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="W10" s="13" t="s">
-        <v>104</v>
-      </c>
       <c r="X10" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y10" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="19">
+      <c r="B11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="15">
         <v>24</v>
       </c>
       <c r="F11" s="11"/>
@@ -4947,41 +4812,41 @@
         <v>4</v>
       </c>
       <c r="H11" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K11" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="M11" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>102</v>
       </c>
       <c r="N11" s="11"/>
       <c r="O11" s="12">
         <v>1</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q11" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="R11" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="S11" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="S11" s="12" t="s">
-        <v>130</v>
-      </c>
       <c r="T11" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U11" s="12">
         <v>26</v>
@@ -4993,7 +4858,7 @@
         <v>34</v>
       </c>
       <c r="X11" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y11" s="12">
         <v>1</v>
@@ -5005,13 +4870,13 @@
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="20">
-        <v>1</v>
-      </c>
-      <c r="H12" s="20">
-        <v>1</v>
-      </c>
-      <c r="I12" s="20" t="s">
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="H12" s="16">
+        <v>1</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>24</v>
       </c>
       <c r="J12" s="12">
@@ -5032,19 +4897,19 @@
         <v>2</v>
       </c>
       <c r="P12" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q12" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="Q12" s="12" t="s">
+      <c r="R12" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="R12" s="12" t="s">
+      <c r="S12" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="S12" s="12" t="s">
+      <c r="T12" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="T12" s="12" t="s">
-        <v>136</v>
       </c>
       <c r="U12" s="12">
         <v>27</v>
@@ -5068,22 +4933,22 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="21">
-        <v>1</v>
-      </c>
-      <c r="H13" s="21">
-        <v>2</v>
-      </c>
-      <c r="I13" s="21" t="s">
+      <c r="G13" s="17">
+        <v>1</v>
+      </c>
+      <c r="H13" s="17">
+        <v>2</v>
+      </c>
+      <c r="I13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="18">
         <v>15</v>
       </c>
-      <c r="K13" s="22">
-        <v>1</v>
-      </c>
-      <c r="L13" s="22">
+      <c r="K13" s="18">
+        <v>1</v>
+      </c>
+      <c r="L13" s="18">
         <v>2</v>
       </c>
       <c r="M13" s="12">
@@ -5095,19 +4960,19 @@
         <v>3</v>
       </c>
       <c r="P13" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q13" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="R13" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="R13" s="12" t="s">
+      <c r="S13" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="S13" s="12" t="s">
+      <c r="T13" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>141</v>
       </c>
       <c r="U13" s="12">
         <v>28</v>
@@ -5119,7 +4984,7 @@
         <v>12</v>
       </c>
       <c r="X13" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y13" s="12">
         <v>1</v>
@@ -5131,22 +4996,22 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="21">
-        <v>1</v>
-      </c>
-      <c r="H14" s="21">
-        <v>2</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="J14" s="22">
+      <c r="G14" s="17">
+        <v>1</v>
+      </c>
+      <c r="H14" s="17">
+        <v>2</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" s="18">
         <v>10</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="18">
         <v>0</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="18">
         <v>0</v>
       </c>
       <c r="M14" s="12">
@@ -5158,19 +5023,19 @@
         <v>4</v>
       </c>
       <c r="P14" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q14" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="Q14" s="12" t="s">
+      <c r="R14" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="R14" s="12" t="s">
+      <c r="S14" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="S14" s="12" t="s">
-        <v>147</v>
-      </c>
       <c r="T14" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U14" s="12">
         <v>28</v>
@@ -5182,7 +5047,7 @@
         <v>10</v>
       </c>
       <c r="X14" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Y14" s="12">
         <v>2</v>
@@ -5194,13 +5059,13 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="20">
-        <v>2</v>
-      </c>
-      <c r="H15" s="20">
-        <v>1</v>
-      </c>
-      <c r="I15" s="20" t="s">
+      <c r="G15" s="16">
+        <v>2</v>
+      </c>
+      <c r="H15" s="16">
+        <v>1</v>
+      </c>
+      <c r="I15" s="16" t="s">
         <v>13</v>
       </c>
       <c r="J15" s="12">
@@ -5235,15 +5100,15 @@
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="26">
+      <c r="G16" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="19">
         <f>SUM(M12:M15)</f>
         <v>74</v>
       </c>
@@ -5252,7 +5117,7 @@
         <v>18</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
@@ -5279,34 +5144,34 @@
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="P17" s="30" t="s">
-        <v>51</v>
-      </c>
       <c r="Q17" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="U17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="W17" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="R17" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="S17" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T17" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="U17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="V17" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="W17" s="13" t="s">
-        <v>104</v>
-      </c>
       <c r="X17" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y17" s="13" t="s">
         <v>3</v>
@@ -5314,37 +5179,37 @@
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
       <c r="N18" s="11"/>
       <c r="O18" s="12">
         <v>1</v>
       </c>
       <c r="P18" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q18" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="Q18" s="12" t="s">
+      <c r="R18" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="R18" s="12" t="s">
+      <c r="S18" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="S18" s="12" t="s">
-        <v>152</v>
-      </c>
       <c r="T18" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U18" s="12">
         <v>27</v>
@@ -5372,41 +5237,41 @@
         <v>4</v>
       </c>
       <c r="H19" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L19" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="M19" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>102</v>
       </c>
       <c r="N19" s="11"/>
       <c r="O19" s="12">
         <v>2</v>
       </c>
       <c r="P19" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q19" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="Q19" s="12" t="s">
+      <c r="R19" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="R19" s="12" t="s">
+      <c r="S19" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="S19" s="12" t="s">
-        <v>156</v>
-      </c>
       <c r="T19" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U19" s="12">
         <v>27</v>
@@ -5418,7 +5283,7 @@
         <v>16</v>
       </c>
       <c r="X19" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y19" s="12">
         <v>2</v>
@@ -5430,13 +5295,13 @@
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="20">
-        <v>1</v>
-      </c>
-      <c r="H20" s="20">
-        <v>1</v>
-      </c>
-      <c r="I20" s="20" t="s">
+      <c r="G20" s="16">
+        <v>1</v>
+      </c>
+      <c r="H20" s="16">
+        <v>1</v>
+      </c>
+      <c r="I20" s="16" t="s">
         <v>8</v>
       </c>
       <c r="J20" s="12">
@@ -5471,13 +5336,13 @@
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="20">
-        <v>1</v>
-      </c>
-      <c r="H21" s="20">
-        <v>2</v>
-      </c>
-      <c r="I21" s="20" t="s">
+      <c r="G21" s="16">
+        <v>1</v>
+      </c>
+      <c r="H21" s="16">
+        <v>2</v>
+      </c>
+      <c r="I21" s="16" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="12">
@@ -5495,10 +5360,10 @@
       </c>
       <c r="N21" s="11"/>
       <c r="O21" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
@@ -5516,48 +5381,48 @@
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="26">
+      <c r="G22" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="19">
         <f>SUM(M20:M21)</f>
         <v>39</v>
       </c>
       <c r="N22" s="11"/>
       <c r="O22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="P22" s="30" t="s">
-        <v>51</v>
-      </c>
       <c r="Q22" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T22" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="U22" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V22" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="W22" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="R22" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="S22" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T22" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="U22" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="V22" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="W22" s="13" t="s">
-        <v>104</v>
-      </c>
       <c r="X22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y22" s="13" t="s">
         <v>3</v>
@@ -5581,19 +5446,19 @@
         <v>1</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q23" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="R23" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="R23" s="12" t="s">
+      <c r="S23" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="S23" s="12" t="s">
-        <v>160</v>
-      </c>
       <c r="T23" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U23" s="12">
         <v>25</v>
@@ -5617,33 +5482,33 @@
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
+      <c r="G24" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
       <c r="N24" s="11"/>
       <c r="O24" s="12">
         <v>2</v>
       </c>
       <c r="P24" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q24" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="Q24" s="12" t="s">
+      <c r="R24" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="R24" s="12" t="s">
+      <c r="S24" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="S24" s="12" t="s">
-        <v>164</v>
-      </c>
       <c r="T24" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U24" s="12">
         <v>26</v>
@@ -5671,22 +5536,22 @@
         <v>4</v>
       </c>
       <c r="H25" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K25" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L25" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="M25" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>102</v>
       </c>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
@@ -5707,13 +5572,13 @@
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="20">
-        <v>1</v>
-      </c>
-      <c r="H26" s="20">
-        <v>1</v>
-      </c>
-      <c r="I26" s="20" t="s">
+      <c r="G26" s="16">
+        <v>1</v>
+      </c>
+      <c r="H26" s="16">
+        <v>1</v>
+      </c>
+      <c r="I26" s="16" t="s">
         <v>8</v>
       </c>
       <c r="J26" s="12">
@@ -5731,10 +5596,10 @@
       </c>
       <c r="N26" s="11"/>
       <c r="O26" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
@@ -5752,22 +5617,22 @@
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="21">
-        <v>1</v>
-      </c>
-      <c r="H27" s="21">
-        <v>2</v>
-      </c>
-      <c r="I27" s="21" t="s">
+      <c r="G27" s="17">
+        <v>1</v>
+      </c>
+      <c r="H27" s="17">
+        <v>2</v>
+      </c>
+      <c r="I27" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="18">
         <v>45</v>
       </c>
-      <c r="K27" s="22">
-        <v>1</v>
-      </c>
-      <c r="L27" s="22">
+      <c r="K27" s="18">
+        <v>1</v>
+      </c>
+      <c r="L27" s="18">
         <v>2</v>
       </c>
       <c r="M27" s="12">
@@ -5776,34 +5641,34 @@
       </c>
       <c r="N27" s="11"/>
       <c r="O27" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P27" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="P27" s="13" t="s">
-        <v>51</v>
-      </c>
       <c r="Q27" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S27" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T27" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="U27" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V27" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="W27" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="R27" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="S27" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T27" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="U27" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="V27" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="W27" s="13" t="s">
-        <v>104</v>
-      </c>
       <c r="X27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y27" s="13" t="s">
         <v>3</v>
@@ -5815,15 +5680,15 @@
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="26">
+      <c r="G28" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="19">
         <f>SUM(M26:M27)</f>
         <v>117</v>
       </c>
@@ -5832,19 +5697,19 @@
         <v>1</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q28" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="R28" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="R28" s="12" t="s">
+      <c r="S28" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="S28" s="12" t="s">
-        <v>168</v>
-      </c>
       <c r="T28" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U28" s="12">
         <v>27</v>
@@ -5880,19 +5745,19 @@
         <v>2</v>
       </c>
       <c r="P29" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q29" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="Q29" s="12" t="s">
+      <c r="R29" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="R29" s="12" t="s">
+      <c r="S29" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="S29" s="12" t="s">
-        <v>172</v>
-      </c>
       <c r="T29" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U29" s="12">
         <v>27</v>
@@ -5904,7 +5769,7 @@
         <v>16</v>
       </c>
       <c r="X29" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Y29" s="12">
         <v>2</v>
@@ -5916,15 +5781,15 @@
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="35"/>
+      <c r="G30" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="34"/>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
@@ -5948,29 +5813,29 @@
         <v>4</v>
       </c>
       <c r="H31" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="J31" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K31" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L31" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="L31" s="13" t="s">
+      <c r="M31" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>102</v>
       </c>
       <c r="N31" s="11"/>
       <c r="O31" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P31" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
@@ -5988,13 +5853,13 @@
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="20">
-        <v>1</v>
-      </c>
-      <c r="H32" s="20">
-        <v>1</v>
-      </c>
-      <c r="I32" s="20" t="s">
+      <c r="G32" s="16">
+        <v>1</v>
+      </c>
+      <c r="H32" s="16">
+        <v>1</v>
+      </c>
+      <c r="I32" s="16" t="s">
         <v>8</v>
       </c>
       <c r="J32" s="12">
@@ -6012,34 +5877,34 @@
       </c>
       <c r="N32" s="11"/>
       <c r="O32" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P32" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="P32" s="13" t="s">
-        <v>51</v>
-      </c>
       <c r="Q32" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T32" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="U32" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V32" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="W32" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="R32" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="S32" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T32" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="U32" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="V32" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="W32" s="13" t="s">
-        <v>104</v>
-      </c>
       <c r="X32" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y32" s="13" t="s">
         <v>3</v>
@@ -6051,13 +5916,13 @@
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="20">
-        <v>1</v>
-      </c>
-      <c r="H33" s="20">
-        <v>2</v>
-      </c>
-      <c r="I33" s="20" t="s">
+      <c r="G33" s="16">
+        <v>1</v>
+      </c>
+      <c r="H33" s="16">
+        <v>2</v>
+      </c>
+      <c r="I33" s="16" t="s">
         <v>13</v>
       </c>
       <c r="J33" s="12">
@@ -6078,19 +5943,19 @@
         <v>1</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q33" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="R33" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="R33" s="12" t="s">
+      <c r="S33" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="S33" s="12" t="s">
-        <v>177</v>
-      </c>
       <c r="T33" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U33" s="12">
         <v>27</v>
@@ -6114,15 +5979,15 @@
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="26">
+      <c r="G34" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="19">
         <f>SUM(M32:M33)</f>
         <v>39</v>
       </c>
@@ -6131,19 +5996,19 @@
         <v>2</v>
       </c>
       <c r="P34" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q34" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="Q34" s="12" t="s">
+      <c r="R34" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="R34" s="12" t="s">
+      <c r="S34" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="S34" s="12" t="s">
-        <v>181</v>
-      </c>
       <c r="T34" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U34" s="12">
         <v>27</v>
@@ -6157,7 +6022,7 @@
       <c r="X34" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Y34" s="36">
+      <c r="Y34" s="25">
         <v>2</v>
       </c>
     </row>
@@ -6193,21 +6058,21 @@
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
+      <c r="G36" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
       <c r="N36" s="11"/>
       <c r="O36" s="14" t="s">
         <v>29</v>
       </c>
       <c r="P36" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
@@ -6229,53 +6094,53 @@
         <v>4</v>
       </c>
       <c r="H37" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I37" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="J37" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K37" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L37" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="L37" s="13" t="s">
+      <c r="M37" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="M37" s="13" t="s">
-        <v>102</v>
       </c>
       <c r="N37" s="11"/>
       <c r="O37" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P37" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="P37" s="13" t="s">
-        <v>51</v>
-      </c>
       <c r="Q37" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="R37" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S37" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T37" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="U37" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V37" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="W37" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="R37" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="S37" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T37" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="U37" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="V37" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="W37" s="13" t="s">
-        <v>104</v>
-      </c>
       <c r="X37" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y37" s="13" t="s">
         <v>3</v>
@@ -6287,13 +6152,13 @@
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="20">
-        <v>1</v>
-      </c>
-      <c r="H38" s="20">
-        <v>1</v>
-      </c>
-      <c r="I38" s="20" t="s">
+      <c r="G38" s="16">
+        <v>1</v>
+      </c>
+      <c r="H38" s="16">
+        <v>1</v>
+      </c>
+      <c r="I38" s="16" t="s">
         <v>8</v>
       </c>
       <c r="J38" s="12">
@@ -6314,19 +6179,19 @@
         <v>1</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q38" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="R38" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="R38" s="12" t="s">
+      <c r="S38" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="S38" s="12" t="s">
+      <c r="T38" s="12" t="s">
         <v>185</v>
-      </c>
-      <c r="T38" s="12" t="s">
-        <v>186</v>
       </c>
       <c r="U38" s="12">
         <v>29</v>
@@ -6350,22 +6215,22 @@
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="21">
-        <v>1</v>
-      </c>
-      <c r="H39" s="21">
-        <v>2</v>
-      </c>
-      <c r="I39" s="21" t="s">
+      <c r="G39" s="17">
+        <v>1</v>
+      </c>
+      <c r="H39" s="17">
+        <v>2</v>
+      </c>
+      <c r="I39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J39" s="22">
+      <c r="J39" s="18">
         <v>15</v>
       </c>
-      <c r="K39" s="22">
+      <c r="K39" s="18">
         <v>0</v>
       </c>
-      <c r="L39" s="22">
+      <c r="L39" s="18">
         <v>1</v>
       </c>
       <c r="M39" s="12">
@@ -6391,24 +6256,24 @@
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="26">
+      <c r="G40" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="19">
         <f>SUM(M38:M39)</f>
         <v>39</v>
       </c>
       <c r="N40" s="11"/>
       <c r="O40" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P40" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
@@ -6435,34 +6300,34 @@
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
       <c r="O41" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P41" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="P41" s="13" t="s">
-        <v>51</v>
-      </c>
       <c r="Q41" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="R41" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S41" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T41" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="U41" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V41" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="W41" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="R41" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="S41" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T41" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="U41" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="V41" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="W41" s="13" t="s">
-        <v>104</v>
-      </c>
       <c r="X41" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y41" s="13" t="s">
         <v>3</v>
@@ -6474,33 +6339,33 @@
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="32" t="s">
+      <c r="G42" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
       <c r="N42" s="11"/>
       <c r="O42" s="12">
         <v>1</v>
       </c>
       <c r="P42" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q42" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="Q42" s="12" t="s">
+      <c r="R42" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="R42" s="12" t="s">
+      <c r="S42" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="S42" s="12" t="s">
-        <v>191</v>
-      </c>
       <c r="T42" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U42" s="12">
         <v>25</v>
@@ -6512,7 +6377,7 @@
         <v>69</v>
       </c>
       <c r="X42" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y42" s="12">
         <v>1</v>
@@ -6528,41 +6393,41 @@
         <v>4</v>
       </c>
       <c r="H43" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I43" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="J43" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K43" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L43" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="L43" s="13" t="s">
+      <c r="M43" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="M43" s="13" t="s">
-        <v>102</v>
       </c>
       <c r="N43" s="11"/>
       <c r="O43" s="12">
         <v>2</v>
       </c>
       <c r="P43" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q43" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="Q43" s="12" t="s">
+      <c r="R43" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="R43" s="12" t="s">
+      <c r="S43" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="S43" s="12" t="s">
-        <v>196</v>
-      </c>
       <c r="T43" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U43" s="12">
         <v>26</v>
@@ -6586,13 +6451,13 @@
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="20">
-        <v>1</v>
-      </c>
-      <c r="H44" s="20">
-        <v>1</v>
-      </c>
-      <c r="I44" s="20" t="s">
+      <c r="G44" s="16">
+        <v>1</v>
+      </c>
+      <c r="H44" s="16">
+        <v>1</v>
+      </c>
+      <c r="I44" s="16" t="s">
         <v>8</v>
       </c>
       <c r="J44" s="12">
@@ -6612,32 +6477,32 @@
       <c r="O44" s="12">
         <v>3</v>
       </c>
-      <c r="P44" s="22" t="s">
+      <c r="P44" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q44" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="Q44" s="22" t="s">
+      <c r="R44" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="R44" s="22" t="s">
+      <c r="S44" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="S44" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="T44" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="U44" s="22">
+      <c r="T44" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="U44" s="18">
         <v>26</v>
       </c>
-      <c r="V44" s="22">
+      <c r="V44" s="18">
         <v>62</v>
       </c>
-      <c r="W44" s="22">
+      <c r="W44" s="18">
         <v>34</v>
       </c>
-      <c r="X44" s="22" t="s">
-        <v>142</v>
+      <c r="X44" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="Y44" s="12">
         <v>1</v>
@@ -6649,15 +6514,15 @@
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="26">
+      <c r="G45" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="19">
         <f>SUM(M44:M44)</f>
         <v>4</v>
       </c>
@@ -6665,31 +6530,31 @@
       <c r="O45" s="12">
         <v>4</v>
       </c>
-      <c r="P45" s="22" t="s">
+      <c r="P45" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q45" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="Q45" s="22" t="s">
+      <c r="R45" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="R45" s="22" t="s">
+      <c r="S45" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="S45" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="T45" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="U45" s="22">
+      <c r="T45" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="U45" s="18">
         <v>28</v>
       </c>
-      <c r="V45" s="22">
+      <c r="V45" s="18">
         <v>14</v>
       </c>
-      <c r="W45" s="22">
+      <c r="W45" s="18">
         <v>10</v>
       </c>
-      <c r="X45" s="22">
+      <c r="X45" s="18">
         <v>1</v>
       </c>
       <c r="Y45" s="12">
@@ -6714,19 +6579,19 @@
         <v>5</v>
       </c>
       <c r="P46" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q46" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="Q46" s="12" t="s">
+      <c r="R46" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="R46" s="12" t="s">
+      <c r="S46" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="S46" s="12" t="s">
-        <v>208</v>
-      </c>
       <c r="T46" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U46" s="12">
         <v>30</v>
@@ -6746,16 +6611,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="G36:M36"/>
-    <mergeCell ref="G40:L40"/>
-    <mergeCell ref="G42:M42"/>
-    <mergeCell ref="G45:L45"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="G24:M24"/>
-    <mergeCell ref="G28:L28"/>
     <mergeCell ref="G30:M30"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:M2"/>
@@ -6763,6 +6618,16 @@
     <mergeCell ref="G3:M3"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="G10:M10"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G24:M24"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G36:M36"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="G42:M42"/>
+    <mergeCell ref="G45:L45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TablaG5.xlsx
+++ b/TablaG5.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="204">
   <si>
     <t>Tipo</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Guatemala</t>
   </si>
   <si>
-    <t>US</t>
-  </si>
-  <si>
     <t>Servidores</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
     <t>Cantidad</t>
   </si>
   <si>
-    <t>TGU</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -202,18 +196,12 @@
     <t>192.188.1.1</t>
   </si>
   <si>
-    <t>GT</t>
-  </si>
-  <si>
     <t>192.188.1.2</t>
   </si>
   <si>
     <t>192.188.1.3</t>
   </si>
   <si>
-    <t>MIA</t>
-  </si>
-  <si>
     <t>192.188.1.4</t>
   </si>
   <si>
@@ -250,9 +238,6 @@
     <t>192.188.1.15</t>
   </si>
   <si>
-    <t>PAM</t>
-  </si>
-  <si>
     <t>192.188.1.16</t>
   </si>
   <si>
@@ -589,70 +574,70 @@
     <t>192.160.0.0/24</t>
   </si>
   <si>
-    <t>192.169.0.0</t>
-  </si>
-  <si>
-    <t>192.169.0.1</t>
-  </si>
-  <si>
-    <t>192.169.0.126</t>
-  </si>
-  <si>
     <t>192.160.0.127</t>
   </si>
   <si>
     <t>Administracion</t>
   </si>
   <si>
-    <t>192.169.0.128</t>
-  </si>
-  <si>
-    <t>192.169.0.129</t>
-  </si>
-  <si>
-    <t>192.169.0.190</t>
-  </si>
-  <si>
-    <t>192.169.0.191</t>
-  </si>
-  <si>
-    <t>192.169.0.192</t>
-  </si>
-  <si>
-    <t>192.169.0.193</t>
-  </si>
-  <si>
-    <t>192.169.0.254</t>
-  </si>
-  <si>
-    <t>192.169.0.255</t>
-  </si>
-  <si>
-    <t>192.169.1.0</t>
-  </si>
-  <si>
-    <t>192.169.1.1</t>
-  </si>
-  <si>
-    <t>192.169.1.14</t>
-  </si>
-  <si>
-    <t>192.169.1.15</t>
-  </si>
-  <si>
-    <t>192.169.1.16</t>
-  </si>
-  <si>
-    <t>192.169.1.17</t>
-  </si>
-  <si>
-    <t>192.169.1.18</t>
-  </si>
-  <si>
-    <t>192.169.1.19</t>
-  </si>
-  <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>192.160.0.128</t>
+  </si>
+  <si>
+    <t>192.160.0.192</t>
+  </si>
+  <si>
+    <t>192.160.1.0</t>
+  </si>
+  <si>
+    <t>192.160.1.16</t>
+  </si>
+  <si>
+    <t>192.160.0.1</t>
+  </si>
+  <si>
+    <t>192.160.0.129</t>
+  </si>
+  <si>
+    <t>192.160.0.193</t>
+  </si>
+  <si>
+    <t>192.160.1.1</t>
+  </si>
+  <si>
+    <t>192.160.1.17</t>
+  </si>
+  <si>
+    <t>192.160.0.126</t>
+  </si>
+  <si>
+    <t>192.160.0.190</t>
+  </si>
+  <si>
+    <t>192.160.0.254</t>
+  </si>
+  <si>
+    <t>192.160.1.14</t>
+  </si>
+  <si>
+    <t>192.160.1.18</t>
+  </si>
+  <si>
+    <t>192.160.0.191</t>
+  </si>
+  <si>
+    <t>192.160.0.255</t>
+  </si>
+  <si>
+    <t>192.160.1.15</t>
+  </si>
+  <si>
+    <t>192.160.1.19</t>
+  </si>
+  <si>
+    <t>USA</t>
   </si>
 </sst>
 </file>
@@ -937,7 +922,7 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1012,7 +997,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1028,21 +1031,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="8" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1335,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>9</v>
@@ -1408,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>9</v>
@@ -1429,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>9</v>
@@ -1450,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>9</v>
@@ -1471,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>9</v>
@@ -1492,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>9</v>
@@ -1513,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>9</v>
@@ -1534,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>9</v>
@@ -1555,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>9</v>
@@ -1576,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>9</v>
@@ -1593,7 +1581,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>14</v>
@@ -1605,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>9</v>
@@ -1631,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>9</v>
@@ -1657,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>9</v>
@@ -1908,7 +1896,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>14</v>
@@ -1983,7 +1971,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>21</v>
@@ -2004,7 +1992,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>21</v>
@@ -2025,7 +2013,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>21</v>
@@ -2046,7 +2034,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>21</v>
@@ -2067,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>21</v>
@@ -2088,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>21</v>
@@ -2109,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>21</v>
@@ -2130,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>21</v>
@@ -2151,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>21</v>
@@ -2172,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>21</v>
@@ -2193,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>21</v>
@@ -2214,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>21</v>
@@ -2235,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>21</v>
@@ -2256,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>21</v>
@@ -2456,7 +2444,7 @@
         <v>15</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>14</v>
@@ -2497,7 +2485,7 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6" t="s">
@@ -2836,7 +2824,7 @@
         <v>15</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>14</v>
@@ -2911,10 +2899,10 @@
         <v>1</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
@@ -2932,10 +2920,10 @@
         <v>1</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
@@ -2953,10 +2941,10 @@
         <v>1</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
@@ -2974,10 +2962,10 @@
         <v>1</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
@@ -2995,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
@@ -3016,10 +3004,10 @@
         <v>1</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
@@ -3037,10 +3025,10 @@
         <v>1</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
@@ -3058,10 +3046,10 @@
         <v>1</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
@@ -3079,10 +3067,10 @@
         <v>1</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
@@ -3100,10 +3088,10 @@
         <v>1</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
@@ -3111,7 +3099,7 @@
         <v>15</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>14</v>
@@ -3123,10 +3111,10 @@
         <v>1</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
@@ -3144,10 +3132,10 @@
         <v>1</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
@@ -3156,19 +3144,19 @@
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1</v>
+      </c>
+      <c r="F85" s="2">
+        <v>1</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E85" s="2">
-        <v>1</v>
-      </c>
-      <c r="F85" s="2">
-        <v>1</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H85" s="2" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
@@ -3177,19 +3165,19 @@
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1</v>
+      </c>
+      <c r="F86" s="2">
+        <v>1</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E86" s="2">
-        <v>1</v>
-      </c>
-      <c r="F86" s="2">
-        <v>1</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H86" s="2" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
@@ -3198,19 +3186,19 @@
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1</v>
+      </c>
+      <c r="F87" s="2">
+        <v>1</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E87" s="2">
-        <v>1</v>
-      </c>
-      <c r="F87" s="2">
-        <v>1</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H87" s="2" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
@@ -3219,19 +3207,19 @@
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
+      <c r="F88" s="2">
+        <v>1</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E88" s="2">
-        <v>1</v>
-      </c>
-      <c r="F88" s="2">
-        <v>1</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H88" s="2" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
@@ -3240,19 +3228,19 @@
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1</v>
+      </c>
+      <c r="F89" s="2">
+        <v>1</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E89" s="2">
-        <v>1</v>
-      </c>
-      <c r="F89" s="2">
-        <v>1</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H89" s="2" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
@@ -3261,19 +3249,19 @@
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1</v>
+      </c>
+      <c r="F90" s="2">
+        <v>1</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E90" s="2">
-        <v>1</v>
-      </c>
-      <c r="F90" s="2">
-        <v>1</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H90" s="2" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
@@ -3282,19 +3270,19 @@
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1</v>
+      </c>
+      <c r="F91" s="2">
+        <v>1</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E91" s="2">
-        <v>1</v>
-      </c>
-      <c r="F91" s="2">
-        <v>1</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H91" s="2" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
@@ -3312,10 +3300,10 @@
         <v>1</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
@@ -3333,10 +3321,10 @@
         <v>1</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
@@ -3354,10 +3342,10 @@
         <v>1</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
@@ -3375,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
@@ -3396,10 +3384,10 @@
         <v>1</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
@@ -3417,10 +3405,10 @@
         <v>1</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
@@ -3438,10 +3426,10 @@
         <v>1</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
@@ -3459,10 +3447,10 @@
         <v>1</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
@@ -3470,7 +3458,7 @@
         <v>15</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>14</v>
@@ -3482,10 +3470,10 @@
         <v>1</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
@@ -3503,10 +3491,10 @@
         <v>1</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
@@ -3524,10 +3512,10 @@
         <v>1</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
@@ -3545,10 +3533,10 @@
         <v>1</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
@@ -3566,10 +3554,10 @@
         <v>1</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
@@ -3587,10 +3575,10 @@
         <v>1</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
@@ -3608,10 +3596,10 @@
         <v>2</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
@@ -3629,10 +3617,10 @@
         <v>2</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
@@ -3650,10 +3638,10 @@
         <v>2</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
@@ -3671,10 +3659,10 @@
         <v>2</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
@@ -3692,10 +3680,10 @@
         <v>1</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3709,7 +3697,7 @@
   <dimension ref="B2:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3731,27 +3719,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="26" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
@@ -3766,51 +3754,51 @@
         <v>5</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>44</v>
-      </c>
       <c r="E3" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="N3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="P3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="13" t="s">
+      <c r="R3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="13" t="s">
+      <c r="S3" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="T3" s="13" t="s">
         <v>3</v>
@@ -3818,19 +3806,19 @@
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="E4" s="12">
         <v>24</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H4" s="12">
         <v>4</v>
@@ -3840,19 +3828,19 @@
         <v>1</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>60</v>
-      </c>
       <c r="O4" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="12">
         <v>30</v>
@@ -3875,17 +3863,17 @@
         <v>23</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" s="12">
         <v>24</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="H5" s="12">
         <v>2</v>
@@ -3895,19 +3883,19 @@
         <v>2</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P5" s="12">
         <v>30</v>
@@ -3927,20 +3915,20 @@
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" s="12">
         <v>24</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="H6" s="12">
         <v>2</v>
@@ -3950,19 +3938,19 @@
         <v>3</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P6" s="12">
         <v>30</v>
@@ -3982,20 +3970,20 @@
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" s="12">
         <v>24</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="12" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H7" s="12">
         <v>2</v>
@@ -4005,19 +3993,19 @@
         <v>4</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P7" s="12">
         <v>30</v>
@@ -4040,17 +4028,17 @@
         <v>18</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" s="12">
         <v>24</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H8" s="12">
         <v>1</v>
@@ -4060,19 +4048,19 @@
         <v>5</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P8" s="12">
         <v>30</v>
@@ -4092,20 +4080,20 @@
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="12">
         <v>24</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="H9" s="12">
         <v>1</v>
@@ -4115,19 +4103,19 @@
         <v>6</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P9" s="12">
         <v>30</v>
@@ -4147,20 +4135,20 @@
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="12">
         <v>24</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="12">
         <v>1</v>
@@ -4170,19 +4158,19 @@
         <v>7</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P10" s="12">
         <v>30</v>
@@ -4202,20 +4190,20 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="12">
         <v>24</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="12">
         <v>1</v>
@@ -4225,19 +4213,19 @@
         <v>8</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P11" s="12">
         <v>30</v>
@@ -4276,10 +4264,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Y46"/>
+  <dimension ref="B2:Y53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4308,27 +4296,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="G2" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
       <c r="N2" s="11"/>
-      <c r="O2" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="P2" s="26"/>
+      <c r="O2" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" s="27"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
@@ -4344,30 +4332,30 @@
         <v>5</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="11"/>
-      <c r="G3" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
+      <c r="G3" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
       <c r="N3" s="11"/>
-      <c r="O3" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>95</v>
+      <c r="O3" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
@@ -4381,13 +4369,13 @@
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E4" s="15">
         <v>24</v>
@@ -4397,53 +4385,53 @@
         <v>4</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="R4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="R4" s="13" t="s">
+      <c r="S4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="V4" s="13" t="s">
+      <c r="W4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="X4" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X4" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="Y4" s="13" t="s">
         <v>3</v>
@@ -4454,10 +4442,10 @@
         <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E5" s="15">
         <v>24</v>
@@ -4489,19 +4477,19 @@
         <v>1</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="U5" s="12">
         <v>25</v>
@@ -4521,13 +4509,13 @@
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E6" s="15">
         <v>24</v>
@@ -4559,19 +4547,19 @@
         <v>2</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="U6" s="12">
         <v>26</v>
@@ -4591,13 +4579,13 @@
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E7" s="15">
         <v>24</v>
@@ -4629,19 +4617,19 @@
         <v>3</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R7" s="18" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="S7" s="18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="T7" s="18" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="U7" s="18">
         <v>26</v>
@@ -4664,23 +4652,23 @@
         <v>18</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E8" s="15">
         <v>24</v>
       </c>
       <c r="F8" s="11"/>
-      <c r="G8" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
+      <c r="G8" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="19">
         <f>SUM(M5:M7)</f>
         <v>151</v>
@@ -4700,13 +4688,13 @@
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E9" s="15">
         <v>24</v>
@@ -4720,89 +4708,56 @@
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
       <c r="N9" s="11"/>
-      <c r="O9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E10" s="15">
         <v>8</v>
       </c>
       <c r="F10" s="11"/>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="36"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="32"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q10" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="S10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="U10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="V10" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="W10" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X10" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y10" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="O10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E11" s="15">
         <v>24</v>
@@ -4812,56 +4767,56 @@
         <v>4</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N11" s="11"/>
-      <c r="O11" s="12">
-        <v>1</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="T11" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="U11" s="12">
-        <v>26</v>
-      </c>
-      <c r="V11" s="12">
-        <v>62</v>
-      </c>
-      <c r="W11" s="12">
+      <c r="O11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="X11" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y11" s="12">
-        <v>1</v>
+      <c r="T11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="U11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="W11" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="X11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y11" s="13" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
@@ -4894,37 +4849,37 @@
       </c>
       <c r="N12" s="11"/>
       <c r="O12" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="R12" s="12" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="U12" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V12" s="12">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="W12" s="12">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="X12" s="12" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="Y12" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
@@ -4957,37 +4912,37 @@
       </c>
       <c r="N13" s="11"/>
       <c r="O13" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="U13" s="12">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V13" s="12">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="W13" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="X13" s="12" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="Y13" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
@@ -5003,7 +4958,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J14" s="18">
         <v>10</v>
@@ -5020,22 +4975,22 @@
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="R14" s="12" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="U14" s="12">
         <v>28</v>
@@ -5044,13 +4999,13 @@
         <v>14</v>
       </c>
       <c r="W14" s="12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X14" s="12" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="Y14" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
@@ -5082,17 +5037,39 @@
         <v>12</v>
       </c>
       <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
+      <c r="O15" s="12">
+        <v>4</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="U15" s="12">
+        <v>28</v>
+      </c>
+      <c r="V15" s="12">
+        <v>14</v>
+      </c>
+      <c r="W15" s="12">
+        <v>10</v>
+      </c>
+      <c r="X15" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
@@ -5100,25 +5077,21 @@
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
+      <c r="G16" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
       <c r="M16" s="19">
         <f>SUM(M12:M15)</f>
         <v>74</v>
       </c>
       <c r="N16" s="11"/>
-      <c r="O16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P16" s="14" t="s">
-        <v>147</v>
-      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
@@ -5143,39 +5116,6 @@
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="P17" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="S17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T17" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="U17" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="V17" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="W17" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X17" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y17" s="13" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
@@ -5183,49 +5123,31 @@
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
       <c r="N18" s="11"/>
-      <c r="O18" s="12">
-        <v>1</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="R18" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="S18" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="T18" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="U18" s="12">
-        <v>27</v>
-      </c>
-      <c r="V18" s="12">
-        <v>30</v>
-      </c>
-      <c r="W18" s="12">
-        <v>23</v>
-      </c>
-      <c r="X18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y18" s="12">
-        <v>1</v>
-      </c>
+      <c r="O18" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
@@ -5237,56 +5159,56 @@
         <v>4</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N19" s="11"/>
-      <c r="O19" s="12">
-        <v>2</v>
-      </c>
-      <c r="P19" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q19" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="R19" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="T19" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="U19" s="12">
-        <v>27</v>
-      </c>
-      <c r="V19" s="12">
-        <v>30</v>
-      </c>
-      <c r="W19" s="12">
-        <v>16</v>
-      </c>
-      <c r="X19" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y19" s="12">
-        <v>2</v>
+      <c r="O19" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="S19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="T19" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="U19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="V19" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="W19" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="X19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y19" s="13" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
@@ -5318,17 +5240,39 @@
         <v>23</v>
       </c>
       <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
+      <c r="O20" s="12">
+        <v>1</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="U20" s="12">
+        <v>27</v>
+      </c>
+      <c r="V20" s="12">
+        <v>30</v>
+      </c>
+      <c r="W20" s="12">
+        <v>23</v>
+      </c>
+      <c r="X20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y20" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
@@ -5359,21 +5303,39 @@
         <v>16</v>
       </c>
       <c r="N21" s="11"/>
-      <c r="O21" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
+      <c r="O21" s="12">
+        <v>2</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="T21" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="U21" s="12">
+        <v>27</v>
+      </c>
+      <c r="V21" s="12">
+        <v>30</v>
+      </c>
+      <c r="W21" s="12">
+        <v>16</v>
+      </c>
+      <c r="X21" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y21" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -5381,52 +5343,19 @@
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="29"/>
+      <c r="G22" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="35"/>
       <c r="M22" s="19">
         <f>SUM(M20:M21)</f>
         <v>39</v>
       </c>
       <c r="N22" s="11"/>
-      <c r="O22" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="P22" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q22" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="R22" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="S22" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T22" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="U22" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="V22" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="W22" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X22" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y22" s="13" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
@@ -5442,39 +5371,6 @@
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
-      <c r="O23" s="12">
-        <v>1</v>
-      </c>
-      <c r="P23" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q23" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="R23" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="S23" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="T23" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="U23" s="12">
-        <v>25</v>
-      </c>
-      <c r="V23" s="12">
-        <v>126</v>
-      </c>
-      <c r="W23" s="12">
-        <v>69</v>
-      </c>
-      <c r="X23" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y23" s="12">
-        <v>1</v>
-      </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
@@ -5482,49 +5378,31 @@
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
+      <c r="G24" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
       <c r="N24" s="11"/>
-      <c r="O24" s="12">
-        <v>2</v>
-      </c>
-      <c r="P24" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q24" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="R24" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="S24" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="T24" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="U24" s="12">
-        <v>26</v>
-      </c>
-      <c r="V24" s="12">
-        <v>62</v>
-      </c>
-      <c r="W24" s="12">
-        <v>48</v>
-      </c>
-      <c r="X24" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y24" s="12">
-        <v>2</v>
-      </c>
+      <c r="O24" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
@@ -5536,35 +5414,57 @@
         <v>4</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
+      <c r="O25" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="P25" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="T25" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="U25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="V25" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="W25" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="X25" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y25" s="13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
@@ -5595,21 +5495,39 @@
         <v>69</v>
       </c>
       <c r="N26" s="11"/>
-      <c r="O26" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="P26" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
+      <c r="O26" s="12">
+        <v>1</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q26" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="R26" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="S26" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="U26" s="12">
+        <v>25</v>
+      </c>
+      <c r="V26" s="12">
+        <v>126</v>
+      </c>
+      <c r="W26" s="12">
+        <v>69</v>
+      </c>
+      <c r="X26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y26" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
@@ -5640,38 +5558,38 @@
         <v>48</v>
       </c>
       <c r="N27" s="11"/>
-      <c r="O27" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="P27" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q27" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="R27" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="S27" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T27" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="U27" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="V27" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="W27" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X27" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y27" s="13" t="s">
-        <v>3</v>
+      <c r="O27" s="12">
+        <v>2</v>
+      </c>
+      <c r="P27" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q27" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="R27" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="S27" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="T27" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="U27" s="12">
+        <v>26</v>
+      </c>
+      <c r="V27" s="12">
+        <v>62</v>
+      </c>
+      <c r="W27" s="12">
+        <v>48</v>
+      </c>
+      <c r="X27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y27" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
@@ -5680,52 +5598,19 @@
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="29"/>
+      <c r="G28" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="35"/>
       <c r="M28" s="19">
         <f>SUM(M26:M27)</f>
         <v>117</v>
       </c>
       <c r="N28" s="11"/>
-      <c r="O28" s="12">
-        <v>1</v>
-      </c>
-      <c r="P28" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q28" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="R28" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="S28" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="T28" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="U28" s="12">
-        <v>27</v>
-      </c>
-      <c r="V28" s="12">
-        <v>30</v>
-      </c>
-      <c r="W28" s="12">
-        <v>23</v>
-      </c>
-      <c r="X28" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y28" s="12">
-        <v>1</v>
-      </c>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
@@ -5741,39 +5626,6 @@
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
-      <c r="O29" s="12">
-        <v>2</v>
-      </c>
-      <c r="P29" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q29" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="R29" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="S29" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="T29" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="U29" s="12">
-        <v>27</v>
-      </c>
-      <c r="V29" s="12">
-        <v>30</v>
-      </c>
-      <c r="W29" s="12">
-        <v>16</v>
-      </c>
-      <c r="X29" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y29" s="12">
-        <v>2</v>
-      </c>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
@@ -5781,18 +5633,22 @@
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="34"/>
+      <c r="G30" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="30"/>
       <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
+      <c r="O30" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="26" t="s">
+        <v>159</v>
+      </c>
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
@@ -5813,39 +5669,57 @@
         <v>4</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J31" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N31" s="11"/>
-      <c r="O31" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="P31" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
+      <c r="O31" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="P31" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q31" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="R31" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="S31" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="T31" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="U31" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="V31" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="W31" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="X31" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y31" s="13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" s="11"/>
@@ -5876,38 +5750,38 @@
         <v>23</v>
       </c>
       <c r="N32" s="11"/>
-      <c r="O32" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="P32" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q32" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="R32" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="S32" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T32" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="U32" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="V32" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="W32" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X32" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y32" s="13" t="s">
-        <v>3</v>
+      <c r="O32" s="12">
+        <v>1</v>
+      </c>
+      <c r="P32" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q32" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="R32" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="S32" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="T32" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="U32" s="12">
+        <v>27</v>
+      </c>
+      <c r="V32" s="12">
+        <v>30</v>
+      </c>
+      <c r="W32" s="12">
+        <v>23</v>
+      </c>
+      <c r="X32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y32" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.25">
@@ -5940,22 +5814,22 @@
       </c>
       <c r="N33" s="11"/>
       <c r="O33" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="Q33" s="12" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="R33" s="12" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="S33" s="12" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="U33" s="12">
         <v>27</v>
@@ -5964,13 +5838,13 @@
         <v>30</v>
       </c>
       <c r="W33" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="X33" s="12" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="Y33" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.25">
@@ -5979,52 +5853,19 @@
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="29"/>
+      <c r="G34" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="35"/>
       <c r="M34" s="19">
         <f>SUM(M32:M33)</f>
         <v>39</v>
       </c>
       <c r="N34" s="11"/>
-      <c r="O34" s="12">
-        <v>2</v>
-      </c>
-      <c r="P34" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q34" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="R34" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="S34" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="T34" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="U34" s="12">
-        <v>27</v>
-      </c>
-      <c r="V34" s="12">
-        <v>30</v>
-      </c>
-      <c r="W34" s="12">
-        <v>16</v>
-      </c>
-      <c r="X34" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y34" s="25">
-        <v>2</v>
-      </c>
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
@@ -6040,17 +5881,6 @@
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
@@ -6058,21 +5888,21 @@
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
+      <c r="G36" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
       <c r="N36" s="11"/>
-      <c r="O36" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="P36" s="14" t="s">
-        <v>181</v>
+      <c r="O36" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
@@ -6094,53 +5924,53 @@
         <v>4</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J37" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N37" s="11"/>
       <c r="O37" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P37" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q37" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="R37" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="Q37" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="R37" s="13" t="s">
+      <c r="S37" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="T37" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="U37" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="V37" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="S37" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T37" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="U37" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="V37" s="13" t="s">
+      <c r="W37" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="X37" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="W37" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X37" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="Y37" s="13" t="s">
         <v>3</v>
@@ -6179,28 +6009,28 @@
         <v>1</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="Q38" s="12" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="R38" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="S38" s="12" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="T38" s="12" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="U38" s="12">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V38" s="12">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="W38" s="12">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="X38" s="12" t="s">
         <v>8</v>
@@ -6238,17 +6068,39 @@
         <v>16</v>
       </c>
       <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="11"/>
+      <c r="O39" s="12">
+        <v>2</v>
+      </c>
+      <c r="P39" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q39" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="R39" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="S39" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="T39" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="U39" s="12">
+        <v>27</v>
+      </c>
+      <c r="V39" s="12">
+        <v>30</v>
+      </c>
+      <c r="W39" s="12">
+        <v>16</v>
+      </c>
+      <c r="X39" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y39" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B40" s="11"/>
@@ -6256,25 +6108,21 @@
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="29"/>
+      <c r="G40" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="35"/>
       <c r="M40" s="19">
         <f>SUM(M38:M39)</f>
         <v>39</v>
       </c>
       <c r="N40" s="11"/>
-      <c r="O40" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="P40" s="14" t="s">
-        <v>186</v>
-      </c>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
@@ -6299,39 +6147,6 @@
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
-      <c r="O41" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="P41" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q41" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="R41" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="S41" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T41" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="U41" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="V41" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="W41" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X41" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y41" s="13" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="42" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B42" s="11"/>
@@ -6339,49 +6154,31 @@
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
+      <c r="G42" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
       <c r="N42" s="11"/>
-      <c r="O42" s="12">
-        <v>1</v>
-      </c>
-      <c r="P42" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q42" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="R42" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="S42" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="T42" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="U42" s="12">
-        <v>25</v>
-      </c>
-      <c r="V42" s="12">
-        <v>126</v>
-      </c>
-      <c r="W42" s="12">
-        <v>69</v>
-      </c>
-      <c r="X42" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y42" s="12">
-        <v>1</v>
-      </c>
+      <c r="O42" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="P42" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
     </row>
     <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B43" s="11"/>
@@ -6393,56 +6190,56 @@
         <v>4</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J43" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N43" s="11"/>
-      <c r="O43" s="12">
-        <v>2</v>
-      </c>
-      <c r="P43" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q43" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="R43" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="S43" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="T43" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="U43" s="12">
-        <v>26</v>
-      </c>
-      <c r="V43" s="12">
-        <v>62</v>
-      </c>
-      <c r="W43" s="12">
+      <c r="O43" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="P43" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="X43" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y43" s="12">
-        <v>2</v>
+      <c r="Q43" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="R43" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="S43" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="T43" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="U43" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="V43" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="W43" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="X43" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y43" s="13" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="2:25" x14ac:dyDescent="0.25">
@@ -6475,34 +6272,34 @@
       </c>
       <c r="N44" s="11"/>
       <c r="O44" s="12">
-        <v>3</v>
-      </c>
-      <c r="P44" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q44" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="R44" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="S44" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="T44" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="U44" s="18">
-        <v>26</v>
-      </c>
-      <c r="V44" s="18">
-        <v>62</v>
-      </c>
-      <c r="W44" s="18">
-        <v>34</v>
-      </c>
-      <c r="X44" s="18" t="s">
-        <v>141</v>
+        <v>1</v>
+      </c>
+      <c r="P44" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q44" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="R44" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="S44" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="T44" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="U44" s="12">
+        <v>29</v>
+      </c>
+      <c r="V44" s="12">
+        <v>6</v>
+      </c>
+      <c r="W44" s="12">
+        <v>4</v>
+      </c>
+      <c r="X44" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="Y44" s="12">
         <v>1</v>
@@ -6514,52 +6311,19 @@
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="29"/>
+      <c r="G45" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="35"/>
       <c r="M45" s="19">
         <f>SUM(M44:M44)</f>
         <v>4</v>
       </c>
       <c r="N45" s="11"/>
-      <c r="O45" s="12">
-        <v>4</v>
-      </c>
-      <c r="P45" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q45" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="R45" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="S45" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="T45" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="U45" s="18">
-        <v>28</v>
-      </c>
-      <c r="V45" s="18">
-        <v>14</v>
-      </c>
-      <c r="W45" s="18">
-        <v>10</v>
-      </c>
-      <c r="X45" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y45" s="12">
-        <v>2</v>
-      </c>
     </row>
     <row r="46" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B46" s="11"/>
@@ -6575,42 +6339,348 @@
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
-      <c r="O46" s="12">
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="G47" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="32"/>
+      <c r="O47" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P47" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="G48" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="O48" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="P48" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q48" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="R48" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="S48" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="T48" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="U48" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="V48" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="W48" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="X48" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y48" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G49" s="16">
+        <v>1</v>
+      </c>
+      <c r="H49" s="16">
+        <v>1</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="12">
+        <v>60</v>
+      </c>
+      <c r="K49" s="12">
+        <v>4</v>
+      </c>
+      <c r="L49" s="12">
         <v>5</v>
       </c>
-      <c r="P46" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q46" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="R46" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="S46" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="T46" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="U46" s="12">
+      <c r="M49" s="12">
+        <v>69</v>
+      </c>
+      <c r="O49" s="12">
+        <v>1</v>
+      </c>
+      <c r="P49" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q49" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="R49" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="S49" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="T49" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="U49" s="12">
+        <v>25</v>
+      </c>
+      <c r="V49" s="12">
+        <v>126</v>
+      </c>
+      <c r="W49" s="12">
+        <v>69</v>
+      </c>
+      <c r="X49" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y49" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G50" s="17">
+        <v>1</v>
+      </c>
+      <c r="H50" s="17">
+        <v>2</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" s="18">
+        <v>45</v>
+      </c>
+      <c r="K50" s="18">
+        <v>1</v>
+      </c>
+      <c r="L50" s="18">
+        <v>2</v>
+      </c>
+      <c r="M50" s="12">
+        <v>48</v>
+      </c>
+      <c r="O50" s="12">
+        <v>2</v>
+      </c>
+      <c r="P50" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q50" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="R50" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="S50" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="T50" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="U50" s="12">
+        <v>26</v>
+      </c>
+      <c r="V50" s="12">
+        <v>62</v>
+      </c>
+      <c r="W50" s="12">
+        <v>48</v>
+      </c>
+      <c r="X50" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y50" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G51" s="16">
+        <v>2</v>
+      </c>
+      <c r="H51" s="16">
+        <v>1</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="12">
         <v>30</v>
       </c>
-      <c r="V46" s="12">
-        <v>2</v>
-      </c>
-      <c r="W46" s="12">
-        <v>1</v>
-      </c>
-      <c r="X46" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y46" s="12">
+      <c r="K51" s="12">
+        <v>1</v>
+      </c>
+      <c r="L51" s="12">
+        <v>3</v>
+      </c>
+      <c r="M51" s="12">
+        <v>34</v>
+      </c>
+      <c r="O51" s="12">
+        <v>3</v>
+      </c>
+      <c r="P51" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q51" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="R51" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="S51" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="T51" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="U51" s="18">
+        <v>26</v>
+      </c>
+      <c r="V51" s="18">
+        <v>62</v>
+      </c>
+      <c r="W51" s="18">
+        <v>34</v>
+      </c>
+      <c r="X51" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y51" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G52" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="19">
+        <f>SUM(M49:M51)</f>
+        <v>151</v>
+      </c>
+      <c r="O52" s="12">
+        <v>4</v>
+      </c>
+      <c r="P52" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q52" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="R52" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="S52" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="T52" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="U52" s="18">
+        <v>28</v>
+      </c>
+      <c r="V52" s="18">
+        <v>14</v>
+      </c>
+      <c r="W52" s="18">
+        <v>10</v>
+      </c>
+      <c r="X52" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="O53" s="12">
+        <v>5</v>
+      </c>
+      <c r="P53" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q53" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="R53" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="S53" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="T53" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U53" s="12">
+        <v>30</v>
+      </c>
+      <c r="V53" s="12">
+        <v>2</v>
+      </c>
+      <c r="W53" s="12">
+        <v>1</v>
+      </c>
+      <c r="X53" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="12">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="G47:M47"/>
+    <mergeCell ref="G52:L52"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G36:M36"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="G42:M42"/>
+    <mergeCell ref="G45:L45"/>
     <mergeCell ref="G30:M30"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:M2"/>
@@ -6623,12 +6693,8 @@
     <mergeCell ref="G22:L22"/>
     <mergeCell ref="G24:M24"/>
     <mergeCell ref="G28:L28"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="G36:M36"/>
-    <mergeCell ref="G40:L40"/>
-    <mergeCell ref="G42:M42"/>
-    <mergeCell ref="G45:L45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TablaG5.xlsx
+++ b/TablaG5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286">
   <si>
     <t>Tipo</t>
   </si>
@@ -363,19 +363,31 @@
     <t>190.168.20.66</t>
   </si>
   <si>
+    <t>10.10.10.9</t>
+  </si>
+  <si>
     <t>Servidores</t>
   </si>
   <si>
     <t>ATL</t>
   </si>
   <si>
+    <t>10.10.10.12</t>
+  </si>
+  <si>
     <t>10.10.10.11</t>
   </si>
   <si>
-    <t>10.10.10.12</t>
-  </si>
-  <si>
-    <t>10.10.10.13</t>
+    <t>10.10.10.10</t>
+  </si>
+  <si>
+    <t>10.10.10.1</t>
+  </si>
+  <si>
+    <t>10.10.10.3</t>
+  </si>
+  <si>
+    <t>10.10.10.2</t>
   </si>
   <si>
     <t>192.160.1.1</t>
@@ -676,9 +688,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>10.10.10.10</t>
   </si>
   <si>
     <t>192.122.10.0/24</t>
@@ -2048,10 +2057,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:H118"/>
+  <dimension ref="B3:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4112,9 +4121,11 @@
       <c r="B92" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="27"/>
+      <c r="C92" s="27" t="s">
+        <v>115</v>
+      </c>
       <c r="D92" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E92" s="27">
         <v>1</v>
@@ -4123,7 +4134,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H92" s="27" t="s">
         <v>105</v>
@@ -4131,11 +4142,13 @@
     </row>
     <row r="93" spans="2:8">
       <c r="B93" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="27"/>
+        <v>12</v>
+      </c>
+      <c r="C93" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="D93" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E93" s="27">
         <v>1</v>
@@ -4144,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H93" s="27" t="s">
         <v>105</v>
@@ -4152,11 +4165,13 @@
     </row>
     <row r="94" spans="2:8">
       <c r="B94" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" s="27"/>
+        <v>12</v>
+      </c>
+      <c r="C94" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="D94" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E94" s="27">
         <v>1</v>
@@ -4165,7 +4180,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H94" s="27" t="s">
         <v>105</v>
@@ -4173,11 +4188,13 @@
     </row>
     <row r="95" spans="2:8">
       <c r="B95" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="27"/>
+        <v>12</v>
+      </c>
+      <c r="C95" s="27" t="s">
+        <v>120</v>
+      </c>
       <c r="D95" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E95" s="27">
         <v>1</v>
@@ -4186,7 +4203,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H95" s="27" t="s">
         <v>105</v>
@@ -4194,11 +4211,13 @@
     </row>
     <row r="96" spans="2:8">
       <c r="B96" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C96" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>121</v>
+      </c>
       <c r="D96" s="27" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="E96" s="27">
         <v>1</v>
@@ -4207,7 +4226,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H96" s="27" t="s">
         <v>105</v>
@@ -4215,11 +4234,13 @@
     </row>
     <row r="97" spans="2:8">
       <c r="B97" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C97" s="27"/>
+        <v>14</v>
+      </c>
+      <c r="C97" s="27" t="s">
+        <v>122</v>
+      </c>
       <c r="D97" s="27" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="E97" s="27">
         <v>1</v>
@@ -4228,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H97" s="27" t="s">
         <v>105</v>
@@ -4236,11 +4257,13 @@
     </row>
     <row r="98" spans="2:8">
       <c r="B98" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C98" s="27"/>
+        <v>14</v>
+      </c>
+      <c r="C98" s="27" t="s">
+        <v>123</v>
+      </c>
       <c r="D98" s="27" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="E98" s="27">
         <v>1</v>
@@ -4249,90 +4272,90 @@
         <v>1</v>
       </c>
       <c r="G98" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H98" s="27" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="99" spans="2:8">
-      <c r="B99" s="27" t="s">
+      <c r="B99" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="D99" s="27" t="s">
+      <c r="C99" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E99" s="28">
+        <v>1</v>
+      </c>
+      <c r="F99" s="28">
+        <v>1</v>
+      </c>
+      <c r="G99" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="H99" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E100" s="28">
+        <v>1</v>
+      </c>
+      <c r="F100" s="28">
+        <v>1</v>
+      </c>
+      <c r="G100" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="H100" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="B101" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D101" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E99" s="27">
-        <v>1</v>
-      </c>
-      <c r="F99" s="27">
-        <v>1</v>
-      </c>
-      <c r="G99" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="H99" s="27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8">
-      <c r="B100" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C100" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D100" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" s="27">
-        <v>1</v>
-      </c>
-      <c r="F100" s="27">
-        <v>1</v>
-      </c>
-      <c r="G100" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="H100" s="27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8">
-      <c r="B101" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C101" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D101" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="27">
-        <v>1</v>
-      </c>
-      <c r="F101" s="27">
-        <v>1</v>
-      </c>
-      <c r="G101" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="H101" s="27" t="s">
+      <c r="E101" s="28">
+        <v>1</v>
+      </c>
+      <c r="F101" s="28">
+        <v>1</v>
+      </c>
+      <c r="G101" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="H101" s="28" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="102" spans="2:8">
       <c r="B102" s="28" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="E102" s="28">
         <v>1</v>
@@ -4341,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H102" s="28" t="s">
         <v>105</v>
@@ -4349,13 +4372,13 @@
     </row>
     <row r="103" spans="2:8">
       <c r="B103" s="28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="E103" s="28">
         <v>1</v>
@@ -4364,7 +4387,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H103" s="28" t="s">
         <v>105</v>
@@ -4372,10 +4395,10 @@
     </row>
     <row r="104" spans="2:8">
       <c r="B104" s="28" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D104" s="28" t="s">
         <v>9</v>
@@ -4387,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="G104" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H104" s="28" t="s">
         <v>105</v>
@@ -4395,22 +4418,22 @@
     </row>
     <row r="105" spans="2:8">
       <c r="B105" s="28" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E105" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F105" s="28">
         <v>1</v>
       </c>
       <c r="G105" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H105" s="28" t="s">
         <v>105</v>
@@ -4418,22 +4441,22 @@
     </row>
     <row r="106" spans="2:8">
       <c r="B106" s="28" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C106" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E106" s="28">
+        <v>2</v>
+      </c>
+      <c r="F106" s="28">
+        <v>1</v>
+      </c>
+      <c r="G106" s="28" t="s">
         <v>126</v>
-      </c>
-      <c r="D106" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E106" s="28">
-        <v>1</v>
-      </c>
-      <c r="F106" s="28">
-        <v>1</v>
-      </c>
-      <c r="G106" s="28" t="s">
-        <v>122</v>
       </c>
       <c r="H106" s="28" t="s">
         <v>105</v>
@@ -4441,22 +4464,22 @@
     </row>
     <row r="107" spans="2:8">
       <c r="B107" s="28" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C107" s="28" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E107" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F107" s="28">
         <v>1</v>
       </c>
       <c r="G107" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H107" s="28" t="s">
         <v>105</v>
@@ -4467,10 +4490,10 @@
         <v>7</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="E108" s="28">
         <v>2</v>
@@ -4479,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H108" s="28" t="s">
         <v>105</v>
@@ -4487,13 +4510,13 @@
     </row>
     <row r="109" spans="2:8">
       <c r="B109" s="28" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="E109" s="28">
         <v>2</v>
@@ -4502,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="G109" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H109" s="28" t="s">
         <v>105</v>
@@ -4510,13 +4533,13 @@
     </row>
     <row r="110" spans="2:8">
       <c r="B110" s="28" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C110" s="28" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="E110" s="28">
         <v>2</v>
@@ -4525,7 +4548,7 @@
         <v>1</v>
       </c>
       <c r="G110" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H110" s="28" t="s">
         <v>105</v>
@@ -4533,10 +4556,10 @@
     </row>
     <row r="111" spans="2:8">
       <c r="B111" s="28" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D111" s="28" t="s">
         <v>66</v>
@@ -4548,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="G111" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H111" s="28" t="s">
         <v>105</v>
@@ -4556,22 +4579,22 @@
     </row>
     <row r="112" spans="2:8">
       <c r="B112" s="28" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C112" s="28" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E112" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F112" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G112" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H112" s="28" t="s">
         <v>105</v>
@@ -4582,19 +4605,19 @@
         <v>14</v>
       </c>
       <c r="C113" s="28" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E113" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F113" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G113" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H113" s="28" t="s">
         <v>105</v>
@@ -4602,22 +4625,22 @@
     </row>
     <row r="114" spans="2:8">
       <c r="B114" s="28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C114" s="28" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E114" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F114" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G114" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H114" s="28" t="s">
         <v>105</v>
@@ -4625,10 +4648,10 @@
     </row>
     <row r="115" spans="2:8">
       <c r="B115" s="28" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C115" s="28" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D115" s="28" t="s">
         <v>53</v>
@@ -4640,78 +4663,9 @@
         <v>2</v>
       </c>
       <c r="G115" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H115" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8">
-      <c r="B116" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C116" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D116" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E116" s="28">
-        <v>1</v>
-      </c>
-      <c r="F116" s="28">
-        <v>2</v>
-      </c>
-      <c r="G116" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="H116" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8">
-      <c r="B117" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C117" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D117" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E117" s="28">
-        <v>1</v>
-      </c>
-      <c r="F117" s="28">
-        <v>2</v>
-      </c>
-      <c r="G117" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="H117" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8">
-      <c r="B118" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C118" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D118" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E118" s="28">
-        <v>1</v>
-      </c>
-      <c r="F118" s="28">
-        <v>2</v>
-      </c>
-      <c r="G118" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="H118" s="28" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4727,7 +4681,7 @@
   <sheetPr/>
   <dimension ref="B2:T13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -4751,26 +4705,26 @@
   <sheetData>
     <row r="2" spans="2:20">
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
       <c r="G2" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
       <c r="J2" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -4785,51 +4739,51 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="Q3" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>3</v>
@@ -4840,10 +4794,10 @@
         <v>54</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E4" s="18">
         <v>24</v>
@@ -4859,19 +4813,19 @@
         <v>1</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P4" s="18">
         <v>30</v>
@@ -4894,10 +4848,10 @@
         <v>72</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E5" s="18">
         <v>24</v>
@@ -4914,19 +4868,19 @@
         <v>2</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="N5" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="O5" s="18" t="s">
         <v>165</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>161</v>
       </c>
       <c r="P5" s="18">
         <v>30</v>
@@ -4949,10 +4903,10 @@
         <v>90</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E6" s="18">
         <v>24</v>
@@ -4969,19 +4923,19 @@
         <v>3</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P6" s="18">
         <v>30</v>
@@ -5004,10 +4958,10 @@
         <v>104</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E7" s="18">
         <v>24</v>
@@ -5024,19 +4978,19 @@
         <v>4</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P7" s="18">
         <v>30</v>
@@ -5059,10 +5013,10 @@
         <v>36</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E8" s="18">
         <v>24</v>
@@ -5079,19 +5033,19 @@
         <v>5</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P8" s="18">
         <v>30</v>
@@ -5114,10 +5068,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E9" s="18">
         <v>24</v>
@@ -5134,19 +5088,19 @@
         <v>6</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P9" s="18">
         <v>30</v>
@@ -5166,20 +5120,20 @@
     </row>
     <row r="10" spans="2:20">
       <c r="B10" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E10" s="18">
         <v>24</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H10" s="18">
         <v>1</v>
@@ -5189,19 +5143,19 @@
         <v>7</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P10" s="18">
         <v>30</v>
@@ -5221,20 +5175,20 @@
     </row>
     <row r="11" spans="2:20">
       <c r="B11" s="18" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E11" s="18">
         <v>24</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="18" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H11" s="18">
         <v>1</v>
@@ -5244,19 +5198,19 @@
         <v>8</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P11" s="18">
         <v>30</v>
@@ -5299,7 +5253,7 @@
   <sheetPr/>
   <dimension ref="B2:Y53"/>
   <sheetViews>
-    <sheetView topLeftCell="D21" workbookViewId="0">
+    <sheetView topLeftCell="D26" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -5330,14 +5284,14 @@
   <sheetData>
     <row r="2" spans="2:25">
       <c r="B2" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
       <c r="G2" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -5347,7 +5301,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="2"/>
       <c r="O2" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="2"/>
@@ -5365,13 +5319,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="4" t="s">
@@ -5388,7 +5342,7 @@
         <v>54</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -5405,10 +5359,10 @@
         <v>54</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E4" s="6">
         <v>24</v>
@@ -5418,53 +5372,53 @@
         <v>4</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>3</v>
@@ -5475,10 +5429,10 @@
         <v>72</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E5" s="6">
         <v>24</v>
@@ -5510,19 +5464,19 @@
         <v>1</v>
       </c>
       <c r="P5" s="18" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q5" s="18" t="s">
         <v>59</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="S5" s="18" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="T5" s="18" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="U5" s="18">
         <v>25</v>
@@ -5545,10 +5499,10 @@
         <v>90</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E6" s="6">
         <v>24</v>
@@ -5580,19 +5534,19 @@
         <v>2</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q6" s="18" t="s">
         <v>65</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="S6" s="18" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="T6" s="18" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="U6" s="18">
         <v>26</v>
@@ -5615,10 +5569,10 @@
         <v>104</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E7" s="6">
         <v>24</v>
@@ -5650,19 +5604,19 @@
         <v>3</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="19" t="s">
         <v>52</v>
       </c>
       <c r="R7" s="19" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="S7" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="T7" s="19" t="s">
         <v>216</v>
-      </c>
-      <c r="T7" s="19" t="s">
-        <v>212</v>
       </c>
       <c r="U7" s="19">
         <v>26</v>
@@ -5685,17 +5639,17 @@
         <v>36</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E8" s="6">
         <v>24</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -5724,10 +5678,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E9" s="6">
         <v>24</v>
@@ -5744,13 +5698,13 @@
     </row>
     <row r="10" spans="2:25">
       <c r="B10" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="E10" s="6">
         <v>8</v>
@@ -5770,7 +5724,7 @@
         <v>72</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -5784,13 +5738,13 @@
     </row>
     <row r="11" spans="2:25">
       <c r="B11" s="6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E11" s="6">
         <v>24</v>
@@ -5800,53 +5754,53 @@
         <v>4</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Y11" s="3" t="s">
         <v>3</v>
@@ -5885,19 +5839,19 @@
         <v>1</v>
       </c>
       <c r="P12" s="18" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q12" s="18" t="s">
         <v>70</v>
       </c>
       <c r="R12" s="18" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="S12" s="18" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="T12" s="18" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="U12" s="18">
         <v>26</v>
@@ -5909,7 +5863,7 @@
         <v>34</v>
       </c>
       <c r="X12" s="18" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Y12" s="18">
         <v>1</v>
@@ -5948,19 +5902,19 @@
         <v>2</v>
       </c>
       <c r="P13" s="18" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q13" s="18" t="s">
         <v>76</v>
       </c>
       <c r="R13" s="18" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="S13" s="18" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="T13" s="18" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="U13" s="18">
         <v>27</v>
@@ -5991,7 +5945,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J14" s="19">
         <v>10</v>
@@ -6011,19 +5965,19 @@
         <v>3</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q14" s="18" t="s">
         <v>84</v>
       </c>
       <c r="R14" s="18" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="S14" s="18" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="T14" s="18" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="U14" s="18">
         <v>28</v>
@@ -6035,7 +5989,7 @@
         <v>12</v>
       </c>
       <c r="X14" s="18" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Y14" s="18">
         <v>1</v>
@@ -6074,19 +6028,19 @@
         <v>4</v>
       </c>
       <c r="P15" s="18" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q15" s="18" t="s">
         <v>80</v>
       </c>
       <c r="R15" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="S15" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="T15" s="18" t="s">
         <v>237</v>
-      </c>
-      <c r="S15" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="T15" s="18" t="s">
-        <v>234</v>
       </c>
       <c r="U15" s="18">
         <v>28</v>
@@ -6098,7 +6052,7 @@
         <v>10</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Y15" s="18">
         <v>2</v>
@@ -6111,7 +6065,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -6170,7 +6124,7 @@
         <v>36</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -6192,53 +6146,53 @@
         <v>4</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Y19" s="3" t="s">
         <v>3</v>
@@ -6277,19 +6231,19 @@
         <v>1</v>
       </c>
       <c r="P20" s="18" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q20" s="18" t="s">
         <v>35</v>
       </c>
       <c r="R20" s="18" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="S20" s="18" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="T20" s="18" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="U20" s="18">
         <v>27</v>
@@ -6340,19 +6294,19 @@
         <v>2</v>
       </c>
       <c r="P21" s="18" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q21" s="18" t="s">
         <v>42</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="S21" s="18" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="U21" s="18">
         <v>27</v>
@@ -6364,7 +6318,7 @@
         <v>16</v>
       </c>
       <c r="X21" s="18" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Y21" s="18">
         <v>2</v>
@@ -6377,7 +6331,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -6425,7 +6379,7 @@
         <v>90</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -6447,53 +6401,53 @@
         <v>4</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P25" s="23" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Y25" s="3" t="s">
         <v>3</v>
@@ -6532,19 +6486,19 @@
         <v>1</v>
       </c>
       <c r="P26" s="18" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q26" s="18" t="s">
         <v>89</v>
       </c>
       <c r="R26" s="18" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="S26" s="18" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="T26" s="18" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="U26" s="18">
         <v>25</v>
@@ -6595,19 +6549,19 @@
         <v>2</v>
       </c>
       <c r="P27" s="18" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q27" s="18" t="s">
         <v>96</v>
       </c>
       <c r="R27" s="18" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="S27" s="18" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="T27" s="18" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="U27" s="18">
         <v>26</v>
@@ -6632,7 +6586,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -6680,7 +6634,7 @@
         <v>10</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -6702,53 +6656,53 @@
         <v>4</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Y31" s="3" t="s">
         <v>3</v>
@@ -6787,19 +6741,19 @@
         <v>1</v>
       </c>
       <c r="P32" s="18" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q32" s="18" t="s">
         <v>8</v>
       </c>
       <c r="R32" s="18" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="S32" s="18" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="T32" s="18" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="U32" s="18">
         <v>27</v>
@@ -6850,19 +6804,19 @@
         <v>2</v>
       </c>
       <c r="P33" s="18" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q33" s="18" t="s">
         <v>19</v>
       </c>
       <c r="R33" s="18" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="S33" s="18" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="T33" s="18" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="U33" s="18">
         <v>27</v>
@@ -6874,7 +6828,7 @@
         <v>16</v>
       </c>
       <c r="X33" s="18" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Y33" s="18">
         <v>2</v>
@@ -6887,7 +6841,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
@@ -6935,7 +6889,7 @@
         <v>104</v>
       </c>
       <c r="P36" s="14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -6957,53 +6911,53 @@
         <v>4</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Y37" s="3" t="s">
         <v>3</v>
@@ -7042,19 +6996,19 @@
         <v>1</v>
       </c>
       <c r="P38" s="18" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q38" s="18" t="s">
         <v>103</v>
       </c>
       <c r="R38" s="18" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="S38" s="18" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="T38" s="18" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="U38" s="18">
         <v>27</v>
@@ -7105,19 +7059,19 @@
         <v>2</v>
       </c>
       <c r="P39" s="18" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q39" s="18" t="s">
         <v>109</v>
       </c>
       <c r="R39" s="18" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="S39" s="18" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="T39" s="18" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="U39" s="18">
         <v>27</v>
@@ -7142,7 +7096,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -7188,7 +7142,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
@@ -7198,10 +7152,10 @@
       <c r="M42" s="15"/>
       <c r="N42" s="2"/>
       <c r="O42" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P42" s="14" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
@@ -7223,53 +7177,53 @@
         <v>4</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>3</v>
@@ -7308,19 +7262,19 @@
         <v>1</v>
       </c>
       <c r="P44" s="18" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="Q44" s="18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="R44" s="18" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="S44" s="18" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="T44" s="18" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="U44" s="18">
         <v>29</v>
@@ -7345,7 +7299,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
@@ -7375,7 +7329,7 @@
     </row>
     <row r="47" spans="7:25">
       <c r="G47" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -7384,10 +7338,10 @@
       <c r="L47" s="5"/>
       <c r="M47" s="17"/>
       <c r="O47" s="14" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P47" s="14" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
@@ -7404,52 +7358,52 @@
         <v>4</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>3</v>
@@ -7481,19 +7435,19 @@
         <v>1</v>
       </c>
       <c r="P49" s="18" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q49" s="18" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="R49" s="18" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="S49" s="18" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="T49" s="18" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="U49" s="18">
         <v>25</v>
@@ -7505,7 +7459,7 @@
         <v>69</v>
       </c>
       <c r="X49" s="18" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Y49" s="18">
         <v>1</v>
@@ -7537,19 +7491,19 @@
         <v>2</v>
       </c>
       <c r="P50" s="18" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q50" s="18" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="R50" s="18" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="S50" s="18" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="T50" s="18" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="U50" s="18">
         <v>26</v>
@@ -7593,19 +7547,19 @@
         <v>3</v>
       </c>
       <c r="P51" s="19" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q51" s="19" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="R51" s="19" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="S51" s="19" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="T51" s="19" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="U51" s="19">
         <v>26</v>
@@ -7617,7 +7571,7 @@
         <v>34</v>
       </c>
       <c r="X51" s="19" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Y51" s="18">
         <v>1</v>
@@ -7625,7 +7579,7 @@
     </row>
     <row r="52" spans="7:25">
       <c r="G52" s="9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
@@ -7640,19 +7594,19 @@
         <v>4</v>
       </c>
       <c r="P52" s="19" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q52" s="19" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="R52" s="19" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="S52" s="19" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="T52" s="19" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="U52" s="19">
         <v>28</v>
@@ -7675,19 +7629,19 @@
         <v>5</v>
       </c>
       <c r="P53" s="18" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q53" s="18" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="R53" s="18" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="S53" s="18" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="T53" s="18" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="U53" s="18">
         <v>30</v>

--- a/TablaG5.xlsx
+++ b/TablaG5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290">
   <si>
     <t>Tipo</t>
   </si>
@@ -363,7 +363,7 @@
     <t>190.168.20.66</t>
   </si>
   <si>
-    <t>10.10.10.9</t>
+    <t>10.10.10.19</t>
   </si>
   <si>
     <t>Servidores</t>
@@ -372,324 +372,327 @@
     <t>ATL</t>
   </si>
   <si>
+    <t>10.10.10.20</t>
+  </si>
+  <si>
+    <t>10.10.10.21</t>
+  </si>
+  <si>
+    <t>10.10.10.22</t>
+  </si>
+  <si>
+    <t>10.10.10.11</t>
+  </si>
+  <si>
     <t>10.10.10.12</t>
   </si>
   <si>
-    <t>10.10.10.11</t>
+    <t>10.10.10.13</t>
+  </si>
+  <si>
+    <t>192.160.1.1</t>
+  </si>
+  <si>
+    <t>Servidor</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>192.160.1.2</t>
+  </si>
+  <si>
+    <t>192.160.0.1</t>
+  </si>
+  <si>
+    <t>192.160.0.2</t>
+  </si>
+  <si>
+    <t>192.160.0.3</t>
+  </si>
+  <si>
+    <t>192.160.0.4</t>
+  </si>
+  <si>
+    <t>192.160.0.193</t>
+  </si>
+  <si>
+    <t>192.160.0.194</t>
+  </si>
+  <si>
+    <t>192.160.0.129</t>
+  </si>
+  <si>
+    <t>192.160.0.130</t>
+  </si>
+  <si>
+    <t>192.160.0.131</t>
+  </si>
+  <si>
+    <t>192.160.0.132</t>
+  </si>
+  <si>
+    <t>192.160.1.17</t>
+  </si>
+  <si>
+    <t>192.160.1.18</t>
+  </si>
+  <si>
+    <t>192.160.1.19</t>
+  </si>
+  <si>
+    <t>192.160.1.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red WAN </t>
+  </si>
+  <si>
+    <t>Seriales</t>
+  </si>
+  <si>
+    <t>Subneting Wan</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>192.188.1.0/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP Class </t>
+  </si>
+  <si>
+    <t>Segmento</t>
+  </si>
+  <si>
+    <t>Prefijo</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t># Subred</t>
+  </si>
+  <si>
+    <t>Dirección Red</t>
+  </si>
+  <si>
+    <t>Primera Dirección</t>
+  </si>
+  <si>
+    <t>Última dirección</t>
+  </si>
+  <si>
+    <t>Broadcast</t>
+  </si>
+  <si>
+    <t>Mascara</t>
+  </si>
+  <si>
+    <t>Disponibles</t>
+  </si>
+  <si>
+    <t>Utilizadas</t>
+  </si>
+  <si>
+    <t>Oficinas</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>192.188.1.0</t>
+  </si>
+  <si>
+    <t>192.188.1.1</t>
+  </si>
+  <si>
+    <t>192.188.1.2</t>
+  </si>
+  <si>
+    <t>192.188.1.3</t>
+  </si>
+  <si>
+    <t>255.255.255.252</t>
+  </si>
+  <si>
+    <t>192.188.1.4</t>
+  </si>
+  <si>
+    <t>192.188.1.5</t>
+  </si>
+  <si>
+    <t>192.188.1.6</t>
+  </si>
+  <si>
+    <t>192.188.1.7</t>
+  </si>
+  <si>
+    <t>192.188.1.8</t>
+  </si>
+  <si>
+    <t>192.188.1.9</t>
+  </si>
+  <si>
+    <t>192.188.1.10</t>
+  </si>
+  <si>
+    <t>192.188.1.11</t>
+  </si>
+  <si>
+    <t>192.188.1.12</t>
+  </si>
+  <si>
+    <t>192.188.1.13</t>
+  </si>
+  <si>
+    <t>192.188.1.14</t>
+  </si>
+  <si>
+    <t>192.188.1.15</t>
+  </si>
+  <si>
+    <t>192.188.1.16</t>
+  </si>
+  <si>
+    <t>192.188.1.17</t>
+  </si>
+  <si>
+    <t>192.188.1.18</t>
+  </si>
+  <si>
+    <t>192.188.1.19</t>
+  </si>
+  <si>
+    <t>192.188.1.20</t>
+  </si>
+  <si>
+    <t>192.188.1.21</t>
+  </si>
+  <si>
+    <t>192.188.1.22</t>
+  </si>
+  <si>
+    <t>192.188.1.23</t>
+  </si>
+  <si>
+    <t>192.188.1.24</t>
+  </si>
+  <si>
+    <t>192.188.1.25</t>
+  </si>
+  <si>
+    <t>192.188.1.26</t>
+  </si>
+  <si>
+    <t>192.188.1.27</t>
+  </si>
+  <si>
+    <t>192.188.1.28</t>
+  </si>
+  <si>
+    <t>192.188.1.29</t>
+  </si>
+  <si>
+    <t>192.188.1.30</t>
+  </si>
+  <si>
+    <t>192.188.1.31</t>
+  </si>
+  <si>
+    <t>Red LAN</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>Subneting LAN</t>
+  </si>
+  <si>
+    <t>IP Class</t>
+  </si>
+  <si>
+    <t>220.10.0.0/24</t>
+  </si>
+  <si>
+    <t>220.10.0.0</t>
+  </si>
+  <si>
+    <t>Piso</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Printers</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Primera dirección</t>
+  </si>
+  <si>
+    <t>Ulizadas</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>192.122.10.0</t>
+  </si>
+  <si>
+    <t>220.10.0.126</t>
+  </si>
+  <si>
+    <t>220.10.0.127</t>
+  </si>
+  <si>
+    <t>255.255.255.128</t>
+  </si>
+  <si>
+    <t>200.10.0.0</t>
+  </si>
+  <si>
+    <t>220.10.0.128</t>
+  </si>
+  <si>
+    <t>220.10.0.190</t>
+  </si>
+  <si>
+    <t>220.10.0.191</t>
+  </si>
+  <si>
+    <t>255.255.255.192</t>
+  </si>
+  <si>
+    <t>190.168.20.0</t>
+  </si>
+  <si>
+    <t>220.10.0.192</t>
+  </si>
+  <si>
+    <t>220.10.0.254</t>
+  </si>
+  <si>
+    <t>220.10.0.255</t>
+  </si>
+  <si>
+    <t>190.168.30.0</t>
+  </si>
+  <si>
+    <t>190.168.40.0</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>10.10.10.10</t>
   </si>
   <si>
-    <t>10.10.10.1</t>
-  </si>
-  <si>
-    <t>10.10.10.3</t>
-  </si>
-  <si>
-    <t>10.10.10.2</t>
-  </si>
-  <si>
-    <t>192.160.1.1</t>
-  </si>
-  <si>
-    <t>Servidor</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>192.160.1.2</t>
-  </si>
-  <si>
-    <t>192.160.0.1</t>
-  </si>
-  <si>
-    <t>192.160.0.2</t>
-  </si>
-  <si>
-    <t>192.160.0.3</t>
-  </si>
-  <si>
-    <t>192.160.0.4</t>
-  </si>
-  <si>
-    <t>192.160.0.193</t>
-  </si>
-  <si>
-    <t>192.160.0.194</t>
-  </si>
-  <si>
-    <t>192.160.0.129</t>
-  </si>
-  <si>
-    <t>192.160.0.130</t>
-  </si>
-  <si>
-    <t>192.160.0.131</t>
-  </si>
-  <si>
-    <t>192.160.0.132</t>
-  </si>
-  <si>
-    <t>192.160.1.17</t>
-  </si>
-  <si>
-    <t>192.160.1.18</t>
-  </si>
-  <si>
-    <t>192.160.1.19</t>
-  </si>
-  <si>
-    <t>192.160.1.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red WAN </t>
-  </si>
-  <si>
-    <t>Seriales</t>
-  </si>
-  <si>
-    <t>Subneting Wan</t>
-  </si>
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
-    <t>192.188.1.0/24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP Class </t>
-  </si>
-  <si>
-    <t>Segmento</t>
-  </si>
-  <si>
-    <t>Prefijo</t>
-  </si>
-  <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
-    <t># Subred</t>
-  </si>
-  <si>
-    <t>Dirección Red</t>
-  </si>
-  <si>
-    <t>Primera Dirección</t>
-  </si>
-  <si>
-    <t>Última dirección</t>
-  </si>
-  <si>
-    <t>Broadcast</t>
-  </si>
-  <si>
-    <t>Mascara</t>
-  </si>
-  <si>
-    <t>Disponibles</t>
-  </si>
-  <si>
-    <t>Utilizadas</t>
-  </si>
-  <si>
-    <t>Oficinas</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>192.188.1.0</t>
-  </si>
-  <si>
-    <t>192.188.1.1</t>
-  </si>
-  <si>
-    <t>192.188.1.2</t>
-  </si>
-  <si>
-    <t>192.188.1.3</t>
-  </si>
-  <si>
-    <t>255.255.255.252</t>
-  </si>
-  <si>
-    <t>192.188.1.4</t>
-  </si>
-  <si>
-    <t>192.188.1.5</t>
-  </si>
-  <si>
-    <t>192.188.1.6</t>
-  </si>
-  <si>
-    <t>192.188.1.7</t>
-  </si>
-  <si>
-    <t>192.188.1.8</t>
-  </si>
-  <si>
-    <t>192.188.1.9</t>
-  </si>
-  <si>
-    <t>192.188.1.10</t>
-  </si>
-  <si>
-    <t>192.188.1.11</t>
-  </si>
-  <si>
-    <t>192.188.1.12</t>
-  </si>
-  <si>
-    <t>192.188.1.13</t>
-  </si>
-  <si>
-    <t>192.188.1.14</t>
-  </si>
-  <si>
-    <t>192.188.1.15</t>
-  </si>
-  <si>
-    <t>192.188.1.16</t>
-  </si>
-  <si>
-    <t>192.188.1.17</t>
-  </si>
-  <si>
-    <t>192.188.1.18</t>
-  </si>
-  <si>
-    <t>192.188.1.19</t>
-  </si>
-  <si>
-    <t>192.188.1.20</t>
-  </si>
-  <si>
-    <t>192.188.1.21</t>
-  </si>
-  <si>
-    <t>192.188.1.22</t>
-  </si>
-  <si>
-    <t>192.188.1.23</t>
-  </si>
-  <si>
-    <t>192.188.1.24</t>
-  </si>
-  <si>
-    <t>192.188.1.25</t>
-  </si>
-  <si>
-    <t>192.188.1.26</t>
-  </si>
-  <si>
-    <t>192.188.1.27</t>
-  </si>
-  <si>
-    <t>192.188.1.28</t>
-  </si>
-  <si>
-    <t>192.188.1.29</t>
-  </si>
-  <si>
-    <t>192.188.1.30</t>
-  </si>
-  <si>
-    <t>192.188.1.31</t>
-  </si>
-  <si>
-    <t>Red LAN</t>
-  </si>
-  <si>
-    <t>Host</t>
-  </si>
-  <si>
-    <t>Subneting LAN</t>
-  </si>
-  <si>
-    <t>IP Class</t>
-  </si>
-  <si>
-    <t>220.10.0.0/24</t>
-  </si>
-  <si>
-    <t>220.10.0.0</t>
-  </si>
-  <si>
-    <t>Piso</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Video</t>
-  </si>
-  <si>
-    <t>Printers</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Primera dirección</t>
-  </si>
-  <si>
-    <t>Ulizadas</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>192.122.10.0</t>
-  </si>
-  <si>
-    <t>220.10.0.126</t>
-  </si>
-  <si>
-    <t>220.10.0.127</t>
-  </si>
-  <si>
-    <t>255.255.255.128</t>
-  </si>
-  <si>
-    <t>200.10.0.0</t>
-  </si>
-  <si>
-    <t>220.10.0.128</t>
-  </si>
-  <si>
-    <t>220.10.0.190</t>
-  </si>
-  <si>
-    <t>220.10.0.191</t>
-  </si>
-  <si>
-    <t>255.255.255.192</t>
-  </si>
-  <si>
-    <t>190.168.20.0</t>
-  </si>
-  <si>
-    <t>220.10.0.192</t>
-  </si>
-  <si>
-    <t>220.10.0.254</t>
-  </si>
-  <si>
-    <t>220.10.0.255</t>
-  </si>
-  <si>
-    <t>190.168.30.0</t>
-  </si>
-  <si>
-    <t>190.168.40.0</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>192.122.10.0/24</t>
   </si>
   <si>
@@ -832,6 +835,15 @@
   </si>
   <si>
     <t>255.255.255.248</t>
+  </si>
+  <si>
+    <t>10.10.10.18</t>
+  </si>
+  <si>
+    <t>10.10.10.24</t>
+  </si>
+  <si>
+    <t>10.10.10.25</t>
   </si>
   <si>
     <t>192.160.0.0/24</t>
@@ -2059,8 +2071,8 @@
   <sheetPr/>
   <dimension ref="B3:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2247,7 +2259,9 @@
       <c r="D10" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="27"/>
+      <c r="E10" s="27">
+        <v>2</v>
+      </c>
       <c r="F10" s="27">
         <v>1</v>
       </c>
@@ -2268,7 +2282,9 @@
       <c r="D11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="27">
+        <v>2</v>
+      </c>
       <c r="F11" s="27">
         <v>1</v>
       </c>
@@ -2289,7 +2305,9 @@
       <c r="D12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="27">
+        <v>2</v>
+      </c>
       <c r="F12" s="27">
         <v>1</v>
       </c>
@@ -5253,8 +5271,8 @@
   <sheetPr/>
   <dimension ref="B2:Y53"/>
   <sheetViews>
-    <sheetView topLeftCell="D26" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="I28" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5704,7 +5722,7 @@
         <v>223</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>120</v>
+        <v>224</v>
       </c>
       <c r="E10" s="6">
         <v>8</v>
@@ -5724,7 +5742,7 @@
         <v>72</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -5744,7 +5762,7 @@
         <v>160</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E11" s="6">
         <v>24</v>
@@ -5845,10 +5863,10 @@
         <v>70</v>
       </c>
       <c r="R12" s="18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S12" s="18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="T12" s="18" t="s">
         <v>216</v>
@@ -5863,7 +5881,7 @@
         <v>34</v>
       </c>
       <c r="X12" s="18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y12" s="18">
         <v>1</v>
@@ -5902,19 +5920,19 @@
         <v>2</v>
       </c>
       <c r="P13" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q13" s="18" t="s">
         <v>76</v>
       </c>
       <c r="R13" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="S13" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T13" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U13" s="18">
         <v>27</v>
@@ -5945,7 +5963,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J14" s="19">
         <v>10</v>
@@ -5965,19 +5983,19 @@
         <v>3</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="18" t="s">
         <v>84</v>
       </c>
       <c r="R14" s="18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S14" s="18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="T14" s="18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="U14" s="18">
         <v>28</v>
@@ -5989,7 +6007,7 @@
         <v>12</v>
       </c>
       <c r="X14" s="18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Y14" s="18">
         <v>1</v>
@@ -6028,19 +6046,19 @@
         <v>4</v>
       </c>
       <c r="P15" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q15" s="18" t="s">
         <v>80</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="T15" s="18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="U15" s="18">
         <v>28</v>
@@ -6052,7 +6070,7 @@
         <v>10</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y15" s="18">
         <v>2</v>
@@ -6124,7 +6142,7 @@
         <v>36</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -6231,19 +6249,19 @@
         <v>1</v>
       </c>
       <c r="P20" s="18" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q20" s="18" t="s">
         <v>35</v>
       </c>
       <c r="R20" s="18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="S20" s="18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="T20" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U20" s="18">
         <v>27</v>
@@ -6294,19 +6312,19 @@
         <v>2</v>
       </c>
       <c r="P21" s="18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q21" s="18" t="s">
         <v>42</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="S21" s="18" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U21" s="18">
         <v>27</v>
@@ -6318,7 +6336,7 @@
         <v>16</v>
       </c>
       <c r="X21" s="18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Y21" s="18">
         <v>2</v>
@@ -6379,7 +6397,7 @@
         <v>90</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -6492,10 +6510,10 @@
         <v>89</v>
       </c>
       <c r="R26" s="18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S26" s="18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="T26" s="18" t="s">
         <v>211</v>
@@ -6549,16 +6567,16 @@
         <v>2</v>
       </c>
       <c r="P27" s="18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q27" s="18" t="s">
         <v>96</v>
       </c>
       <c r="R27" s="18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="S27" s="18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="T27" s="18" t="s">
         <v>216</v>
@@ -6634,7 +6652,7 @@
         <v>10</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -6747,13 +6765,13 @@
         <v>8</v>
       </c>
       <c r="R32" s="18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="S32" s="18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="T32" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U32" s="18">
         <v>27</v>
@@ -6804,19 +6822,19 @@
         <v>2</v>
       </c>
       <c r="P33" s="18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q33" s="18" t="s">
         <v>19</v>
       </c>
       <c r="R33" s="18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S33" s="18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="T33" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U33" s="18">
         <v>27</v>
@@ -6828,7 +6846,7 @@
         <v>16</v>
       </c>
       <c r="X33" s="18" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y33" s="18">
         <v>2</v>
@@ -6889,7 +6907,7 @@
         <v>104</v>
       </c>
       <c r="P36" s="14" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -7002,13 +7020,13 @@
         <v>103</v>
       </c>
       <c r="R38" s="18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="S38" s="18" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="T38" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U38" s="18">
         <v>27</v>
@@ -7059,19 +7077,19 @@
         <v>2</v>
       </c>
       <c r="P39" s="18" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q39" s="18" t="s">
         <v>109</v>
       </c>
       <c r="R39" s="18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S39" s="18" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="T39" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U39" s="18">
         <v>27</v>
@@ -7155,7 +7173,7 @@
         <v>117</v>
       </c>
       <c r="P42" s="14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
@@ -7262,19 +7280,19 @@
         <v>1</v>
       </c>
       <c r="P44" s="18" t="s">
-        <v>120</v>
+        <v>224</v>
       </c>
       <c r="Q44" s="18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R44" s="18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S44" s="18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="T44" s="18" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="U44" s="18">
         <v>29</v>
@@ -7292,7 +7310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -7311,6 +7329,39 @@
         <v>4</v>
       </c>
       <c r="N45" s="2"/>
+      <c r="O45" s="18">
+        <v>2</v>
+      </c>
+      <c r="P45" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q45" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="R45" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="S45" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="T45" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="U45" s="18">
+        <v>29</v>
+      </c>
+      <c r="V45" s="18">
+        <v>6</v>
+      </c>
+      <c r="W45" s="18">
+        <v>4</v>
+      </c>
+      <c r="X45" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y45" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="2:14">
       <c r="B46" s="2"/>
@@ -7341,7 +7392,7 @@
         <v>126</v>
       </c>
       <c r="P47" s="14" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
@@ -7435,16 +7486,16 @@
         <v>1</v>
       </c>
       <c r="P49" s="18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q49" s="18" t="s">
         <v>128</v>
       </c>
       <c r="R49" s="18" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="S49" s="18" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="T49" s="18" t="s">
         <v>211</v>
@@ -7459,7 +7510,7 @@
         <v>69</v>
       </c>
       <c r="X49" s="18" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Y49" s="18">
         <v>1</v>
@@ -7491,16 +7542,16 @@
         <v>2</v>
       </c>
       <c r="P50" s="18" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q50" s="18" t="s">
         <v>134</v>
       </c>
       <c r="R50" s="18" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="S50" s="18" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="T50" s="18" t="s">
         <v>216</v>
@@ -7547,16 +7598,16 @@
         <v>3</v>
       </c>
       <c r="P51" s="19" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q51" s="19" t="s">
         <v>132</v>
       </c>
       <c r="R51" s="19" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="S51" s="19" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="T51" s="19" t="s">
         <v>216</v>
@@ -7571,7 +7622,7 @@
         <v>34</v>
       </c>
       <c r="X51" s="19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Y51" s="18">
         <v>1</v>
@@ -7594,19 +7645,19 @@
         <v>4</v>
       </c>
       <c r="P52" s="19" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q52" s="19" t="s">
         <v>124</v>
       </c>
       <c r="R52" s="19" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="S52" s="19" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="T52" s="19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="U52" s="19">
         <v>28</v>
@@ -7629,7 +7680,7 @@
         <v>5</v>
       </c>
       <c r="P53" s="18" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q53" s="18" t="s">
         <v>138</v>

--- a/TablaG5.xlsx
+++ b/TablaG5.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ariel\Documents\GitHub\Proyecto-Redes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dispositivos" sheetId="1" r:id="rId1"/>
     <sheet name="WAN" sheetId="2" r:id="rId2"/>
     <sheet name="LAN" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="291">
   <si>
     <t>Tipo</t>
   </si>
@@ -750,24 +755,6 @@
     <t>190.168.30.0/24</t>
   </si>
   <si>
-    <t>192.168.30.0</t>
-  </si>
-  <si>
-    <t>192.168.30.30</t>
-  </si>
-  <si>
-    <t>192.168.30.31</t>
-  </si>
-  <si>
-    <t>192.168.30.32</t>
-  </si>
-  <si>
-    <t>192.168.30.62</t>
-  </si>
-  <si>
-    <t>192.168.30.63</t>
-  </si>
-  <si>
     <t>200.10.0.0/24</t>
   </si>
   <si>
@@ -886,19 +873,34 @@
   </si>
   <si>
     <t>192.160.1.16</t>
+  </si>
+  <si>
+    <t>190.168.30.32</t>
+  </si>
+  <si>
+    <t>190.168.30.1</t>
+  </si>
+  <si>
+    <t>190.168.30.33</t>
+  </si>
+  <si>
+    <t>190.168.30.30</t>
+  </si>
+  <si>
+    <t>190.168.30.62</t>
+  </si>
+  <si>
+    <t>190.168.30.31</t>
+  </si>
+  <si>
+    <t>190.168.30.63</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -944,144 +946,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1108,7 +974,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,140 +1020,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1434,236 +1168,27 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="26" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1675,12 +1200,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1690,25 +1209,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="21" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="21" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="21" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1720,92 +1227,86 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="21" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="9">
+    <cellStyle name="Cálculo" xfId="2" builtinId="22"/>
+    <cellStyle name="Énfasis1" xfId="3" builtinId="29"/>
+    <cellStyle name="Énfasis2" xfId="4" builtinId="33"/>
+    <cellStyle name="Énfasis3" xfId="5" builtinId="37"/>
+    <cellStyle name="Énfasis4" xfId="6" builtinId="41"/>
+    <cellStyle name="Énfasis5" xfId="7" builtinId="45"/>
+    <cellStyle name="Énfasis6" xfId="8" builtinId="49"/>
+    <cellStyle name="Entrada" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2063,2681 +1564,2679 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.6" customWidth="1"/>
-    <col min="3" max="3" width="15.952380952381" customWidth="1"/>
-    <col min="4" max="4" width="14.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="10.9142857142857" customWidth="1"/>
-    <col min="10" max="10" width="11.8571428571429" customWidth="1"/>
-    <col min="11" max="11" width="24.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="15.5714285714286" customWidth="1"/>
-    <col min="15" max="15" width="15.2857142857143" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="26" t="s">
+      <c r="C3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="27">
-        <v>1</v>
-      </c>
-      <c r="F4" s="27">
-        <v>1</v>
-      </c>
-      <c r="G4" s="27" t="s">
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18">
+        <v>1</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="27">
-        <v>1</v>
-      </c>
-      <c r="F5" s="27">
-        <v>1</v>
-      </c>
-      <c r="G5" s="27" t="s">
+      <c r="E5" s="18">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="27">
-        <v>1</v>
-      </c>
-      <c r="F6" s="27">
-        <v>1</v>
-      </c>
-      <c r="G6" s="27" t="s">
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="27">
-        <v>1</v>
-      </c>
-      <c r="F7" s="27">
-        <v>1</v>
-      </c>
-      <c r="G7" s="27" t="s">
+      <c r="E7" s="18">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="27">
-        <v>1</v>
-      </c>
-      <c r="F8" s="27">
-        <v>1</v>
-      </c>
-      <c r="G8" s="27" t="s">
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="27">
-        <v>2</v>
-      </c>
-      <c r="F9" s="27">
-        <v>1</v>
-      </c>
-      <c r="G9" s="27" t="s">
+      <c r="E9" s="18">
+        <v>2</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="27">
-        <v>2</v>
-      </c>
-      <c r="F10" s="27">
-        <v>1</v>
-      </c>
-      <c r="G10" s="27" t="s">
+      <c r="E10" s="18">
+        <v>2</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="27">
-        <v>2</v>
-      </c>
-      <c r="F11" s="27">
-        <v>1</v>
-      </c>
-      <c r="G11" s="27" t="s">
+      <c r="E11" s="18">
+        <v>2</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="27">
-        <v>2</v>
-      </c>
-      <c r="F12" s="27">
-        <v>1</v>
-      </c>
-      <c r="G12" s="27" t="s">
+      <c r="E12" s="18">
+        <v>2</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="27">
-        <v>2</v>
-      </c>
-      <c r="F13" s="27">
-        <v>1</v>
-      </c>
-      <c r="G13" s="27" t="s">
+      <c r="E13" s="18">
+        <v>2</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="27">
-        <v>2</v>
-      </c>
-      <c r="F14" s="27">
-        <v>1</v>
-      </c>
-      <c r="G14" s="27" t="s">
+      <c r="E14" s="18">
+        <v>2</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="27">
-        <v>2</v>
-      </c>
-      <c r="F15" s="27">
-        <v>1</v>
-      </c>
-      <c r="G15" s="27" t="s">
+      <c r="E15" s="18">
+        <v>2</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="27">
-        <v>2</v>
-      </c>
-      <c r="F16" s="27">
-        <v>1</v>
-      </c>
-      <c r="G16" s="27" t="s">
+      <c r="E16" s="18">
+        <v>2</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="27">
-        <v>2</v>
-      </c>
-      <c r="F17" s="27">
-        <v>1</v>
-      </c>
-      <c r="G17" s="27" t="s">
+      <c r="E17" s="18">
+        <v>2</v>
+      </c>
+      <c r="F17" s="18">
+        <v>1</v>
+      </c>
+      <c r="G17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="27">
-        <v>2</v>
-      </c>
-      <c r="F18" s="27">
-        <v>1</v>
-      </c>
-      <c r="G18" s="27" t="s">
+      <c r="E18" s="18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="27">
-        <v>2</v>
-      </c>
-      <c r="F19" s="27">
-        <v>1</v>
-      </c>
-      <c r="G19" s="27" t="s">
+      <c r="E19" s="18">
+        <v>2</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="28">
-        <v>1</v>
-      </c>
-      <c r="F20" s="28">
-        <v>1</v>
-      </c>
-      <c r="G20" s="28" t="s">
+      <c r="E20" s="19">
+        <v>1</v>
+      </c>
+      <c r="F20" s="19">
+        <v>1</v>
+      </c>
+      <c r="G20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="28">
-        <v>1</v>
-      </c>
-      <c r="F21" s="28">
-        <v>1</v>
-      </c>
-      <c r="G21" s="28" t="s">
+      <c r="E21" s="19">
+        <v>1</v>
+      </c>
+      <c r="F21" s="19">
+        <v>1</v>
+      </c>
+      <c r="G21" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="28">
-        <v>1</v>
-      </c>
-      <c r="F22" s="28">
-        <v>1</v>
-      </c>
-      <c r="G22" s="28" t="s">
+      <c r="E22" s="19">
+        <v>1</v>
+      </c>
+      <c r="F22" s="19">
+        <v>1</v>
+      </c>
+      <c r="G22" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="H22" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="28">
-        <v>1</v>
-      </c>
-      <c r="F23" s="28">
-        <v>1</v>
-      </c>
-      <c r="G23" s="28" t="s">
+      <c r="E23" s="19">
+        <v>1</v>
+      </c>
+      <c r="F23" s="19">
+        <v>1</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="H23" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="28">
-        <v>1</v>
-      </c>
-      <c r="F24" s="28">
-        <v>1</v>
-      </c>
-      <c r="G24" s="28" t="s">
+      <c r="E24" s="19">
+        <v>1</v>
+      </c>
+      <c r="F24" s="19">
+        <v>1</v>
+      </c>
+      <c r="G24" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="28" t="s">
+      <c r="H24" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="28">
-        <v>2</v>
-      </c>
-      <c r="F25" s="28">
-        <v>1</v>
-      </c>
-      <c r="G25" s="28" t="s">
+      <c r="E25" s="19">
+        <v>2</v>
+      </c>
+      <c r="F25" s="19">
+        <v>1</v>
+      </c>
+      <c r="G25" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="H25" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="28">
-        <v>2</v>
-      </c>
-      <c r="F26" s="28">
-        <v>1</v>
-      </c>
-      <c r="G26" s="28" t="s">
+      <c r="E26" s="19">
+        <v>2</v>
+      </c>
+      <c r="F26" s="19">
+        <v>1</v>
+      </c>
+      <c r="G26" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="28" t="s">
+      <c r="H26" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="28">
-        <v>2</v>
-      </c>
-      <c r="F27" s="28">
-        <v>1</v>
-      </c>
-      <c r="G27" s="28" t="s">
+      <c r="E27" s="19">
+        <v>2</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1</v>
+      </c>
+      <c r="G27" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="28" t="s">
+      <c r="H27" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="28">
-        <v>2</v>
-      </c>
-      <c r="F28" s="28">
-        <v>1</v>
-      </c>
-      <c r="G28" s="28" t="s">
+      <c r="E28" s="19">
+        <v>2</v>
+      </c>
+      <c r="F28" s="19">
+        <v>1</v>
+      </c>
+      <c r="G28" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="28" t="s">
+      <c r="H28" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="28">
-        <v>2</v>
-      </c>
-      <c r="F29" s="28">
-        <v>1</v>
-      </c>
-      <c r="G29" s="28" t="s">
+      <c r="E29" s="19">
+        <v>2</v>
+      </c>
+      <c r="F29" s="19">
+        <v>1</v>
+      </c>
+      <c r="G29" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="28">
-        <v>2</v>
-      </c>
-      <c r="F30" s="28">
-        <v>1</v>
-      </c>
-      <c r="G30" s="28" t="s">
+      <c r="E30" s="19">
+        <v>2</v>
+      </c>
+      <c r="F30" s="19">
+        <v>1</v>
+      </c>
+      <c r="G30" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="28">
-        <v>2</v>
-      </c>
-      <c r="F31" s="28">
-        <v>1</v>
-      </c>
-      <c r="G31" s="28" t="s">
+      <c r="E31" s="19">
+        <v>2</v>
+      </c>
+      <c r="F31" s="19">
+        <v>1</v>
+      </c>
+      <c r="G31" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="H31" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="28">
-        <v>2</v>
-      </c>
-      <c r="F32" s="28">
-        <v>1</v>
-      </c>
-      <c r="G32" s="28" t="s">
+      <c r="E32" s="19">
+        <v>2</v>
+      </c>
+      <c r="F32" s="19">
+        <v>1</v>
+      </c>
+      <c r="G32" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="28" t="s">
+      <c r="H32" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="28">
-        <v>2</v>
-      </c>
-      <c r="F33" s="28">
-        <v>1</v>
-      </c>
-      <c r="G33" s="28" t="s">
+      <c r="E33" s="19">
+        <v>2</v>
+      </c>
+      <c r="F33" s="19">
+        <v>1</v>
+      </c>
+      <c r="G33" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H33" s="28" t="s">
+      <c r="H33" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="28">
-        <v>2</v>
-      </c>
-      <c r="F34" s="28">
-        <v>1</v>
-      </c>
-      <c r="G34" s="28" t="s">
+      <c r="E34" s="19">
+        <v>2</v>
+      </c>
+      <c r="F34" s="19">
+        <v>1</v>
+      </c>
+      <c r="G34" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="28" t="s">
+      <c r="H34" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="28">
-        <v>2</v>
-      </c>
-      <c r="F35" s="28">
-        <v>1</v>
-      </c>
-      <c r="G35" s="28" t="s">
+      <c r="E35" s="19">
+        <v>2</v>
+      </c>
+      <c r="F35" s="19">
+        <v>1</v>
+      </c>
+      <c r="G35" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H35" s="28" t="s">
+      <c r="H35" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="29">
-        <v>1</v>
-      </c>
-      <c r="F36" s="29">
-        <v>2</v>
-      </c>
-      <c r="G36" s="29" t="s">
+      <c r="E36" s="20">
+        <v>1</v>
+      </c>
+      <c r="F36" s="20">
+        <v>2</v>
+      </c>
+      <c r="G36" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H36" s="29" t="s">
+      <c r="H36" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="29">
-        <v>1</v>
-      </c>
-      <c r="F37" s="29">
-        <v>2</v>
-      </c>
-      <c r="G37" s="29" t="s">
+      <c r="E37" s="20">
+        <v>1</v>
+      </c>
+      <c r="F37" s="20">
+        <v>2</v>
+      </c>
+      <c r="G37" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="29" t="s">
+      <c r="H37" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="29">
-        <v>1</v>
-      </c>
-      <c r="F38" s="29">
-        <v>2</v>
-      </c>
-      <c r="G38" s="29" t="s">
+      <c r="E38" s="20">
+        <v>1</v>
+      </c>
+      <c r="F38" s="20">
+        <v>2</v>
+      </c>
+      <c r="G38" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H38" s="29" t="s">
+      <c r="H38" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="29">
-        <v>1</v>
-      </c>
-      <c r="F39" s="29">
-        <v>2</v>
-      </c>
-      <c r="G39" s="29" t="s">
+      <c r="E39" s="20">
+        <v>1</v>
+      </c>
+      <c r="F39" s="20">
+        <v>2</v>
+      </c>
+      <c r="G39" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H39" s="29" t="s">
+      <c r="H39" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="29">
-        <v>1</v>
-      </c>
-      <c r="F40" s="29">
-        <v>1</v>
-      </c>
-      <c r="G40" s="29" t="s">
+      <c r="E40" s="20">
+        <v>1</v>
+      </c>
+      <c r="F40" s="20">
+        <v>1</v>
+      </c>
+      <c r="G40" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H40" s="29" t="s">
+      <c r="H40" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="29">
-        <v>1</v>
-      </c>
-      <c r="F41" s="29">
-        <v>1</v>
-      </c>
-      <c r="G41" s="29" t="s">
+      <c r="E41" s="20">
+        <v>1</v>
+      </c>
+      <c r="F41" s="20">
+        <v>1</v>
+      </c>
+      <c r="G41" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H41" s="29" t="s">
+      <c r="H41" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="29">
-        <v>1</v>
-      </c>
-      <c r="F42" s="29">
-        <v>1</v>
-      </c>
-      <c r="G42" s="29" t="s">
+      <c r="E42" s="20">
+        <v>1</v>
+      </c>
+      <c r="F42" s="20">
+        <v>1</v>
+      </c>
+      <c r="G42" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H42" s="29" t="s">
+      <c r="H42" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="29">
-        <v>1</v>
-      </c>
-      <c r="F43" s="29">
-        <v>1</v>
-      </c>
-      <c r="G43" s="29" t="s">
+      <c r="E43" s="20">
+        <v>1</v>
+      </c>
+      <c r="F43" s="20">
+        <v>1</v>
+      </c>
+      <c r="G43" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H43" s="29" t="s">
+      <c r="H43" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="29">
-        <v>1</v>
-      </c>
-      <c r="F44" s="29">
-        <v>1</v>
-      </c>
-      <c r="G44" s="29" t="s">
+      <c r="E44" s="20">
+        <v>1</v>
+      </c>
+      <c r="F44" s="20">
+        <v>1</v>
+      </c>
+      <c r="G44" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H44" s="29" t="s">
+      <c r="H44" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="29">
-        <v>1</v>
-      </c>
-      <c r="F45" s="29">
-        <v>1</v>
-      </c>
-      <c r="G45" s="29" t="s">
+      <c r="E45" s="20">
+        <v>1</v>
+      </c>
+      <c r="F45" s="20">
+        <v>1</v>
+      </c>
+      <c r="G45" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H45" s="29" t="s">
+      <c r="H45" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="29">
-        <v>2</v>
-      </c>
-      <c r="F46" s="29">
-        <v>1</v>
-      </c>
-      <c r="G46" s="29" t="s">
+      <c r="E46" s="20">
+        <v>2</v>
+      </c>
+      <c r="F46" s="20">
+        <v>1</v>
+      </c>
+      <c r="G46" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H46" s="29" t="s">
+      <c r="H46" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="29">
-        <v>2</v>
-      </c>
-      <c r="F47" s="29">
-        <v>1</v>
-      </c>
-      <c r="G47" s="29" t="s">
+      <c r="E47" s="20">
+        <v>2</v>
+      </c>
+      <c r="F47" s="20">
+        <v>1</v>
+      </c>
+      <c r="G47" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H47" s="29" t="s">
+      <c r="H47" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="29">
-        <v>2</v>
-      </c>
-      <c r="F48" s="29">
-        <v>1</v>
-      </c>
-      <c r="G48" s="29" t="s">
+      <c r="E48" s="20">
+        <v>2</v>
+      </c>
+      <c r="F48" s="20">
+        <v>1</v>
+      </c>
+      <c r="G48" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H48" s="29" t="s">
+      <c r="H48" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E49" s="29">
-        <v>2</v>
-      </c>
-      <c r="F49" s="29">
-        <v>1</v>
-      </c>
-      <c r="G49" s="29" t="s">
+      <c r="E49" s="20">
+        <v>2</v>
+      </c>
+      <c r="F49" s="20">
+        <v>1</v>
+      </c>
+      <c r="G49" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H49" s="29" t="s">
+      <c r="H49" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="31">
-        <v>1</v>
-      </c>
-      <c r="F50" s="31">
-        <v>1</v>
-      </c>
-      <c r="G50" s="31" t="s">
+      <c r="E50" s="22">
+        <v>1</v>
+      </c>
+      <c r="F50" s="22">
+        <v>1</v>
+      </c>
+      <c r="G50" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H50" s="31" t="s">
+      <c r="H50" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="51" spans="2:8">
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E51" s="31">
-        <v>1</v>
-      </c>
-      <c r="F51" s="31">
-        <v>1</v>
-      </c>
-      <c r="G51" s="31" t="s">
+      <c r="E51" s="22">
+        <v>1</v>
+      </c>
+      <c r="F51" s="22">
+        <v>1</v>
+      </c>
+      <c r="G51" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H51" s="31" t="s">
+      <c r="H51" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E52" s="31">
-        <v>1</v>
-      </c>
-      <c r="F52" s="31">
-        <v>1</v>
-      </c>
-      <c r="G52" s="31" t="s">
+      <c r="E52" s="22">
+        <v>1</v>
+      </c>
+      <c r="F52" s="22">
+        <v>1</v>
+      </c>
+      <c r="G52" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H52" s="31" t="s">
+      <c r="H52" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E53" s="31">
-        <v>1</v>
-      </c>
-      <c r="F53" s="31">
-        <v>1</v>
-      </c>
-      <c r="G53" s="31" t="s">
+      <c r="E53" s="22">
+        <v>1</v>
+      </c>
+      <c r="F53" s="22">
+        <v>1</v>
+      </c>
+      <c r="G53" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H53" s="31" t="s">
+      <c r="H53" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="54" spans="2:8">
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E54" s="31">
-        <v>1</v>
-      </c>
-      <c r="F54" s="31">
-        <v>1</v>
-      </c>
-      <c r="G54" s="31" t="s">
+      <c r="E54" s="22">
+        <v>1</v>
+      </c>
+      <c r="F54" s="22">
+        <v>1</v>
+      </c>
+      <c r="G54" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H54" s="31" t="s">
+      <c r="H54" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E55" s="31">
-        <v>1</v>
-      </c>
-      <c r="F55" s="31">
-        <v>2</v>
-      </c>
-      <c r="G55" s="31" t="s">
+      <c r="E55" s="22">
+        <v>1</v>
+      </c>
+      <c r="F55" s="22">
+        <v>2</v>
+      </c>
+      <c r="G55" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H55" s="31" t="s">
+      <c r="H55" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="56" spans="2:8">
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="31">
-        <v>1</v>
-      </c>
-      <c r="F56" s="31">
-        <v>2</v>
-      </c>
-      <c r="G56" s="31" t="s">
+      <c r="E56" s="22">
+        <v>1</v>
+      </c>
+      <c r="F56" s="22">
+        <v>2</v>
+      </c>
+      <c r="G56" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H56" s="31" t="s">
+      <c r="H56" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E57" s="31">
-        <v>1</v>
-      </c>
-      <c r="F57" s="31">
-        <v>2</v>
-      </c>
-      <c r="G57" s="31" t="s">
+      <c r="E57" s="22">
+        <v>1</v>
+      </c>
+      <c r="F57" s="22">
+        <v>2</v>
+      </c>
+      <c r="G57" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H57" s="31" t="s">
+      <c r="H57" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="2:8">
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E58" s="31">
-        <v>1</v>
-      </c>
-      <c r="F58" s="31">
-        <v>2</v>
-      </c>
-      <c r="G58" s="31" t="s">
+      <c r="E58" s="22">
+        <v>1</v>
+      </c>
+      <c r="F58" s="22">
+        <v>2</v>
+      </c>
+      <c r="G58" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H58" s="31" t="s">
+      <c r="H58" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="31">
-        <v>1</v>
-      </c>
-      <c r="F59" s="31">
-        <v>2</v>
-      </c>
-      <c r="G59" s="31" t="s">
+      <c r="E59" s="22">
+        <v>1</v>
+      </c>
+      <c r="F59" s="22">
+        <v>2</v>
+      </c>
+      <c r="G59" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H59" s="31" t="s">
+      <c r="H59" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E60" s="31">
-        <v>1</v>
-      </c>
-      <c r="F60" s="31">
-        <v>2</v>
-      </c>
-      <c r="G60" s="31" t="s">
+      <c r="E60" s="22">
+        <v>1</v>
+      </c>
+      <c r="F60" s="22">
+        <v>2</v>
+      </c>
+      <c r="G60" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H60" s="31" t="s">
+      <c r="H60" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="61" spans="2:8">
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E61" s="31">
-        <v>1</v>
-      </c>
-      <c r="F61" s="31">
-        <v>2</v>
-      </c>
-      <c r="G61" s="31" t="s">
+      <c r="E61" s="22">
+        <v>1</v>
+      </c>
+      <c r="F61" s="22">
+        <v>2</v>
+      </c>
+      <c r="G61" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H61" s="31" t="s">
+      <c r="H61" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E62" s="31">
-        <v>1</v>
-      </c>
-      <c r="F62" s="31">
-        <v>2</v>
-      </c>
-      <c r="G62" s="31" t="s">
+      <c r="E62" s="22">
+        <v>1</v>
+      </c>
+      <c r="F62" s="22">
+        <v>2</v>
+      </c>
+      <c r="G62" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H62" s="31" t="s">
+      <c r="H62" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="31" t="s">
+      <c r="D63" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="31">
-        <v>1</v>
-      </c>
-      <c r="F63" s="31">
-        <v>1</v>
-      </c>
-      <c r="G63" s="31" t="s">
+      <c r="E63" s="22">
+        <v>1</v>
+      </c>
+      <c r="F63" s="22">
+        <v>1</v>
+      </c>
+      <c r="G63" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H63" s="31" t="s">
+      <c r="H63" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="64" spans="2:8">
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="31" t="s">
+      <c r="D64" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="31">
-        <v>1</v>
-      </c>
-      <c r="F64" s="31">
-        <v>1</v>
-      </c>
-      <c r="G64" s="31" t="s">
+      <c r="E64" s="22">
+        <v>1</v>
+      </c>
+      <c r="F64" s="22">
+        <v>1</v>
+      </c>
+      <c r="G64" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H64" s="31" t="s">
+      <c r="H64" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D65" s="31" t="s">
+      <c r="D65" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E65" s="31">
-        <v>1</v>
-      </c>
-      <c r="F65" s="31">
-        <v>1</v>
-      </c>
-      <c r="G65" s="31" t="s">
+      <c r="E65" s="22">
+        <v>1</v>
+      </c>
+      <c r="F65" s="22">
+        <v>1</v>
+      </c>
+      <c r="G65" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H65" s="31" t="s">
+      <c r="H65" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="31" t="s">
+      <c r="C66" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="31" t="s">
+      <c r="D66" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E66" s="31">
-        <v>1</v>
-      </c>
-      <c r="F66" s="31">
-        <v>1</v>
-      </c>
-      <c r="G66" s="31" t="s">
+      <c r="E66" s="22">
+        <v>1</v>
+      </c>
+      <c r="F66" s="22">
+        <v>1</v>
+      </c>
+      <c r="G66" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H66" s="31" t="s">
+      <c r="H66" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D67" s="31" t="s">
+      <c r="D67" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E67" s="31">
-        <v>1</v>
-      </c>
-      <c r="F67" s="31">
-        <v>1</v>
-      </c>
-      <c r="G67" s="31" t="s">
+      <c r="E67" s="22">
+        <v>1</v>
+      </c>
+      <c r="F67" s="22">
+        <v>1</v>
+      </c>
+      <c r="G67" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H67" s="31" t="s">
+      <c r="H67" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="68" spans="2:8">
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C68" s="32" t="s">
+      <c r="C68" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D68" s="32" t="s">
+      <c r="D68" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="32">
-        <v>1</v>
-      </c>
-      <c r="F68" s="32">
-        <v>1</v>
-      </c>
-      <c r="G68" s="32" t="s">
+      <c r="E68" s="23">
+        <v>1</v>
+      </c>
+      <c r="F68" s="23">
+        <v>1</v>
+      </c>
+      <c r="G68" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="H68" s="32" t="s">
+      <c r="H68" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="32" t="s">
+      <c r="C69" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D69" s="32" t="s">
+      <c r="D69" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="32">
-        <v>1</v>
-      </c>
-      <c r="F69" s="32">
-        <v>1</v>
-      </c>
-      <c r="G69" s="32" t="s">
+      <c r="E69" s="23">
+        <v>1</v>
+      </c>
+      <c r="F69" s="23">
+        <v>1</v>
+      </c>
+      <c r="G69" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="H69" s="32" t="s">
+      <c r="H69" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="32" t="s">
+      <c r="C70" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D70" s="32" t="s">
+      <c r="D70" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E70" s="32">
-        <v>1</v>
-      </c>
-      <c r="F70" s="32">
-        <v>1</v>
-      </c>
-      <c r="G70" s="32" t="s">
+      <c r="E70" s="23">
+        <v>1</v>
+      </c>
+      <c r="F70" s="23">
+        <v>1</v>
+      </c>
+      <c r="G70" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="H70" s="32" t="s">
+      <c r="H70" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="32" t="s">
+      <c r="B71" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="32" t="s">
+      <c r="C71" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D71" s="32" t="s">
+      <c r="D71" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="32">
-        <v>1</v>
-      </c>
-      <c r="F71" s="32">
-        <v>1</v>
-      </c>
-      <c r="G71" s="32" t="s">
+      <c r="E71" s="23">
+        <v>1</v>
+      </c>
+      <c r="F71" s="23">
+        <v>1</v>
+      </c>
+      <c r="G71" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="H71" s="32" t="s">
+      <c r="H71" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="32" t="s">
+      <c r="C72" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D72" s="32" t="s">
+      <c r="D72" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E72" s="32">
-        <v>1</v>
-      </c>
-      <c r="F72" s="32">
-        <v>1</v>
-      </c>
-      <c r="G72" s="32" t="s">
+      <c r="E72" s="23">
+        <v>1</v>
+      </c>
+      <c r="F72" s="23">
+        <v>1</v>
+      </c>
+      <c r="G72" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="H72" s="32" t="s">
+      <c r="H72" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="32" t="s">
+      <c r="C73" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="32" t="s">
+      <c r="D73" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E73" s="32">
-        <v>2</v>
-      </c>
-      <c r="F73" s="32">
-        <v>1</v>
-      </c>
-      <c r="G73" s="32" t="s">
+      <c r="E73" s="23">
+        <v>2</v>
+      </c>
+      <c r="F73" s="23">
+        <v>1</v>
+      </c>
+      <c r="G73" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="H73" s="32" t="s">
+      <c r="H73" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="32" t="s">
+      <c r="C74" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="32" t="s">
+      <c r="D74" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E74" s="32">
-        <v>2</v>
-      </c>
-      <c r="F74" s="32">
-        <v>1</v>
-      </c>
-      <c r="G74" s="32" t="s">
+      <c r="E74" s="23">
+        <v>2</v>
+      </c>
+      <c r="F74" s="23">
+        <v>1</v>
+      </c>
+      <c r="G74" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="H74" s="32" t="s">
+      <c r="H74" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C75" s="32" t="s">
+      <c r="C75" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D75" s="32" t="s">
+      <c r="D75" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E75" s="32">
-        <v>2</v>
-      </c>
-      <c r="F75" s="32">
-        <v>1</v>
-      </c>
-      <c r="G75" s="32" t="s">
+      <c r="E75" s="23">
+        <v>2</v>
+      </c>
+      <c r="F75" s="23">
+        <v>1</v>
+      </c>
+      <c r="G75" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="H75" s="32" t="s">
+      <c r="H75" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C76" s="32" t="s">
+      <c r="C76" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D76" s="32" t="s">
+      <c r="D76" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E76" s="32">
-        <v>2</v>
-      </c>
-      <c r="F76" s="32">
-        <v>1</v>
-      </c>
-      <c r="G76" s="32" t="s">
+      <c r="E76" s="23">
+        <v>2</v>
+      </c>
+      <c r="F76" s="23">
+        <v>1</v>
+      </c>
+      <c r="G76" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="H76" s="32" t="s">
+      <c r="H76" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="32" t="s">
+      <c r="B77" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="32" t="s">
+      <c r="C77" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D77" s="32" t="s">
+      <c r="D77" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E77" s="32">
-        <v>2</v>
-      </c>
-      <c r="F77" s="32">
-        <v>1</v>
-      </c>
-      <c r="G77" s="32" t="s">
+      <c r="E77" s="23">
+        <v>2</v>
+      </c>
+      <c r="F77" s="23">
+        <v>1</v>
+      </c>
+      <c r="G77" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="H77" s="32" t="s">
+      <c r="H77" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C78" s="32" t="s">
+      <c r="C78" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="32" t="s">
+      <c r="D78" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E78" s="32">
-        <v>2</v>
-      </c>
-      <c r="F78" s="32">
-        <v>1</v>
-      </c>
-      <c r="G78" s="32" t="s">
+      <c r="E78" s="23">
+        <v>2</v>
+      </c>
+      <c r="F78" s="23">
+        <v>1</v>
+      </c>
+      <c r="G78" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="H78" s="32" t="s">
+      <c r="H78" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="79" spans="2:8">
-      <c r="B79" s="32" t="s">
+      <c r="B79" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="32" t="s">
+      <c r="C79" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="D79" s="32" t="s">
+      <c r="D79" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E79" s="32">
-        <v>2</v>
-      </c>
-      <c r="F79" s="32">
-        <v>1</v>
-      </c>
-      <c r="G79" s="32" t="s">
+      <c r="E79" s="23">
+        <v>2</v>
+      </c>
+      <c r="F79" s="23">
+        <v>1</v>
+      </c>
+      <c r="G79" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="H79" s="32" t="s">
+      <c r="H79" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="32" t="s">
+      <c r="B80" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C80" s="32" t="s">
+      <c r="C80" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="32" t="s">
+      <c r="D80" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E80" s="32">
-        <v>2</v>
-      </c>
-      <c r="F80" s="32">
-        <v>1</v>
-      </c>
-      <c r="G80" s="32" t="s">
+      <c r="E80" s="23">
+        <v>2</v>
+      </c>
+      <c r="F80" s="23">
+        <v>1</v>
+      </c>
+      <c r="G80" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="H80" s="32" t="s">
+      <c r="H80" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="33" t="s">
+      <c r="B81" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="33" t="s">
+      <c r="C81" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D81" s="33" t="s">
+      <c r="D81" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="33">
-        <v>1</v>
-      </c>
-      <c r="F81" s="33">
-        <v>1</v>
-      </c>
-      <c r="G81" s="33" t="s">
+      <c r="E81" s="24">
+        <v>1</v>
+      </c>
+      <c r="F81" s="24">
+        <v>1</v>
+      </c>
+      <c r="G81" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H81" s="33" t="s">
+      <c r="H81" s="24" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="82" spans="2:8">
-      <c r="B82" s="33" t="s">
+      <c r="B82" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="33" t="s">
+      <c r="C82" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="D82" s="33" t="s">
+      <c r="D82" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E82" s="33">
-        <v>1</v>
-      </c>
-      <c r="F82" s="33">
-        <v>1</v>
-      </c>
-      <c r="G82" s="33" t="s">
+      <c r="E82" s="24">
+        <v>1</v>
+      </c>
+      <c r="F82" s="24">
+        <v>1</v>
+      </c>
+      <c r="G82" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H82" s="33" t="s">
+      <c r="H82" s="24" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" s="33" t="s">
+      <c r="B83" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C83" s="33" t="s">
+      <c r="C83" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D83" s="33" t="s">
+      <c r="D83" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E83" s="33">
-        <v>1</v>
-      </c>
-      <c r="F83" s="33">
-        <v>1</v>
-      </c>
-      <c r="G83" s="33" t="s">
+      <c r="E83" s="24">
+        <v>1</v>
+      </c>
+      <c r="F83" s="24">
+        <v>1</v>
+      </c>
+      <c r="G83" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H83" s="33" t="s">
+      <c r="H83" s="24" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="84" spans="2:8">
-      <c r="B84" s="33" t="s">
+      <c r="B84" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="33" t="s">
+      <c r="C84" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D84" s="33" t="s">
+      <c r="D84" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E84" s="33">
-        <v>1</v>
-      </c>
-      <c r="F84" s="33">
-        <v>1</v>
-      </c>
-      <c r="G84" s="33" t="s">
+      <c r="E84" s="24">
+        <v>1</v>
+      </c>
+      <c r="F84" s="24">
+        <v>1</v>
+      </c>
+      <c r="G84" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H84" s="33" t="s">
+      <c r="H84" s="24" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="85" spans="2:8">
-      <c r="B85" s="33" t="s">
+      <c r="B85" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="33" t="s">
+      <c r="C85" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D85" s="33" t="s">
+      <c r="D85" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E85" s="33">
-        <v>2</v>
-      </c>
-      <c r="F85" s="33">
-        <v>1</v>
-      </c>
-      <c r="G85" s="33" t="s">
+      <c r="E85" s="24">
+        <v>2</v>
+      </c>
+      <c r="F85" s="24">
+        <v>1</v>
+      </c>
+      <c r="G85" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H85" s="33" t="s">
+      <c r="H85" s="24" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="86" spans="2:8">
-      <c r="B86" s="33" t="s">
+      <c r="B86" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C86" s="33" t="s">
+      <c r="C86" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="D86" s="33" t="s">
+      <c r="D86" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E86" s="33">
-        <v>2</v>
-      </c>
-      <c r="F86" s="33">
-        <v>1</v>
-      </c>
-      <c r="G86" s="33" t="s">
+      <c r="E86" s="24">
+        <v>2</v>
+      </c>
+      <c r="F86" s="24">
+        <v>1</v>
+      </c>
+      <c r="G86" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H86" s="33" t="s">
+      <c r="H86" s="24" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="33" t="s">
+      <c r="B87" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="33" t="s">
+      <c r="C87" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D87" s="33" t="s">
+      <c r="D87" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E87" s="33">
-        <v>2</v>
-      </c>
-      <c r="F87" s="33">
-        <v>1</v>
-      </c>
-      <c r="G87" s="33" t="s">
+      <c r="E87" s="24">
+        <v>2</v>
+      </c>
+      <c r="F87" s="24">
+        <v>1</v>
+      </c>
+      <c r="G87" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H87" s="33" t="s">
+      <c r="H87" s="24" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="88" spans="2:8">
-      <c r="B88" s="33" t="s">
+      <c r="B88" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C88" s="33" t="s">
+      <c r="C88" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="33" t="s">
+      <c r="D88" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E88" s="33">
-        <v>2</v>
-      </c>
-      <c r="F88" s="33">
-        <v>1</v>
-      </c>
-      <c r="G88" s="33" t="s">
+      <c r="E88" s="24">
+        <v>2</v>
+      </c>
+      <c r="F88" s="24">
+        <v>1</v>
+      </c>
+      <c r="G88" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H88" s="33" t="s">
+      <c r="H88" s="24" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="89" spans="2:8">
-      <c r="B89" s="33" t="s">
+      <c r="B89" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="33" t="s">
+      <c r="C89" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D89" s="33" t="s">
+      <c r="D89" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E89" s="33">
-        <v>2</v>
-      </c>
-      <c r="F89" s="33">
-        <v>1</v>
-      </c>
-      <c r="G89" s="33" t="s">
+      <c r="E89" s="24">
+        <v>2</v>
+      </c>
+      <c r="F89" s="24">
+        <v>1</v>
+      </c>
+      <c r="G89" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H89" s="33" t="s">
+      <c r="H89" s="24" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="90" spans="2:8">
-      <c r="B90" s="33" t="s">
+      <c r="B90" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C90" s="33" t="s">
+      <c r="C90" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D90" s="33" t="s">
+      <c r="D90" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E90" s="33">
-        <v>2</v>
-      </c>
-      <c r="F90" s="33">
-        <v>1</v>
-      </c>
-      <c r="G90" s="33" t="s">
+      <c r="E90" s="24">
+        <v>2</v>
+      </c>
+      <c r="F90" s="24">
+        <v>1</v>
+      </c>
+      <c r="G90" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H90" s="33" t="s">
+      <c r="H90" s="24" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="91" spans="2:8">
-      <c r="B91" s="33" t="s">
+      <c r="B91" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C91" s="33" t="s">
+      <c r="C91" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D91" s="33" t="s">
+      <c r="D91" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E91" s="33">
-        <v>2</v>
-      </c>
-      <c r="F91" s="33">
-        <v>1</v>
-      </c>
-      <c r="G91" s="33" t="s">
+      <c r="E91" s="24">
+        <v>2</v>
+      </c>
+      <c r="F91" s="24">
+        <v>1</v>
+      </c>
+      <c r="G91" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H91" s="33" t="s">
+      <c r="H91" s="24" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="92" spans="2:8">
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="27" t="s">
+      <c r="C92" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D92" s="27" t="s">
+      <c r="D92" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E92" s="27">
-        <v>1</v>
-      </c>
-      <c r="F92" s="27">
-        <v>1</v>
-      </c>
-      <c r="G92" s="27" t="s">
+      <c r="E92" s="18">
+        <v>1</v>
+      </c>
+      <c r="F92" s="18">
+        <v>1</v>
+      </c>
+      <c r="G92" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="H92" s="27" t="s">
+      <c r="H92" s="18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="93" spans="2:8">
-      <c r="B93" s="27" t="s">
+      <c r="B93" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C93" s="27" t="s">
+      <c r="C93" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D93" s="27" t="s">
+      <c r="D93" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E93" s="27">
-        <v>1</v>
-      </c>
-      <c r="F93" s="27">
-        <v>1</v>
-      </c>
-      <c r="G93" s="27" t="s">
+      <c r="E93" s="18">
+        <v>1</v>
+      </c>
+      <c r="F93" s="18">
+        <v>1</v>
+      </c>
+      <c r="G93" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="H93" s="27" t="s">
+      <c r="H93" s="18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="94" spans="2:8">
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C94" s="27" t="s">
+      <c r="C94" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D94" s="27" t="s">
+      <c r="D94" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E94" s="27">
-        <v>1</v>
-      </c>
-      <c r="F94" s="27">
-        <v>1</v>
-      </c>
-      <c r="G94" s="27" t="s">
+      <c r="E94" s="18">
+        <v>1</v>
+      </c>
+      <c r="F94" s="18">
+        <v>1</v>
+      </c>
+      <c r="G94" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="H94" s="27" t="s">
+      <c r="H94" s="18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="95" spans="2:8">
-      <c r="B95" s="27" t="s">
+      <c r="B95" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C95" s="27" t="s">
+      <c r="C95" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D95" s="27" t="s">
+      <c r="D95" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E95" s="27">
-        <v>1</v>
-      </c>
-      <c r="F95" s="27">
-        <v>1</v>
-      </c>
-      <c r="G95" s="27" t="s">
+      <c r="E95" s="18">
+        <v>1</v>
+      </c>
+      <c r="F95" s="18">
+        <v>1</v>
+      </c>
+      <c r="G95" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="H95" s="27" t="s">
+      <c r="H95" s="18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="96" spans="2:8">
-      <c r="B96" s="27" t="s">
+      <c r="B96" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C96" s="27" t="s">
+      <c r="C96" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="27" t="s">
+      <c r="D96" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E96" s="27">
-        <v>1</v>
-      </c>
-      <c r="F96" s="27">
-        <v>1</v>
-      </c>
-      <c r="G96" s="27" t="s">
+      <c r="E96" s="18">
+        <v>1</v>
+      </c>
+      <c r="F96" s="18">
+        <v>1</v>
+      </c>
+      <c r="G96" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="H96" s="27" t="s">
+      <c r="H96" s="18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="97" spans="2:8">
-      <c r="B97" s="27" t="s">
+      <c r="B97" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C97" s="27" t="s">
+      <c r="C97" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="D97" s="27" t="s">
+      <c r="D97" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E97" s="27">
-        <v>1</v>
-      </c>
-      <c r="F97" s="27">
-        <v>1</v>
-      </c>
-      <c r="G97" s="27" t="s">
+      <c r="E97" s="18">
+        <v>1</v>
+      </c>
+      <c r="F97" s="18">
+        <v>1</v>
+      </c>
+      <c r="G97" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="H97" s="27" t="s">
+      <c r="H97" s="18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="98" spans="2:8">
-      <c r="B98" s="27" t="s">
+      <c r="B98" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D98" s="27" t="s">
+      <c r="D98" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E98" s="27">
-        <v>1</v>
-      </c>
-      <c r="F98" s="27">
-        <v>1</v>
-      </c>
-      <c r="G98" s="27" t="s">
+      <c r="E98" s="18">
+        <v>1</v>
+      </c>
+      <c r="F98" s="18">
+        <v>1</v>
+      </c>
+      <c r="G98" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="H98" s="27" t="s">
+      <c r="H98" s="18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="99" spans="2:8">
-      <c r="B99" s="28" t="s">
+      <c r="B99" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="28" t="s">
+      <c r="C99" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D99" s="28" t="s">
+      <c r="D99" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="E99" s="28">
-        <v>1</v>
-      </c>
-      <c r="F99" s="28">
-        <v>1</v>
-      </c>
-      <c r="G99" s="28" t="s">
+      <c r="E99" s="19">
+        <v>1</v>
+      </c>
+      <c r="F99" s="19">
+        <v>1</v>
+      </c>
+      <c r="G99" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H99" s="28" t="s">
+      <c r="H99" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="100" spans="2:8">
-      <c r="B100" s="28" t="s">
+      <c r="B100" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C100" s="28" t="s">
+      <c r="C100" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D100" s="28" t="s">
+      <c r="D100" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="E100" s="28">
-        <v>1</v>
-      </c>
-      <c r="F100" s="28">
-        <v>1</v>
-      </c>
-      <c r="G100" s="28" t="s">
+      <c r="E100" s="19">
+        <v>1</v>
+      </c>
+      <c r="F100" s="19">
+        <v>1</v>
+      </c>
+      <c r="G100" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H100" s="28" t="s">
+      <c r="H100" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="101" spans="2:8">
-      <c r="B101" s="28" t="s">
+      <c r="B101" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="28" t="s">
+      <c r="C101" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D101" s="28" t="s">
+      <c r="D101" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E101" s="28">
-        <v>1</v>
-      </c>
-      <c r="F101" s="28">
-        <v>1</v>
-      </c>
-      <c r="G101" s="28" t="s">
+      <c r="E101" s="19">
+        <v>1</v>
+      </c>
+      <c r="F101" s="19">
+        <v>1</v>
+      </c>
+      <c r="G101" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H101" s="28" t="s">
+      <c r="H101" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="102" spans="2:8">
-      <c r="B102" s="28" t="s">
+      <c r="B102" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C102" s="28" t="s">
+      <c r="C102" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D102" s="28" t="s">
+      <c r="D102" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E102" s="28">
-        <v>1</v>
-      </c>
-      <c r="F102" s="28">
-        <v>1</v>
-      </c>
-      <c r="G102" s="28" t="s">
+      <c r="E102" s="19">
+        <v>1</v>
+      </c>
+      <c r="F102" s="19">
+        <v>1</v>
+      </c>
+      <c r="G102" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H102" s="28" t="s">
+      <c r="H102" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="103" spans="2:8">
-      <c r="B103" s="28" t="s">
+      <c r="B103" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C103" s="28" t="s">
+      <c r="C103" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D103" s="28" t="s">
+      <c r="D103" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E103" s="28">
-        <v>1</v>
-      </c>
-      <c r="F103" s="28">
-        <v>1</v>
-      </c>
-      <c r="G103" s="28" t="s">
+      <c r="E103" s="19">
+        <v>1</v>
+      </c>
+      <c r="F103" s="19">
+        <v>1</v>
+      </c>
+      <c r="G103" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H103" s="28" t="s">
+      <c r="H103" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="104" spans="2:8">
-      <c r="B104" s="28" t="s">
+      <c r="B104" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C104" s="28" t="s">
+      <c r="C104" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D104" s="28" t="s">
+      <c r="D104" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="28">
-        <v>1</v>
-      </c>
-      <c r="F104" s="28">
-        <v>1</v>
-      </c>
-      <c r="G104" s="28" t="s">
+      <c r="E104" s="19">
+        <v>1</v>
+      </c>
+      <c r="F104" s="19">
+        <v>1</v>
+      </c>
+      <c r="G104" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H104" s="28" t="s">
+      <c r="H104" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="105" spans="2:8">
-      <c r="B105" s="28" t="s">
+      <c r="B105" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="28" t="s">
+      <c r="C105" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D105" s="28" t="s">
+      <c r="D105" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E105" s="28">
-        <v>2</v>
-      </c>
-      <c r="F105" s="28">
-        <v>1</v>
-      </c>
-      <c r="G105" s="28" t="s">
+      <c r="E105" s="19">
+        <v>2</v>
+      </c>
+      <c r="F105" s="19">
+        <v>1</v>
+      </c>
+      <c r="G105" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H105" s="28" t="s">
+      <c r="H105" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="106" spans="2:8">
-      <c r="B106" s="28" t="s">
+      <c r="B106" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C106" s="28" t="s">
+      <c r="C106" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D106" s="28" t="s">
+      <c r="D106" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E106" s="28">
-        <v>2</v>
-      </c>
-      <c r="F106" s="28">
-        <v>1</v>
-      </c>
-      <c r="G106" s="28" t="s">
+      <c r="E106" s="19">
+        <v>2</v>
+      </c>
+      <c r="F106" s="19">
+        <v>1</v>
+      </c>
+      <c r="G106" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H106" s="28" t="s">
+      <c r="H106" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="107" spans="2:8">
-      <c r="B107" s="28" t="s">
+      <c r="B107" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C107" s="28" t="s">
+      <c r="C107" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D107" s="28" t="s">
+      <c r="D107" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E107" s="28">
-        <v>2</v>
-      </c>
-      <c r="F107" s="28">
-        <v>1</v>
-      </c>
-      <c r="G107" s="28" t="s">
+      <c r="E107" s="19">
+        <v>2</v>
+      </c>
+      <c r="F107" s="19">
+        <v>1</v>
+      </c>
+      <c r="G107" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H107" s="28" t="s">
+      <c r="H107" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="108" spans="2:8">
-      <c r="B108" s="28" t="s">
+      <c r="B108" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C108" s="28" t="s">
+      <c r="C108" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D108" s="28" t="s">
+      <c r="D108" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E108" s="28">
-        <v>2</v>
-      </c>
-      <c r="F108" s="28">
-        <v>1</v>
-      </c>
-      <c r="G108" s="28" t="s">
+      <c r="E108" s="19">
+        <v>2</v>
+      </c>
+      <c r="F108" s="19">
+        <v>1</v>
+      </c>
+      <c r="G108" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H108" s="28" t="s">
+      <c r="H108" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="109" spans="2:8">
-      <c r="B109" s="28" t="s">
+      <c r="B109" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C109" s="28" t="s">
+      <c r="C109" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D109" s="28" t="s">
+      <c r="D109" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E109" s="28">
-        <v>2</v>
-      </c>
-      <c r="F109" s="28">
-        <v>1</v>
-      </c>
-      <c r="G109" s="28" t="s">
+      <c r="E109" s="19">
+        <v>2</v>
+      </c>
+      <c r="F109" s="19">
+        <v>1</v>
+      </c>
+      <c r="G109" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H109" s="28" t="s">
+      <c r="H109" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="110" spans="2:8">
-      <c r="B110" s="28" t="s">
+      <c r="B110" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C110" s="28" t="s">
+      <c r="C110" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D110" s="28" t="s">
+      <c r="D110" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E110" s="28">
-        <v>2</v>
-      </c>
-      <c r="F110" s="28">
-        <v>1</v>
-      </c>
-      <c r="G110" s="28" t="s">
+      <c r="E110" s="19">
+        <v>2</v>
+      </c>
+      <c r="F110" s="19">
+        <v>1</v>
+      </c>
+      <c r="G110" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H110" s="28" t="s">
+      <c r="H110" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="111" spans="2:8">
-      <c r="B111" s="28" t="s">
+      <c r="B111" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C111" s="28" t="s">
+      <c r="C111" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D111" s="28" t="s">
+      <c r="D111" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E111" s="28">
-        <v>2</v>
-      </c>
-      <c r="F111" s="28">
-        <v>1</v>
-      </c>
-      <c r="G111" s="28" t="s">
+      <c r="E111" s="19">
+        <v>2</v>
+      </c>
+      <c r="F111" s="19">
+        <v>1</v>
+      </c>
+      <c r="G111" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H111" s="28" t="s">
+      <c r="H111" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="112" spans="2:8">
-      <c r="B112" s="28" t="s">
+      <c r="B112" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C112" s="28" t="s">
+      <c r="C112" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="D112" s="28" t="s">
+      <c r="D112" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E112" s="28">
-        <v>1</v>
-      </c>
-      <c r="F112" s="28">
-        <v>2</v>
-      </c>
-      <c r="G112" s="28" t="s">
+      <c r="E112" s="19">
+        <v>1</v>
+      </c>
+      <c r="F112" s="19">
+        <v>2</v>
+      </c>
+      <c r="G112" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H112" s="28" t="s">
+      <c r="H112" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="113" spans="2:8">
-      <c r="B113" s="28" t="s">
+      <c r="B113" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C113" s="28" t="s">
+      <c r="C113" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D113" s="28" t="s">
+      <c r="D113" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E113" s="28">
-        <v>1</v>
-      </c>
-      <c r="F113" s="28">
-        <v>2</v>
-      </c>
-      <c r="G113" s="28" t="s">
+      <c r="E113" s="19">
+        <v>1</v>
+      </c>
+      <c r="F113" s="19">
+        <v>2</v>
+      </c>
+      <c r="G113" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H113" s="28" t="s">
+      <c r="H113" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="114" spans="2:8">
-      <c r="B114" s="28" t="s">
+      <c r="B114" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C114" s="28" t="s">
+      <c r="C114" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D114" s="28" t="s">
+      <c r="D114" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E114" s="28">
-        <v>1</v>
-      </c>
-      <c r="F114" s="28">
-        <v>2</v>
-      </c>
-      <c r="G114" s="28" t="s">
+      <c r="E114" s="19">
+        <v>1</v>
+      </c>
+      <c r="F114" s="19">
+        <v>2</v>
+      </c>
+      <c r="G114" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H114" s="28" t="s">
+      <c r="H114" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="115" spans="2:8">
-      <c r="B115" s="28" t="s">
+      <c r="B115" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C115" s="28" t="s">
+      <c r="C115" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D115" s="28" t="s">
+      <c r="D115" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E115" s="28">
-        <v>1</v>
-      </c>
-      <c r="F115" s="28">
-        <v>2</v>
-      </c>
-      <c r="G115" s="28" t="s">
+      <c r="E115" s="19">
+        <v>1</v>
+      </c>
+      <c r="F115" s="19">
+        <v>2</v>
+      </c>
+      <c r="G115" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H115" s="28" t="s">
+      <c r="H115" s="19" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T13"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="23.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="11.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="14.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="16.4285714285714" customWidth="1"/>
-    <col min="11" max="11" width="13.1428571428571" customWidth="1"/>
-    <col min="12" max="12" width="23.4285714285714" customWidth="1"/>
-    <col min="13" max="13" width="15.5714285714286" customWidth="1"/>
-    <col min="14" max="15" width="14.7142857142857" customWidth="1"/>
-    <col min="16" max="16" width="16.4285714285714" customWidth="1"/>
-    <col min="18" max="18" width="9.71428571428571" customWidth="1"/>
-    <col min="19" max="19" width="8.14285714285714" customWidth="1"/>
-    <col min="20" max="20" width="5.71428571428571" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="25"/>
       <c r="L2" s="1" t="s">
         <v>145</v>
       </c>
@@ -4808,449 +4307,449 @@
       </c>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="11">
         <v>24</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="11">
         <v>4</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="18">
-        <v>1</v>
-      </c>
-      <c r="K4" s="18" t="s">
+      <c r="J4" s="11">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="11">
         <v>30</v>
       </c>
-      <c r="Q4" s="18">
-        <v>2</v>
-      </c>
-      <c r="R4" s="18">
-        <v>2</v>
-      </c>
-      <c r="S4" s="18">
-        <v>1</v>
-      </c>
-      <c r="T4" s="18">
+      <c r="Q4" s="11">
+        <v>2</v>
+      </c>
+      <c r="R4" s="11">
+        <v>2</v>
+      </c>
+      <c r="S4" s="11">
+        <v>1</v>
+      </c>
+      <c r="T4" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="11">
         <v>24</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="11">
         <v>2</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="18">
-        <v>2</v>
-      </c>
-      <c r="K5" s="18" t="s">
+      <c r="J5" s="11">
+        <v>2</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="11">
         <v>30</v>
       </c>
-      <c r="Q5" s="18">
-        <v>2</v>
-      </c>
-      <c r="R5" s="18">
-        <v>2</v>
-      </c>
-      <c r="S5" s="18">
-        <v>1</v>
-      </c>
-      <c r="T5" s="18">
+      <c r="Q5" s="11">
+        <v>2</v>
+      </c>
+      <c r="R5" s="11">
+        <v>2</v>
+      </c>
+      <c r="S5" s="11">
+        <v>1</v>
+      </c>
+      <c r="T5" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="11">
         <v>24</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="11">
         <v>2</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="18">
+      <c r="J6" s="11">
         <v>3</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="O6" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="11">
         <v>30</v>
       </c>
-      <c r="Q6" s="18">
-        <v>2</v>
-      </c>
-      <c r="R6" s="18">
-        <v>2</v>
-      </c>
-      <c r="S6" s="18">
-        <v>1</v>
-      </c>
-      <c r="T6" s="18">
+      <c r="Q6" s="11">
+        <v>2</v>
+      </c>
+      <c r="R6" s="11">
+        <v>2</v>
+      </c>
+      <c r="S6" s="11">
+        <v>1</v>
+      </c>
+      <c r="T6" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="11">
         <v>24</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="11">
         <v>2</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="18">
+      <c r="J7" s="11">
         <v>4</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="N7" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="O7" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="11">
         <v>30</v>
       </c>
-      <c r="Q7" s="18">
-        <v>2</v>
-      </c>
-      <c r="R7" s="18">
-        <v>2</v>
-      </c>
-      <c r="S7" s="18">
-        <v>1</v>
-      </c>
-      <c r="T7" s="18">
+      <c r="Q7" s="11">
+        <v>2</v>
+      </c>
+      <c r="R7" s="11">
+        <v>2</v>
+      </c>
+      <c r="S7" s="11">
+        <v>1</v>
+      </c>
+      <c r="T7" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:20">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="11">
         <v>24</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="11">
         <v>1</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="18">
+      <c r="J8" s="11">
         <v>5</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="N8" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="O8" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8" s="11">
         <v>30</v>
       </c>
-      <c r="Q8" s="18">
-        <v>2</v>
-      </c>
-      <c r="R8" s="18">
-        <v>1</v>
-      </c>
-      <c r="S8" s="18">
-        <v>1</v>
-      </c>
-      <c r="T8" s="18">
+      <c r="Q8" s="11">
+        <v>2</v>
+      </c>
+      <c r="R8" s="11">
+        <v>1</v>
+      </c>
+      <c r="S8" s="11">
+        <v>1</v>
+      </c>
+      <c r="T8" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:20">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="11">
         <v>24</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="11">
         <v>1</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="18">
+      <c r="J9" s="11">
         <v>6</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="N9" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="O9" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="11">
         <v>30</v>
       </c>
-      <c r="Q9" s="18">
-        <v>2</v>
-      </c>
-      <c r="R9" s="18">
-        <v>1</v>
-      </c>
-      <c r="S9" s="18">
-        <v>1</v>
-      </c>
-      <c r="T9" s="18">
+      <c r="Q9" s="11">
+        <v>2</v>
+      </c>
+      <c r="R9" s="11">
+        <v>1</v>
+      </c>
+      <c r="S9" s="11">
+        <v>1</v>
+      </c>
+      <c r="T9" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="11">
         <v>24</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="11">
         <v>1</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="18">
+      <c r="J10" s="11">
         <v>7</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="O10" s="18" t="s">
+      <c r="O10" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10" s="11">
         <v>30</v>
       </c>
-      <c r="Q10" s="18">
-        <v>2</v>
-      </c>
-      <c r="R10" s="18">
-        <v>1</v>
-      </c>
-      <c r="S10" s="18">
-        <v>1</v>
-      </c>
-      <c r="T10" s="18">
+      <c r="Q10" s="11">
+        <v>2</v>
+      </c>
+      <c r="R10" s="11">
+        <v>1</v>
+      </c>
+      <c r="S10" s="11">
+        <v>1</v>
+      </c>
+      <c r="T10" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="11">
         <v>24</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="11">
         <v>1</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="18">
+      <c r="J11" s="11">
         <v>8</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="M11" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="N11" s="18" t="s">
+      <c r="N11" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="O11" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P11" s="11">
         <v>30</v>
       </c>
-      <c r="Q11" s="18">
-        <v>2</v>
-      </c>
-      <c r="R11" s="18">
-        <v>1</v>
-      </c>
-      <c r="S11" s="18">
-        <v>1</v>
-      </c>
-      <c r="T11" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="6:9">
+      <c r="Q11" s="11">
+        <v>2</v>
+      </c>
+      <c r="R11" s="11">
+        <v>1</v>
+      </c>
+      <c r="S11" s="11">
+        <v>1</v>
+      </c>
+      <c r="T11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20">
       <c r="F12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="6:9">
+    <row r="13" spans="2:20">
       <c r="F13" s="2"/>
       <c r="I13" s="2"/>
     </row>
@@ -5260,68 +4759,66 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="J2:K2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y53"/>
   <sheetViews>
-    <sheetView topLeftCell="I28" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="7.14285714285714" customWidth="1"/>
-    <col min="3" max="3" width="7.57142857142857" customWidth="1"/>
-    <col min="4" max="4" width="11.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="7" max="7" width="7.57142857142857" customWidth="1"/>
-    <col min="8" max="8" width="4.71428571428571" customWidth="1"/>
-    <col min="9" max="9" width="14.4285714285714" customWidth="1"/>
-    <col min="10" max="10" width="3.28571428571429" customWidth="1"/>
-    <col min="11" max="11" width="6.28571428571429" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="5.42857142857143" customWidth="1"/>
-    <col min="15" max="15" width="8.71428571428571" customWidth="1"/>
-    <col min="16" max="16" width="14.5714285714286" customWidth="1"/>
-    <col min="17" max="17" width="16.7142857142857" customWidth="1"/>
-    <col min="18" max="18" width="15.5714285714286" customWidth="1"/>
-    <col min="19" max="19" width="13.7142857142857" customWidth="1"/>
-    <col min="20" max="20" width="14.7142857142857" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" customWidth="1"/>
     <col min="21" max="21" width="7" customWidth="1"/>
-    <col min="23" max="23" width="8.42857142857143" customWidth="1"/>
-    <col min="24" max="24" width="14.4285714285714" customWidth="1"/>
-    <col min="25" max="25" width="5.71428571428571" customWidth="1"/>
+    <col min="23" max="23" width="8.42578125" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" customWidth="1"/>
+    <col min="25" max="25" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="P2" s="1"/>
+      <c r="P2" s="25"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -5346,20 +4843,20 @@
         <v>149</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="17"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="10" t="s">
         <v>198</v>
       </c>
       <c r="Q3" s="2"/>
@@ -5373,16 +4870,16 @@
       <c r="Y3" s="2"/>
     </row>
     <row r="4" spans="2:25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>24</v>
       </c>
       <c r="F4" s="2"/>
@@ -5443,305 +4940,305 @@
       </c>
     </row>
     <row r="5" spans="2:25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>24</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="11">
         <v>60</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="11">
         <v>4</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="11">
         <v>5</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="11">
         <v>69</v>
       </c>
       <c r="N5" s="2"/>
-      <c r="O5" s="18">
-        <v>1</v>
-      </c>
-      <c r="P5" s="18" t="s">
+      <c r="O5" s="11">
+        <v>1</v>
+      </c>
+      <c r="P5" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="Q5" s="18" t="s">
+      <c r="Q5" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="18" t="s">
+      <c r="R5" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="S5" s="18" t="s">
+      <c r="S5" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="T5" s="18" t="s">
+      <c r="T5" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="U5" s="18">
+      <c r="U5" s="11">
         <v>25</v>
       </c>
-      <c r="V5" s="18">
+      <c r="V5" s="11">
         <v>126</v>
       </c>
-      <c r="W5" s="18">
+      <c r="W5" s="11">
         <v>69</v>
       </c>
-      <c r="X5" s="18" t="s">
+      <c r="X5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Y5" s="18">
+      <c r="Y5" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:25">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>24</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8">
-        <v>2</v>
-      </c>
-      <c r="I6" s="8" t="s">
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="12">
         <v>45</v>
       </c>
-      <c r="K6" s="19">
-        <v>1</v>
-      </c>
-      <c r="L6" s="19">
-        <v>2</v>
-      </c>
-      <c r="M6" s="18">
+      <c r="K6" s="12">
+        <v>1</v>
+      </c>
+      <c r="L6" s="12">
+        <v>2</v>
+      </c>
+      <c r="M6" s="11">
         <v>48</v>
       </c>
       <c r="N6" s="2"/>
-      <c r="O6" s="18">
-        <v>2</v>
-      </c>
-      <c r="P6" s="18" t="s">
+      <c r="O6" s="11">
+        <v>2</v>
+      </c>
+      <c r="P6" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="Q6" s="18" t="s">
+      <c r="Q6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="R6" s="18" t="s">
+      <c r="R6" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="S6" s="18" t="s">
+      <c r="S6" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="T6" s="18" t="s">
+      <c r="T6" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="U6" s="18">
+      <c r="U6" s="11">
         <v>26</v>
       </c>
-      <c r="V6" s="18">
+      <c r="V6" s="11">
         <v>62</v>
       </c>
-      <c r="W6" s="18">
+      <c r="W6" s="11">
         <v>48</v>
       </c>
-      <c r="X6" s="18" t="s">
+      <c r="X6" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Y6" s="18">
+      <c r="Y6" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>24</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="7">
-        <v>2</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="G7" s="5">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="11">
         <v>30</v>
       </c>
-      <c r="K7" s="18">
-        <v>1</v>
-      </c>
-      <c r="L7" s="18">
+      <c r="K7" s="11">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11">
         <v>3</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="11">
         <v>34</v>
       </c>
       <c r="N7" s="2"/>
-      <c r="O7" s="19">
+      <c r="O7" s="12">
         <v>3</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="P7" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="Q7" s="19" t="s">
+      <c r="Q7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="R7" s="19" t="s">
+      <c r="R7" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="S7" s="19" t="s">
+      <c r="S7" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="T7" s="19" t="s">
+      <c r="T7" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="U7" s="19">
+      <c r="U7" s="12">
         <v>26</v>
       </c>
-      <c r="V7" s="19">
+      <c r="V7" s="12">
         <v>62</v>
       </c>
-      <c r="W7" s="19">
+      <c r="W7" s="12">
         <v>34</v>
       </c>
-      <c r="X7" s="19" t="s">
+      <c r="X7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Y7" s="19">
+      <c r="Y7" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>24</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="21">
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="13">
         <f>SUM(M5:M7)</f>
         <v>151</v>
       </c>
       <c r="N8" s="2"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="6" t="s">
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+    </row>
+    <row r="9" spans="2:25">
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>24</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="2:25">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>8</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="17"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="P10" s="14" t="s">
+      <c r="P10" s="10" t="s">
         <v>225</v>
       </c>
       <c r="Q10" s="2"/>
@@ -5755,16 +5252,16 @@
       <c r="Y10" s="2"/>
     </row>
     <row r="11" spans="2:25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>24</v>
       </c>
       <c r="F11" s="2"/>
@@ -5830,60 +5327,60 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="7">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7" t="s">
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="11">
         <v>30</v>
       </c>
-      <c r="K12" s="18">
-        <v>2</v>
-      </c>
-      <c r="L12" s="18">
-        <v>2</v>
-      </c>
-      <c r="M12" s="18">
+      <c r="K12" s="11">
+        <v>2</v>
+      </c>
+      <c r="L12" s="11">
+        <v>2</v>
+      </c>
+      <c r="M12" s="11">
         <f>SUM(J12:L12)</f>
         <v>34</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" s="18">
-        <v>1</v>
-      </c>
-      <c r="P12" s="18" t="s">
+      <c r="O12" s="11">
+        <v>1</v>
+      </c>
+      <c r="P12" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="Q12" s="18" t="s">
+      <c r="Q12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="R12" s="18" t="s">
+      <c r="R12" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="S12" s="18" t="s">
+      <c r="S12" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="T12" s="18" t="s">
+      <c r="T12" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="U12" s="18">
+      <c r="U12" s="11">
         <v>26</v>
       </c>
-      <c r="V12" s="18">
+      <c r="V12" s="11">
         <v>62</v>
       </c>
-      <c r="W12" s="18">
+      <c r="W12" s="11">
         <v>34</v>
       </c>
-      <c r="X12" s="18" t="s">
+      <c r="X12" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="Y12" s="18">
+      <c r="Y12" s="11">
         <v>1</v>
       </c>
     </row>
@@ -5893,60 +5390,60 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="8">
-        <v>1</v>
-      </c>
-      <c r="H13" s="8">
-        <v>2</v>
-      </c>
-      <c r="I13" s="8" t="s">
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>2</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="12">
         <v>15</v>
       </c>
-      <c r="K13" s="19">
-        <v>1</v>
-      </c>
-      <c r="L13" s="19">
-        <v>2</v>
-      </c>
-      <c r="M13" s="18">
+      <c r="K13" s="12">
+        <v>1</v>
+      </c>
+      <c r="L13" s="12">
+        <v>2</v>
+      </c>
+      <c r="M13" s="11">
         <f t="shared" ref="M13:M15" si="0">SUM(J13:L13)</f>
         <v>18</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" s="18">
-        <v>2</v>
-      </c>
-      <c r="P13" s="18" t="s">
+      <c r="O13" s="11">
+        <v>2</v>
+      </c>
+      <c r="P13" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="Q13" s="18" t="s">
+      <c r="Q13" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="R13" s="18" t="s">
+      <c r="R13" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="S13" s="18" t="s">
+      <c r="S13" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="T13" s="18" t="s">
+      <c r="T13" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="U13" s="18">
+      <c r="U13" s="11">
         <v>27</v>
       </c>
-      <c r="V13" s="18">
+      <c r="V13" s="11">
         <v>30</v>
       </c>
-      <c r="W13" s="18">
+      <c r="W13" s="11">
         <v>18</v>
       </c>
-      <c r="X13" s="18" t="s">
+      <c r="X13" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Y13" s="18">
+      <c r="Y13" s="11">
         <v>2</v>
       </c>
     </row>
@@ -5956,60 +5453,60 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8">
-        <v>2</v>
-      </c>
-      <c r="I14" s="8" t="s">
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="12">
         <v>10</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="12">
         <v>0</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="12">
         <v>0</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N14" s="2"/>
-      <c r="O14" s="18">
+      <c r="O14" s="11">
         <v>3</v>
       </c>
-      <c r="P14" s="18" t="s">
+      <c r="P14" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="Q14" s="18" t="s">
+      <c r="Q14" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="R14" s="18" t="s">
+      <c r="R14" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="S14" s="18" t="s">
+      <c r="S14" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="T14" s="18" t="s">
+      <c r="T14" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="U14" s="18">
+      <c r="U14" s="11">
         <v>28</v>
       </c>
-      <c r="V14" s="18">
+      <c r="V14" s="11">
         <v>14</v>
       </c>
-      <c r="W14" s="18">
+      <c r="W14" s="11">
         <v>12</v>
       </c>
-      <c r="X14" s="18" t="s">
+      <c r="X14" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="Y14" s="18">
+      <c r="Y14" s="11">
         <v>1</v>
       </c>
     </row>
@@ -6019,60 +5516,60 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="7">
-        <v>2</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7" t="s">
+      <c r="G15" s="5">
+        <v>2</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="11">
         <v>10</v>
       </c>
-      <c r="K15" s="18">
-        <v>1</v>
-      </c>
-      <c r="L15" s="18">
-        <v>1</v>
-      </c>
-      <c r="M15" s="18">
+      <c r="K15" s="11">
+        <v>1</v>
+      </c>
+      <c r="L15" s="11">
+        <v>1</v>
+      </c>
+      <c r="M15" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="18">
+      <c r="O15" s="11">
         <v>4</v>
       </c>
-      <c r="P15" s="18" t="s">
+      <c r="P15" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="Q15" s="18" t="s">
+      <c r="Q15" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="R15" s="18" t="s">
+      <c r="R15" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="S15" s="18" t="s">
+      <c r="S15" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="T15" s="18" t="s">
+      <c r="T15" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="U15" s="18">
+      <c r="U15" s="11">
         <v>28</v>
       </c>
-      <c r="V15" s="18">
+      <c r="V15" s="11">
         <v>14</v>
       </c>
-      <c r="W15" s="18">
+      <c r="W15" s="11">
         <v>10</v>
       </c>
-      <c r="X15" s="18" t="s">
+      <c r="X15" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="Y15" s="18">
+      <c r="Y15" s="11">
         <v>2</v>
       </c>
     </row>
@@ -6082,15 +5579,15 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="21">
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="13">
         <f>SUM(M12:M15)</f>
         <v>74</v>
       </c>
@@ -6107,7 +5604,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -6124,24 +5621,24 @@
     </row>
     <row r="18" spans="2:25">
       <c r="B18" s="2"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="14" t="s">
+      <c r="O18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="P18" s="14" t="s">
+      <c r="P18" s="10" t="s">
         <v>243</v>
       </c>
       <c r="Q18" s="2"/>
@@ -6185,7 +5682,7 @@
       <c r="O19" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="P19" s="23" t="s">
+      <c r="P19" s="15" t="s">
         <v>152</v>
       </c>
       <c r="Q19" s="3" t="s">
@@ -6222,60 +5719,60 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="7">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7" t="s">
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="11">
         <v>20</v>
       </c>
-      <c r="K20" s="18">
-        <v>1</v>
-      </c>
-      <c r="L20" s="18">
-        <v>2</v>
-      </c>
-      <c r="M20" s="18">
+      <c r="K20" s="11">
+        <v>1</v>
+      </c>
+      <c r="L20" s="11">
+        <v>2</v>
+      </c>
+      <c r="M20" s="11">
         <f>SUM(J20:L20)</f>
         <v>23</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="O20" s="18">
-        <v>1</v>
-      </c>
-      <c r="P20" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q20" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="R20" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="S20" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="T20" s="18" t="s">
+      <c r="O20" s="11">
+        <v>1</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="S20" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="T20" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="U20" s="18">
+      <c r="U20" s="11">
         <v>27</v>
       </c>
-      <c r="V20" s="18">
+      <c r="V20" s="11">
         <v>30</v>
       </c>
-      <c r="W20" s="18">
+      <c r="W20" s="11">
         <v>23</v>
       </c>
-      <c r="X20" s="18" t="s">
+      <c r="X20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Y20" s="18">
+      <c r="Y20" s="11">
         <v>1</v>
       </c>
     </row>
@@ -6285,84 +5782,84 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="7">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2</v>
-      </c>
-      <c r="I21" s="7" t="s">
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5">
+        <v>2</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="11">
         <v>15</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="11">
         <v>0</v>
       </c>
-      <c r="L21" s="18">
-        <v>1</v>
-      </c>
-      <c r="M21" s="18">
+      <c r="L21" s="11">
+        <v>1</v>
+      </c>
+      <c r="M21" s="11">
         <f>SUM(J21:L21)</f>
         <v>16</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" s="18">
-        <v>2</v>
-      </c>
-      <c r="P21" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q21" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="R21" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="S21" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="T21" s="18" t="s">
+      <c r="O21" s="11">
+        <v>2</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="S21" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="T21" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="U21" s="18">
+      <c r="U21" s="11">
         <v>27</v>
       </c>
-      <c r="V21" s="18">
+      <c r="V21" s="11">
         <v>30</v>
       </c>
-      <c r="W21" s="18">
+      <c r="W21" s="11">
         <v>16</v>
       </c>
-      <c r="X21" s="18" t="s">
+      <c r="X21" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="Y21" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14">
+      <c r="Y21" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="21">
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="13">
         <f>SUM(M20:M21)</f>
         <v>39</v>
       </c>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -6383,21 +5880,21 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="14" t="s">
+      <c r="O24" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="P24" s="14" t="s">
-        <v>250</v>
+      <c r="P24" s="10" t="s">
+        <v>244</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -6440,7 +5937,7 @@
       <c r="O25" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="P25" s="23" t="s">
+      <c r="P25" s="15" t="s">
         <v>152</v>
       </c>
       <c r="Q25" s="3" t="s">
@@ -6477,60 +5974,60 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="7">
-        <v>1</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7" t="s">
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="11">
         <v>60</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="11">
         <v>4</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="11">
         <v>5</v>
       </c>
-      <c r="M26" s="18">
+      <c r="M26" s="11">
         <f>SUM(J26:L26)</f>
         <v>69</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="18">
-        <v>1</v>
-      </c>
-      <c r="P26" s="18" t="s">
+      <c r="O26" s="11">
+        <v>1</v>
+      </c>
+      <c r="P26" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="Q26" s="18" t="s">
+      <c r="Q26" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="R26" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="S26" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="T26" s="18" t="s">
+      <c r="R26" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="S26" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="T26" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="U26" s="18">
+      <c r="U26" s="11">
         <v>25</v>
       </c>
-      <c r="V26" s="18">
+      <c r="V26" s="11">
         <v>126</v>
       </c>
-      <c r="W26" s="18">
+      <c r="W26" s="11">
         <v>69</v>
       </c>
-      <c r="X26" s="18" t="s">
+      <c r="X26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Y26" s="18">
+      <c r="Y26" s="11">
         <v>1</v>
       </c>
     </row>
@@ -6540,84 +6037,84 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="8">
-        <v>1</v>
-      </c>
-      <c r="H27" s="8">
-        <v>2</v>
-      </c>
-      <c r="I27" s="8" t="s">
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6">
+        <v>2</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="12">
         <v>45</v>
       </c>
-      <c r="K27" s="19">
-        <v>1</v>
-      </c>
-      <c r="L27" s="19">
-        <v>2</v>
-      </c>
-      <c r="M27" s="18">
+      <c r="K27" s="12">
+        <v>1</v>
+      </c>
+      <c r="L27" s="12">
+        <v>2</v>
+      </c>
+      <c r="M27" s="11">
         <f>SUM(J27:L27)</f>
         <v>48</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="18">
-        <v>2</v>
-      </c>
-      <c r="P27" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q27" s="18" t="s">
+      <c r="O27" s="11">
+        <v>2</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q27" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="R27" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="S27" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="T27" s="18" t="s">
+      <c r="R27" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="S27" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="T27" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="U27" s="18">
+      <c r="U27" s="11">
         <v>26</v>
       </c>
-      <c r="V27" s="18">
+      <c r="V27" s="11">
         <v>62</v>
       </c>
-      <c r="W27" s="18">
+      <c r="W27" s="11">
         <v>48</v>
       </c>
-      <c r="X27" s="18" t="s">
+      <c r="X27" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Y27" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14">
+      <c r="Y27" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="21">
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="13">
         <f>SUM(M26:M27)</f>
         <v>117</v>
       </c>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -6638,21 +6135,21 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="24"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="35"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="14" t="s">
+      <c r="O30" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P30" s="14" t="s">
-        <v>256</v>
+      <c r="P30" s="10" t="s">
+        <v>250</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -6732,60 +6229,60 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="7">
-        <v>1</v>
-      </c>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
-      <c r="I32" s="7" t="s">
+      <c r="G32" s="5">
+        <v>1</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J32" s="11">
         <v>20</v>
       </c>
-      <c r="K32" s="18">
-        <v>1</v>
-      </c>
-      <c r="L32" s="18">
-        <v>2</v>
-      </c>
-      <c r="M32" s="18">
+      <c r="K32" s="11">
+        <v>1</v>
+      </c>
+      <c r="L32" s="11">
+        <v>2</v>
+      </c>
+      <c r="M32" s="11">
         <f>SUM(J32:L32)</f>
         <v>23</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="18">
-        <v>1</v>
-      </c>
-      <c r="P32" s="18" t="s">
+      <c r="O32" s="11">
+        <v>1</v>
+      </c>
+      <c r="P32" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="Q32" s="18" t="s">
+      <c r="Q32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="R32" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="S32" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="T32" s="18" t="s">
+      <c r="R32" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="S32" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="T32" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="U32" s="18">
+      <c r="U32" s="11">
         <v>27</v>
       </c>
-      <c r="V32" s="18">
+      <c r="V32" s="11">
         <v>30</v>
       </c>
-      <c r="W32" s="18">
+      <c r="W32" s="11">
         <v>23</v>
       </c>
-      <c r="X32" s="18" t="s">
+      <c r="X32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Y32" s="18">
+      <c r="Y32" s="11">
         <v>1</v>
       </c>
     </row>
@@ -6795,84 +6292,84 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="7">
-        <v>1</v>
-      </c>
-      <c r="H33" s="7">
-        <v>2</v>
-      </c>
-      <c r="I33" s="7" t="s">
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5">
+        <v>2</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="18">
+      <c r="J33" s="11">
         <v>15</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K33" s="11">
         <v>0</v>
       </c>
-      <c r="L33" s="18">
-        <v>1</v>
-      </c>
-      <c r="M33" s="18">
+      <c r="L33" s="11">
+        <v>1</v>
+      </c>
+      <c r="M33" s="11">
         <f>SUM(J33:L33)</f>
         <v>16</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="18">
-        <v>2</v>
-      </c>
-      <c r="P33" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q33" s="18" t="s">
+      <c r="O33" s="11">
+        <v>2</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="R33" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="S33" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="T33" s="18" t="s">
+      <c r="R33" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="S33" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="T33" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="U33" s="18">
+      <c r="U33" s="11">
         <v>27</v>
       </c>
-      <c r="V33" s="18">
+      <c r="V33" s="11">
         <v>30</v>
       </c>
-      <c r="W33" s="18">
+      <c r="W33" s="11">
         <v>16</v>
       </c>
-      <c r="X33" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="Y33" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14">
+      <c r="X33" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y33" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="21">
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="13">
         <f>SUM(M32:M33)</f>
         <v>39</v>
       </c>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -6893,21 +6390,21 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
       <c r="N36" s="2"/>
-      <c r="O36" s="14" t="s">
+      <c r="O36" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="P36" s="14" t="s">
-        <v>263</v>
+      <c r="P36" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -6987,60 +6484,60 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="7">
-        <v>1</v>
-      </c>
-      <c r="H38" s="7">
-        <v>1</v>
-      </c>
-      <c r="I38" s="7" t="s">
+      <c r="G38" s="5">
+        <v>1</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J38" s="11">
         <v>20</v>
       </c>
-      <c r="K38" s="18">
-        <v>1</v>
-      </c>
-      <c r="L38" s="18">
-        <v>2</v>
-      </c>
-      <c r="M38" s="18">
+      <c r="K38" s="11">
+        <v>1</v>
+      </c>
+      <c r="L38" s="11">
+        <v>2</v>
+      </c>
+      <c r="M38" s="11">
         <f>SUM(J38:L38)</f>
         <v>23</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="18">
-        <v>1</v>
-      </c>
-      <c r="P38" s="18" t="s">
+      <c r="O38" s="11">
+        <v>1</v>
+      </c>
+      <c r="P38" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="Q38" s="18" t="s">
+      <c r="Q38" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="R38" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="S38" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="T38" s="18" t="s">
+      <c r="R38" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="S38" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="T38" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="U38" s="18">
+      <c r="U38" s="11">
         <v>27</v>
       </c>
-      <c r="V38" s="18">
+      <c r="V38" s="11">
         <v>30</v>
       </c>
-      <c r="W38" s="18">
+      <c r="W38" s="11">
         <v>23</v>
       </c>
-      <c r="X38" s="18" t="s">
+      <c r="X38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Y38" s="18">
+      <c r="Y38" s="11">
         <v>1</v>
       </c>
     </row>
@@ -7050,60 +6547,60 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="8">
-        <v>1</v>
-      </c>
-      <c r="H39" s="8">
-        <v>2</v>
-      </c>
-      <c r="I39" s="8" t="s">
+      <c r="G39" s="6">
+        <v>1</v>
+      </c>
+      <c r="H39" s="6">
+        <v>2</v>
+      </c>
+      <c r="I39" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J39" s="12">
         <v>15</v>
       </c>
-      <c r="K39" s="19">
+      <c r="K39" s="12">
         <v>0</v>
       </c>
-      <c r="L39" s="19">
-        <v>1</v>
-      </c>
-      <c r="M39" s="18">
+      <c r="L39" s="12">
+        <v>1</v>
+      </c>
+      <c r="M39" s="11">
         <f t="shared" ref="M39" si="1">SUM(J39:L39)</f>
         <v>16</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" s="18">
-        <v>2</v>
-      </c>
-      <c r="P39" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q39" s="18" t="s">
+      <c r="O39" s="11">
+        <v>2</v>
+      </c>
+      <c r="P39" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q39" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="R39" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="S39" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="T39" s="18" t="s">
+      <c r="R39" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="S39" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="T39" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="U39" s="18">
+      <c r="U39" s="11">
         <v>27</v>
       </c>
-      <c r="V39" s="18">
+      <c r="V39" s="11">
         <v>30</v>
       </c>
-      <c r="W39" s="18">
+      <c r="W39" s="11">
         <v>16</v>
       </c>
-      <c r="X39" s="18" t="s">
+      <c r="X39" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Y39" s="25">
+      <c r="Y39" s="16">
         <v>2</v>
       </c>
     </row>
@@ -7113,15 +6610,15 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="21">
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="13">
         <f>SUM(M38:M39)</f>
         <v>39</v>
       </c>
@@ -7138,7 +6635,7 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -7159,21 +6656,21 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
       <c r="N42" s="2"/>
-      <c r="O42" s="14" t="s">
+      <c r="O42" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="P42" s="14" t="s">
-        <v>269</v>
+      <c r="P42" s="10" t="s">
+        <v>263</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
@@ -7253,60 +6750,60 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="7">
-        <v>1</v>
-      </c>
-      <c r="H44" s="7">
-        <v>1</v>
-      </c>
-      <c r="I44" s="7" t="s">
+      <c r="G44" s="5">
+        <v>1</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J44" s="18">
+      <c r="J44" s="11">
         <v>4</v>
       </c>
-      <c r="K44" s="18">
+      <c r="K44" s="11">
         <v>0</v>
       </c>
-      <c r="L44" s="18">
+      <c r="L44" s="11">
         <v>0</v>
       </c>
-      <c r="M44" s="18">
+      <c r="M44" s="11">
         <f>SUM(J44:L44)</f>
         <v>4</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" s="18">
-        <v>1</v>
-      </c>
-      <c r="P44" s="18" t="s">
+      <c r="O44" s="11">
+        <v>1</v>
+      </c>
+      <c r="P44" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="Q44" s="18" t="s">
+      <c r="Q44" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="R44" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="S44" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="T44" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="U44" s="18">
+      <c r="R44" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="S44" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="T44" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="U44" s="11">
         <v>29</v>
       </c>
-      <c r="V44" s="18">
+      <c r="V44" s="11">
         <v>6</v>
       </c>
-      <c r="W44" s="18">
+      <c r="W44" s="11">
         <v>4</v>
       </c>
-      <c r="X44" s="18" t="s">
+      <c r="X44" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Y44" s="18">
+      <c r="Y44" s="11">
         <v>1</v>
       </c>
     </row>
@@ -7316,54 +6813,54 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="21">
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="13">
         <f>SUM(M44:M44)</f>
         <v>4</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" s="18">
-        <v>2</v>
-      </c>
-      <c r="P45" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q45" s="18" t="s">
+      <c r="O45" s="11">
+        <v>2</v>
+      </c>
+      <c r="P45" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q45" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="R45" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="S45" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="T45" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="U45" s="18">
+      <c r="R45" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="S45" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="T45" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="U45" s="11">
         <v>29</v>
       </c>
-      <c r="V45" s="18">
+      <c r="V45" s="11">
         <v>6</v>
       </c>
-      <c r="W45" s="18">
+      <c r="W45" s="11">
         <v>4</v>
       </c>
-      <c r="X45" s="18" t="s">
+      <c r="X45" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="Y45" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14">
+      <c r="Y45" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -7378,21 +6875,21 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="7:25">
-      <c r="G47" s="4" t="s">
+    <row r="47" spans="2:25">
+      <c r="G47" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="17"/>
-      <c r="O47" s="14" t="s">
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="28"/>
+      <c r="O47" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="P47" s="14" t="s">
-        <v>276</v>
+      <c r="P47" s="10" t="s">
+        <v>270</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
@@ -7404,7 +6901,7 @@
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
     </row>
-    <row r="48" spans="7:25">
+    <row r="48" spans="2:25">
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
@@ -7461,279 +6958,278 @@
       </c>
     </row>
     <row r="49" spans="7:25">
-      <c r="G49" s="7">
-        <v>1</v>
-      </c>
-      <c r="H49" s="7">
-        <v>1</v>
-      </c>
-      <c r="I49" s="7" t="s">
+      <c r="G49" s="5">
+        <v>1</v>
+      </c>
+      <c r="H49" s="5">
+        <v>1</v>
+      </c>
+      <c r="I49" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J49" s="18">
+      <c r="J49" s="11">
         <v>60</v>
       </c>
-      <c r="K49" s="18">
+      <c r="K49" s="11">
         <v>4</v>
       </c>
-      <c r="L49" s="18">
+      <c r="L49" s="11">
         <v>5</v>
       </c>
-      <c r="M49" s="18">
+      <c r="M49" s="11">
         <v>69</v>
       </c>
-      <c r="O49" s="18">
-        <v>1</v>
-      </c>
-      <c r="P49" s="18" t="s">
+      <c r="O49" s="11">
+        <v>1</v>
+      </c>
+      <c r="P49" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="Q49" s="18" t="s">
+      <c r="Q49" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="R49" s="18" t="s">
+      <c r="R49" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="S49" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="T49" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="U49" s="11">
+        <v>25</v>
+      </c>
+      <c r="V49" s="11">
+        <v>126</v>
+      </c>
+      <c r="W49" s="11">
+        <v>69</v>
+      </c>
+      <c r="X49" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y49" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="7:25">
+      <c r="G50" s="6">
+        <v>1</v>
+      </c>
+      <c r="H50" s="6">
+        <v>2</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J50" s="12">
+        <v>45</v>
+      </c>
+      <c r="K50" s="12">
+        <v>1</v>
+      </c>
+      <c r="L50" s="12">
+        <v>2</v>
+      </c>
+      <c r="M50" s="11">
+        <v>48</v>
+      </c>
+      <c r="O50" s="11">
+        <v>2</v>
+      </c>
+      <c r="P50" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q50" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="R50" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="S50" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="T50" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="U50" s="11">
+        <v>26</v>
+      </c>
+      <c r="V50" s="11">
+        <v>62</v>
+      </c>
+      <c r="W50" s="11">
+        <v>48</v>
+      </c>
+      <c r="X50" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y50" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="7:25">
+      <c r="G51" s="5">
+        <v>2</v>
+      </c>
+      <c r="H51" s="5">
+        <v>1</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J51" s="11">
+        <v>30</v>
+      </c>
+      <c r="K51" s="11">
+        <v>1</v>
+      </c>
+      <c r="L51" s="11">
+        <v>3</v>
+      </c>
+      <c r="M51" s="11">
+        <v>34</v>
+      </c>
+      <c r="O51" s="11">
+        <v>3</v>
+      </c>
+      <c r="P51" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="S49" s="18" t="s">
+      <c r="Q51" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="R51" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="T49" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="U49" s="18">
-        <v>25</v>
-      </c>
-      <c r="V49" s="18">
-        <v>126</v>
-      </c>
-      <c r="W49" s="18">
-        <v>69</v>
-      </c>
-      <c r="X49" s="18" t="s">
+      <c r="S51" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="Y49" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="7:25">
-      <c r="G50" s="8">
-        <v>1</v>
-      </c>
-      <c r="H50" s="8">
-        <v>2</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J50" s="19">
-        <v>45</v>
-      </c>
-      <c r="K50" s="19">
-        <v>1</v>
-      </c>
-      <c r="L50" s="19">
-        <v>2</v>
-      </c>
-      <c r="M50" s="18">
-        <v>48</v>
-      </c>
-      <c r="O50" s="18">
-        <v>2</v>
-      </c>
-      <c r="P50" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q50" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="R50" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="S50" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="T50" s="18" t="s">
+      <c r="T51" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="U50" s="18">
+      <c r="U51" s="12">
         <v>26</v>
       </c>
-      <c r="V50" s="18">
+      <c r="V51" s="12">
         <v>62</v>
       </c>
-      <c r="W50" s="18">
-        <v>48</v>
-      </c>
-      <c r="X50" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y50" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="7:25">
-      <c r="G51" s="7">
-        <v>2</v>
-      </c>
-      <c r="H51" s="7">
-        <v>1</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J51" s="18">
-        <v>30</v>
-      </c>
-      <c r="K51" s="18">
-        <v>1</v>
-      </c>
-      <c r="L51" s="18">
-        <v>3</v>
-      </c>
-      <c r="M51" s="18">
+      <c r="W51" s="12">
         <v>34</v>
       </c>
-      <c r="O51" s="18">
-        <v>3</v>
-      </c>
-      <c r="P51" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q51" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="R51" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="S51" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="T51" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="U51" s="19">
-        <v>26</v>
-      </c>
-      <c r="V51" s="19">
-        <v>62</v>
-      </c>
-      <c r="W51" s="19">
-        <v>34</v>
-      </c>
-      <c r="X51" s="19" t="s">
+      <c r="X51" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="Y51" s="18">
+      <c r="Y51" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="7:25">
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="21">
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="13">
         <f>SUM(M49:M51)</f>
         <v>151</v>
       </c>
-      <c r="O52" s="18">
+      <c r="O52" s="11">
         <v>4</v>
       </c>
-      <c r="P52" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q52" s="19" t="s">
+      <c r="P52" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q52" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="R52" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="S52" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="T52" s="19" t="s">
+      <c r="R52" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="S52" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="T52" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="U52" s="19">
+      <c r="U52" s="12">
         <v>28</v>
       </c>
-      <c r="V52" s="19">
+      <c r="V52" s="12">
         <v>14</v>
       </c>
-      <c r="W52" s="19">
+      <c r="W52" s="12">
         <v>10</v>
       </c>
-      <c r="X52" s="19">
-        <v>1</v>
-      </c>
-      <c r="Y52" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="15:25">
-      <c r="O53" s="18">
+      <c r="X52" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="7:25">
+      <c r="O53" s="11">
         <v>5</v>
       </c>
-      <c r="P53" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q53" s="18" t="s">
+      <c r="P53" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q53" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="R53" s="18" t="s">
+      <c r="R53" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="S53" s="18" t="s">
+      <c r="S53" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="T53" s="18" t="s">
+      <c r="T53" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="U53" s="18">
+      <c r="U53" s="11">
         <v>30</v>
       </c>
-      <c r="V53" s="18">
-        <v>2</v>
-      </c>
-      <c r="W53" s="18">
-        <v>1</v>
-      </c>
-      <c r="X53" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y53" s="18">
+      <c r="V53" s="11">
+        <v>2</v>
+      </c>
+      <c r="W53" s="11">
+        <v>1</v>
+      </c>
+      <c r="X53" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G42:M42"/>
+    <mergeCell ref="G45:L45"/>
+    <mergeCell ref="G47:M47"/>
+    <mergeCell ref="G52:L52"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G36:M36"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G24:M24"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="G3:M3"/>
     <mergeCell ref="G8:L8"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="G24:M24"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="G30:M30"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="G36:M36"/>
-    <mergeCell ref="G40:L40"/>
-    <mergeCell ref="G42:M42"/>
-    <mergeCell ref="G45:L45"/>
-    <mergeCell ref="G47:M47"/>
-    <mergeCell ref="G52:L52"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
-  <headerFooter/>
 </worksheet>
 </file>